--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848762121507707</v>
+        <v>0.9848762121507717</v>
       </c>
       <c r="D2">
         <v>1.005654721093799</v>
       </c>
       <c r="E2">
-        <v>0.9931576807947442</v>
+        <v>0.9931576807947452</v>
       </c>
       <c r="F2">
-        <v>0.9875437653822222</v>
+        <v>0.9875437653822232</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.017035834825346</v>
       </c>
       <c r="L2">
-        <v>1.004713170301656</v>
+        <v>1.004713170301657</v>
       </c>
       <c r="M2">
-        <v>0.9991794070231896</v>
+        <v>0.9991794070231905</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9955621471524055</v>
+        <v>0.9955621471524073</v>
       </c>
       <c r="D3">
-        <v>1.01421628907728</v>
+        <v>1.014216289077282</v>
       </c>
       <c r="E3">
-        <v>1.003283584339344</v>
+        <v>1.003283584339346</v>
       </c>
       <c r="F3">
-        <v>0.9987335173584629</v>
+        <v>0.9987335173584646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042268940039425</v>
+        <v>1.042268940039426</v>
       </c>
       <c r="J3">
-        <v>1.016174527989362</v>
+        <v>1.016174527989363</v>
       </c>
       <c r="K3">
-        <v>1.024670444691901</v>
+        <v>1.024670444691902</v>
       </c>
       <c r="L3">
-        <v>1.013874622791949</v>
+        <v>1.013874622791951</v>
       </c>
       <c r="M3">
-        <v>1.009382628756258</v>
+        <v>1.00938262875626</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,22 +503,22 @@
         <v>1.019507467258724</v>
       </c>
       <c r="E4">
-        <v>1.009543573603689</v>
+        <v>1.009543573603688</v>
       </c>
       <c r="F4">
-        <v>1.005655189795585</v>
+        <v>1.005655189795584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04484558027657</v>
+        <v>1.044845580276569</v>
       </c>
       <c r="J4">
-        <v>1.021510891298877</v>
+        <v>1.021510891298876</v>
       </c>
       <c r="K4">
-        <v>1.029376020077815</v>
+        <v>1.029376020077814</v>
       </c>
       <c r="L4">
         <v>1.019528164678982</v>
@@ -532,16 +532,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
         <v>1.004868114247382</v>
       </c>
       <c r="D5">
-        <v>1.021677173482331</v>
+        <v>1.02167717348233</v>
       </c>
       <c r="E5">
-        <v>1.012111144666726</v>
+        <v>1.012111144666727</v>
       </c>
       <c r="F5">
         <v>1.008495196887897</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045897540461796</v>
+        <v>1.045897540461795</v>
       </c>
       <c r="J5">
-        <v>1.023696142246073</v>
+        <v>1.023696142246072</v>
       </c>
       <c r="K5">
-        <v>1.031302605629206</v>
+        <v>1.031302605629205</v>
       </c>
       <c r="L5">
         <v>1.021844572857098</v>
       </c>
       <c r="M5">
-        <v>1.018270106296146</v>
+        <v>1.018270106296145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,7 +576,7 @@
         <v>1.005318550828117</v>
       </c>
       <c r="D6">
-        <v>1.022038397469057</v>
+        <v>1.022038397469056</v>
       </c>
       <c r="E6">
         <v>1.012538645074082</v>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046072404761779</v>
+        <v>1.04607240476178</v>
       </c>
       <c r="J6">
         <v>1.024059781940022</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002198754979373</v>
+        <v>1.002198754979375</v>
       </c>
       <c r="D7">
-        <v>1.019536668019299</v>
+        <v>1.0195366680193</v>
       </c>
       <c r="E7">
-        <v>1.009578126497573</v>
+        <v>1.009578126497575</v>
       </c>
       <c r="F7">
-        <v>1.005693404732912</v>
+        <v>1.005693404732914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044859756294428</v>
+        <v>1.044859756294429</v>
       </c>
       <c r="J7">
-        <v>1.02154031295889</v>
+        <v>1.021540312958892</v>
       </c>
       <c r="K7">
-        <v>1.029401960606257</v>
+        <v>1.029401960606259</v>
       </c>
       <c r="L7">
-        <v>1.019559347164615</v>
+        <v>1.019559347164617</v>
       </c>
       <c r="M7">
-        <v>1.015720619086123</v>
+        <v>1.015720619086125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9885567435684529</v>
+        <v>0.9885567435684532</v>
       </c>
       <c r="D8">
         <v>1.00860277830118</v>
       </c>
       <c r="E8">
-        <v>0.9966440326728286</v>
+        <v>0.996644032672829</v>
       </c>
       <c r="F8">
-        <v>0.9913956044273483</v>
+        <v>0.9913956044273484</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>1.010502179234742</v>
       </c>
       <c r="K8">
-        <v>1.019667466908008</v>
+        <v>1.019667466908009</v>
       </c>
       <c r="L8">
         <v>1.007869655389418</v>
       </c>
       <c r="M8">
-        <v>1.002693403122969</v>
+        <v>1.002693403122968</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9617699430228144</v>
+        <v>0.9617699430228155</v>
       </c>
       <c r="D9">
-        <v>0.9871701083168892</v>
+        <v>0.9871701083168904</v>
       </c>
       <c r="E9">
-        <v>0.9713016072229103</v>
+        <v>0.9713016072229111</v>
       </c>
       <c r="F9">
-        <v>0.9634098972241851</v>
+        <v>0.9634098972241864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028886044675567</v>
+        <v>1.028886044675568</v>
       </c>
       <c r="J9">
-        <v>0.9887488884709895</v>
+        <v>0.9887488884709905</v>
       </c>
       <c r="K9">
-        <v>1.000474828799194</v>
+        <v>1.000474828799195</v>
       </c>
       <c r="L9">
-        <v>0.9848781140019496</v>
+        <v>0.9848781140019505</v>
       </c>
       <c r="M9">
-        <v>0.9771258969893053</v>
+        <v>0.9771258969893065</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414664777482649</v>
+        <v>0.9414664777482643</v>
       </c>
       <c r="D10">
-        <v>0.9709685978956967</v>
+        <v>0.9709685978956962</v>
       </c>
       <c r="E10">
-        <v>0.9521418304123311</v>
+        <v>0.9521418304123304</v>
       </c>
       <c r="F10">
-        <v>0.9422626808029001</v>
+        <v>0.9422626808028994</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020732136162385</v>
+        <v>1.020732136162384</v>
       </c>
       <c r="J10">
-        <v>0.9722116190319308</v>
+        <v>0.9722116190319302</v>
       </c>
       <c r="K10">
-        <v>0.9858825821275687</v>
+        <v>0.9858825821275683</v>
       </c>
       <c r="L10">
-        <v>0.9674325030988055</v>
+        <v>0.9674325030988048</v>
       </c>
       <c r="M10">
-        <v>0.9577589884191058</v>
+        <v>0.9577589884191052</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9319105358114474</v>
+        <v>0.931910535811447</v>
       </c>
       <c r="D11">
-        <v>0.9633591353034594</v>
+        <v>0.9633591353034591</v>
       </c>
       <c r="E11">
-        <v>0.9431392131781687</v>
+        <v>0.9431392131781684</v>
       </c>
       <c r="F11">
         <v>0.9323260644437519</v>
@@ -781,16 +781,16 @@
         <v>1.016873856210716</v>
       </c>
       <c r="J11">
-        <v>0.9644183990890477</v>
+        <v>0.9644183990890474</v>
       </c>
       <c r="K11">
-        <v>0.9790067836394453</v>
+        <v>0.9790067836394452</v>
       </c>
       <c r="L11">
-        <v>0.9592194758484137</v>
+        <v>0.9592194758484133</v>
       </c>
       <c r="M11">
-        <v>0.9486479591653689</v>
+        <v>0.9486479591653688</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282250239956307</v>
+        <v>0.9282250239956309</v>
       </c>
       <c r="D12">
         <v>0.9604273173017602</v>
       </c>
       <c r="E12">
-        <v>0.9396697384214956</v>
+        <v>0.9396697384214957</v>
       </c>
       <c r="F12">
         <v>0.9284962977133173</v>
@@ -819,10 +819,10 @@
         <v>1.015382926672804</v>
       </c>
       <c r="J12">
-        <v>0.9614114584827024</v>
+        <v>0.9614114584827027</v>
       </c>
       <c r="K12">
-        <v>0.9763540755329359</v>
+        <v>0.9763540755329357</v>
       </c>
       <c r="L12">
         <v>0.9560518364728808</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290221392984302</v>
+        <v>0.9290221392984317</v>
       </c>
       <c r="D13">
-        <v>0.961061275947281</v>
+        <v>0.9610612759472823</v>
       </c>
       <c r="E13">
-        <v>0.9404200031260459</v>
+        <v>0.9404200031260475</v>
       </c>
       <c r="F13">
-        <v>0.9293244960684135</v>
+        <v>0.9293244960684152</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015705515529098</v>
+        <v>1.015705515529099</v>
       </c>
       <c r="J13">
-        <v>0.9620618632448146</v>
+        <v>0.9620618632448159</v>
       </c>
       <c r="K13">
-        <v>0.9769278455828045</v>
+        <v>0.9769278455828058</v>
       </c>
       <c r="L13">
-        <v>0.956736942246423</v>
+        <v>0.9567369422464244</v>
       </c>
       <c r="M13">
-        <v>0.945894590349098</v>
+        <v>0.9458945903490993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9316088086692872</v>
+        <v>0.9316088086692922</v>
       </c>
       <c r="D14">
-        <v>0.9631190479584641</v>
+        <v>0.9631190479584686</v>
       </c>
       <c r="E14">
-        <v>0.9428551171798355</v>
+        <v>0.9428551171798399</v>
       </c>
       <c r="F14">
-        <v>0.9320124751760411</v>
+        <v>0.9320124751760462</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01675185267162</v>
+        <v>1.016751852671622</v>
       </c>
       <c r="J14">
-        <v>0.9641722497223256</v>
+        <v>0.9641722497223304</v>
       </c>
       <c r="K14">
-        <v>0.9787896259287032</v>
+        <v>0.9787896259287077</v>
       </c>
       <c r="L14">
-        <v>0.9589601455717375</v>
+        <v>0.9589601455717423</v>
       </c>
       <c r="M14">
-        <v>0.9483603251874712</v>
+        <v>0.9483603251874763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9331837842194304</v>
+        <v>0.9331837842194317</v>
       </c>
       <c r="D15">
-        <v>0.964372396004412</v>
+        <v>0.964372396004413</v>
       </c>
       <c r="E15">
-        <v>0.94433816905159</v>
+        <v>0.9443381690515913</v>
       </c>
       <c r="F15">
-        <v>0.9336494733379336</v>
+        <v>0.9336494733379348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017388580308706</v>
+        <v>1.017388580308707</v>
       </c>
       <c r="J15">
-        <v>0.9654570668207476</v>
+        <v>0.9654570668207486</v>
       </c>
       <c r="K15">
-        <v>0.9799231273901584</v>
+        <v>0.9799231273901596</v>
       </c>
       <c r="L15">
-        <v>0.9603138144522091</v>
+        <v>0.9603138144522103</v>
       </c>
       <c r="M15">
-        <v>0.9498617671189595</v>
+        <v>0.9498617671189608</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420828910439198</v>
+        <v>0.942082891043919</v>
       </c>
       <c r="D16">
-        <v>0.9714598211606434</v>
+        <v>0.9714598211606429</v>
       </c>
       <c r="E16">
-        <v>0.9527228858786937</v>
+        <v>0.9527228858786929</v>
       </c>
       <c r="F16">
-        <v>0.9429039915981872</v>
+        <v>0.9429039915981858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020980615274571</v>
+        <v>1.02098061527457</v>
       </c>
       <c r="J16">
-        <v>0.9727141422183698</v>
+        <v>0.9727141422183689</v>
       </c>
       <c r="K16">
-        <v>0.9863259749844179</v>
+        <v>0.9863259749844173</v>
       </c>
       <c r="L16">
-        <v>0.9679622672419028</v>
+        <v>0.9679622672419022</v>
       </c>
       <c r="M16">
-        <v>0.9583467958280485</v>
+        <v>0.9583467958280472</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9474471785863059</v>
+        <v>0.9474471785863068</v>
       </c>
       <c r="D17">
-        <v>0.9757364600701876</v>
+        <v>0.9757364600701882</v>
       </c>
       <c r="E17">
-        <v>0.9577811695229735</v>
+        <v>0.9577811695229742</v>
       </c>
       <c r="F17">
-        <v>0.9484867721245051</v>
+        <v>0.9484867721245061</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023140731675933</v>
       </c>
       <c r="J17">
-        <v>0.9770862407450858</v>
+        <v>0.9770862407450867</v>
       </c>
       <c r="K17">
-        <v>0.9901837259383024</v>
+        <v>0.9901837259383032</v>
       </c>
       <c r="L17">
-        <v>0.9725722840313412</v>
+        <v>0.9725722840313421</v>
       </c>
       <c r="M17">
-        <v>0.9634626093020332</v>
+        <v>0.963462609302034</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505040092076525</v>
+        <v>0.9505040092076502</v>
       </c>
       <c r="D18">
-        <v>0.9781749078276483</v>
+        <v>0.9781749078276462</v>
       </c>
       <c r="E18">
-        <v>0.9606649762682886</v>
+        <v>0.9606649762682865</v>
       </c>
       <c r="F18">
-        <v>0.9516696116601786</v>
+        <v>0.9516696116601759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024369766580605</v>
+        <v>1.024369766580604</v>
       </c>
       <c r="J18">
-        <v>0.979576754653103</v>
+        <v>0.9795767546531006</v>
       </c>
       <c r="K18">
-        <v>0.9923813142494022</v>
+        <v>0.9923813142494002</v>
       </c>
       <c r="L18">
-        <v>0.9751990782092336</v>
+        <v>0.9751990782092315</v>
       </c>
       <c r="M18">
-        <v>0.9663782157768727</v>
+        <v>0.9663782157768701</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9515346388206483</v>
+        <v>0.9515346388206471</v>
       </c>
       <c r="D19">
-        <v>0.9789972701972064</v>
+        <v>0.9789972701972056</v>
       </c>
       <c r="E19">
-        <v>0.9616374897465425</v>
+        <v>0.9616374897465413</v>
       </c>
       <c r="F19">
-        <v>0.9527429781493841</v>
+        <v>0.9527429781493831</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024783814926666</v>
+        <v>1.024783814926665</v>
       </c>
       <c r="J19">
-        <v>0.9804162858290704</v>
+        <v>0.9804162858290694</v>
       </c>
       <c r="K19">
-        <v>0.9931221106114976</v>
+        <v>0.9931221106114967</v>
       </c>
       <c r="L19">
-        <v>0.9760846750157094</v>
+        <v>0.9760846750157083</v>
       </c>
       <c r="M19">
-        <v>0.9673612900678714</v>
+        <v>0.9673612900678705</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9468792304426101</v>
+        <v>0.9468792304426082</v>
       </c>
       <c r="D20">
-        <v>0.9752835165197501</v>
+        <v>0.9752835165197484</v>
       </c>
       <c r="E20">
-        <v>0.9572454763867381</v>
+        <v>0.9572454763867363</v>
       </c>
       <c r="F20">
-        <v>0.9478955336210725</v>
+        <v>0.9478955336210707</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022912225005225</v>
+        <v>1.022912225005224</v>
       </c>
       <c r="J20">
-        <v>0.9766234360477969</v>
+        <v>0.9766234360477949</v>
       </c>
       <c r="K20">
-        <v>0.9897753593125649</v>
+        <v>0.9897753593125633</v>
       </c>
       <c r="L20">
-        <v>0.9720842158612483</v>
+        <v>0.9720842158612464</v>
       </c>
       <c r="M20">
-        <v>0.9629209293119145</v>
+        <v>0.9629209293119128</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.930851053583632</v>
+        <v>0.9308510535836331</v>
       </c>
       <c r="D21">
-        <v>0.9625161445097544</v>
+        <v>0.962516144509755</v>
       </c>
       <c r="E21">
-        <v>0.9421416843384925</v>
+        <v>0.9421416843384937</v>
       </c>
       <c r="F21">
-        <v>0.9312249709792426</v>
+        <v>0.9312249709792434</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.016445408764195</v>
       </c>
       <c r="J21">
-        <v>0.9635540526883285</v>
+        <v>0.9635540526883293</v>
       </c>
       <c r="K21">
-        <v>0.9782442451563744</v>
+        <v>0.9782442451563749</v>
       </c>
       <c r="L21">
-        <v>0.9583088656904136</v>
+        <v>0.9583088656904145</v>
       </c>
       <c r="M21">
-        <v>0.9476379759446797</v>
+        <v>0.9476379759446805</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9199712152025705</v>
+        <v>0.9199712152025725</v>
       </c>
       <c r="D22">
-        <v>0.9538677781896709</v>
+        <v>0.9538677781896729</v>
       </c>
       <c r="E22">
-        <v>0.9319051549554157</v>
+        <v>0.9319051549554179</v>
       </c>
       <c r="F22">
-        <v>0.9199243112950459</v>
+        <v>0.919924311295048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012038883611289</v>
+        <v>1.01203888361129</v>
       </c>
       <c r="J22">
-        <v>0.9546752542148589</v>
+        <v>0.9546752542148608</v>
       </c>
       <c r="K22">
-        <v>0.9704120747981416</v>
+        <v>0.9704120747981436</v>
       </c>
       <c r="L22">
-        <v>0.9489580684197902</v>
+        <v>0.9489580684197925</v>
       </c>
       <c r="M22">
-        <v>0.9372684831798661</v>
+        <v>0.9372684831798682</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258236415533868</v>
+        <v>0.9258236415533893</v>
       </c>
       <c r="D23">
-        <v>0.9585179506373915</v>
+        <v>0.9585179506373934</v>
       </c>
       <c r="E23">
-        <v>0.9374099178575757</v>
+        <v>0.9374099178575779</v>
       </c>
       <c r="F23">
-        <v>0.9260016584535615</v>
+        <v>0.9260016584535641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014410696121156</v>
+        <v>1.014410696121158</v>
       </c>
       <c r="J23">
-        <v>0.9594518881339815</v>
+        <v>0.9594518881339836</v>
       </c>
       <c r="K23">
-        <v>0.9746254428276524</v>
+        <v>0.9746254428276542</v>
       </c>
       <c r="L23">
-        <v>0.953987908634898</v>
+        <v>0.9539879086349004</v>
       </c>
       <c r="M23">
-        <v>0.9428459208687764</v>
+        <v>0.9428459208687787</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9471360829362375</v>
+        <v>0.9471360829362359</v>
       </c>
       <c r="D24">
-        <v>0.9754883542379145</v>
+        <v>0.9754883542379131</v>
       </c>
       <c r="E24">
-        <v>0.957487737477291</v>
+        <v>0.957487737477289</v>
       </c>
       <c r="F24">
-        <v>0.9481629144183921</v>
+        <v>0.9481629144183907</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023015572276781</v>
       </c>
       <c r="J24">
-        <v>0.9768327406816324</v>
+        <v>0.9768327406816308</v>
       </c>
       <c r="K24">
-        <v>0.9899600439882542</v>
+        <v>0.9899600439882529</v>
       </c>
       <c r="L24">
-        <v>0.9723049436195899</v>
+        <v>0.9723049436195881</v>
       </c>
       <c r="M24">
-        <v>0.9631659009873768</v>
+        <v>0.9631659009873754</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9690745531942085</v>
+        <v>0.969074553194212</v>
       </c>
       <c r="D25">
-        <v>0.9930088951108864</v>
+        <v>0.9930088951108895</v>
       </c>
       <c r="E25">
-        <v>0.9782051516052817</v>
+        <v>0.9782051516052853</v>
       </c>
       <c r="F25">
-        <v>0.9710309679364421</v>
+        <v>0.9710309679364452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031801719723539</v>
+        <v>1.03180171972354</v>
       </c>
       <c r="J25">
-        <v>0.9946894653521519</v>
+        <v>0.9946894653521553</v>
       </c>
       <c r="K25">
-        <v>1.005716717187236</v>
+        <v>1.005716717187239</v>
       </c>
       <c r="L25">
-        <v>0.9911514972947055</v>
+        <v>0.9911514972947091</v>
       </c>
       <c r="M25">
-        <v>0.9840962784960687</v>
+        <v>0.9840962784960718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848762121507717</v>
+        <v>0.9848762121507707</v>
       </c>
       <c r="D2">
         <v>1.005654721093799</v>
       </c>
       <c r="E2">
-        <v>0.9931576807947452</v>
+        <v>0.9931576807947442</v>
       </c>
       <c r="F2">
-        <v>0.9875437653822232</v>
+        <v>0.9875437653822222</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.017035834825346</v>
       </c>
       <c r="L2">
-        <v>1.004713170301657</v>
+        <v>1.004713170301656</v>
       </c>
       <c r="M2">
-        <v>0.9991794070231905</v>
+        <v>0.9991794070231896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9955621471524073</v>
+        <v>0.9955621471524055</v>
       </c>
       <c r="D3">
-        <v>1.014216289077282</v>
+        <v>1.01421628907728</v>
       </c>
       <c r="E3">
-        <v>1.003283584339346</v>
+        <v>1.003283584339344</v>
       </c>
       <c r="F3">
-        <v>0.9987335173584646</v>
+        <v>0.9987335173584629</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042268940039426</v>
+        <v>1.042268940039425</v>
       </c>
       <c r="J3">
-        <v>1.016174527989363</v>
+        <v>1.016174527989362</v>
       </c>
       <c r="K3">
-        <v>1.024670444691902</v>
+        <v>1.024670444691901</v>
       </c>
       <c r="L3">
-        <v>1.013874622791951</v>
+        <v>1.013874622791949</v>
       </c>
       <c r="M3">
-        <v>1.00938262875626</v>
+        <v>1.009382628756258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,22 +503,22 @@
         <v>1.019507467258724</v>
       </c>
       <c r="E4">
-        <v>1.009543573603688</v>
+        <v>1.009543573603689</v>
       </c>
       <c r="F4">
-        <v>1.005655189795584</v>
+        <v>1.005655189795585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044845580276569</v>
+        <v>1.04484558027657</v>
       </c>
       <c r="J4">
-        <v>1.021510891298876</v>
+        <v>1.021510891298877</v>
       </c>
       <c r="K4">
-        <v>1.029376020077814</v>
+        <v>1.029376020077815</v>
       </c>
       <c r="L4">
         <v>1.019528164678982</v>
@@ -532,16 +532,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
         <v>1.004868114247382</v>
       </c>
       <c r="D5">
-        <v>1.02167717348233</v>
+        <v>1.021677173482331</v>
       </c>
       <c r="E5">
-        <v>1.012111144666727</v>
+        <v>1.012111144666726</v>
       </c>
       <c r="F5">
         <v>1.008495196887897</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045897540461795</v>
+        <v>1.045897540461796</v>
       </c>
       <c r="J5">
-        <v>1.023696142246072</v>
+        <v>1.023696142246073</v>
       </c>
       <c r="K5">
-        <v>1.031302605629205</v>
+        <v>1.031302605629206</v>
       </c>
       <c r="L5">
         <v>1.021844572857098</v>
       </c>
       <c r="M5">
-        <v>1.018270106296145</v>
+        <v>1.018270106296146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,7 +576,7 @@
         <v>1.005318550828117</v>
       </c>
       <c r="D6">
-        <v>1.022038397469056</v>
+        <v>1.022038397469057</v>
       </c>
       <c r="E6">
         <v>1.012538645074082</v>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04607240476178</v>
+        <v>1.046072404761779</v>
       </c>
       <c r="J6">
         <v>1.024059781940022</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002198754979375</v>
+        <v>1.002198754979373</v>
       </c>
       <c r="D7">
-        <v>1.0195366680193</v>
+        <v>1.019536668019299</v>
       </c>
       <c r="E7">
-        <v>1.009578126497575</v>
+        <v>1.009578126497573</v>
       </c>
       <c r="F7">
-        <v>1.005693404732914</v>
+        <v>1.005693404732912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044859756294429</v>
+        <v>1.044859756294428</v>
       </c>
       <c r="J7">
-        <v>1.021540312958892</v>
+        <v>1.02154031295889</v>
       </c>
       <c r="K7">
-        <v>1.029401960606259</v>
+        <v>1.029401960606257</v>
       </c>
       <c r="L7">
-        <v>1.019559347164617</v>
+        <v>1.019559347164615</v>
       </c>
       <c r="M7">
-        <v>1.015720619086125</v>
+        <v>1.015720619086123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9885567435684532</v>
+        <v>0.9885567435684529</v>
       </c>
       <c r="D8">
         <v>1.00860277830118</v>
       </c>
       <c r="E8">
-        <v>0.996644032672829</v>
+        <v>0.9966440326728286</v>
       </c>
       <c r="F8">
-        <v>0.9913956044273484</v>
+        <v>0.9913956044273483</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>1.010502179234742</v>
       </c>
       <c r="K8">
-        <v>1.019667466908009</v>
+        <v>1.019667466908008</v>
       </c>
       <c r="L8">
         <v>1.007869655389418</v>
       </c>
       <c r="M8">
-        <v>1.002693403122968</v>
+        <v>1.002693403122969</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9617699430228155</v>
+        <v>0.9617699430228144</v>
       </c>
       <c r="D9">
-        <v>0.9871701083168904</v>
+        <v>0.9871701083168892</v>
       </c>
       <c r="E9">
-        <v>0.9713016072229111</v>
+        <v>0.9713016072229103</v>
       </c>
       <c r="F9">
-        <v>0.9634098972241864</v>
+        <v>0.9634098972241851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028886044675568</v>
+        <v>1.028886044675567</v>
       </c>
       <c r="J9">
-        <v>0.9887488884709905</v>
+        <v>0.9887488884709895</v>
       </c>
       <c r="K9">
-        <v>1.000474828799195</v>
+        <v>1.000474828799194</v>
       </c>
       <c r="L9">
-        <v>0.9848781140019505</v>
+        <v>0.9848781140019496</v>
       </c>
       <c r="M9">
-        <v>0.9771258969893065</v>
+        <v>0.9771258969893053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414664777482643</v>
+        <v>0.9414664777482649</v>
       </c>
       <c r="D10">
-        <v>0.9709685978956962</v>
+        <v>0.9709685978956967</v>
       </c>
       <c r="E10">
-        <v>0.9521418304123304</v>
+        <v>0.9521418304123311</v>
       </c>
       <c r="F10">
-        <v>0.9422626808028994</v>
+        <v>0.9422626808029001</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020732136162384</v>
+        <v>1.020732136162385</v>
       </c>
       <c r="J10">
-        <v>0.9722116190319302</v>
+        <v>0.9722116190319308</v>
       </c>
       <c r="K10">
-        <v>0.9858825821275683</v>
+        <v>0.9858825821275687</v>
       </c>
       <c r="L10">
-        <v>0.9674325030988048</v>
+        <v>0.9674325030988055</v>
       </c>
       <c r="M10">
-        <v>0.9577589884191052</v>
+        <v>0.9577589884191058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.931910535811447</v>
+        <v>0.9319105358114474</v>
       </c>
       <c r="D11">
-        <v>0.9633591353034591</v>
+        <v>0.9633591353034594</v>
       </c>
       <c r="E11">
-        <v>0.9431392131781684</v>
+        <v>0.9431392131781687</v>
       </c>
       <c r="F11">
         <v>0.9323260644437519</v>
@@ -781,16 +781,16 @@
         <v>1.016873856210716</v>
       </c>
       <c r="J11">
-        <v>0.9644183990890474</v>
+        <v>0.9644183990890477</v>
       </c>
       <c r="K11">
-        <v>0.9790067836394452</v>
+        <v>0.9790067836394453</v>
       </c>
       <c r="L11">
-        <v>0.9592194758484133</v>
+        <v>0.9592194758484137</v>
       </c>
       <c r="M11">
-        <v>0.9486479591653688</v>
+        <v>0.9486479591653689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282250239956309</v>
+        <v>0.9282250239956307</v>
       </c>
       <c r="D12">
         <v>0.9604273173017602</v>
       </c>
       <c r="E12">
-        <v>0.9396697384214957</v>
+        <v>0.9396697384214956</v>
       </c>
       <c r="F12">
         <v>0.9284962977133173</v>
@@ -819,10 +819,10 @@
         <v>1.015382926672804</v>
       </c>
       <c r="J12">
-        <v>0.9614114584827027</v>
+        <v>0.9614114584827024</v>
       </c>
       <c r="K12">
-        <v>0.9763540755329357</v>
+        <v>0.9763540755329359</v>
       </c>
       <c r="L12">
         <v>0.9560518364728808</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290221392984317</v>
+        <v>0.9290221392984302</v>
       </c>
       <c r="D13">
-        <v>0.9610612759472823</v>
+        <v>0.961061275947281</v>
       </c>
       <c r="E13">
-        <v>0.9404200031260475</v>
+        <v>0.9404200031260459</v>
       </c>
       <c r="F13">
-        <v>0.9293244960684152</v>
+        <v>0.9293244960684135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015705515529099</v>
+        <v>1.015705515529098</v>
       </c>
       <c r="J13">
-        <v>0.9620618632448159</v>
+        <v>0.9620618632448146</v>
       </c>
       <c r="K13">
-        <v>0.9769278455828058</v>
+        <v>0.9769278455828045</v>
       </c>
       <c r="L13">
-        <v>0.9567369422464244</v>
+        <v>0.956736942246423</v>
       </c>
       <c r="M13">
-        <v>0.9458945903490993</v>
+        <v>0.945894590349098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9316088086692922</v>
+        <v>0.9316088086692872</v>
       </c>
       <c r="D14">
-        <v>0.9631190479584686</v>
+        <v>0.9631190479584641</v>
       </c>
       <c r="E14">
-        <v>0.9428551171798399</v>
+        <v>0.9428551171798355</v>
       </c>
       <c r="F14">
-        <v>0.9320124751760462</v>
+        <v>0.9320124751760411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016751852671622</v>
+        <v>1.01675185267162</v>
       </c>
       <c r="J14">
-        <v>0.9641722497223304</v>
+        <v>0.9641722497223256</v>
       </c>
       <c r="K14">
-        <v>0.9787896259287077</v>
+        <v>0.9787896259287032</v>
       </c>
       <c r="L14">
-        <v>0.9589601455717423</v>
+        <v>0.9589601455717375</v>
       </c>
       <c r="M14">
-        <v>0.9483603251874763</v>
+        <v>0.9483603251874712</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9331837842194317</v>
+        <v>0.9331837842194304</v>
       </c>
       <c r="D15">
-        <v>0.964372396004413</v>
+        <v>0.964372396004412</v>
       </c>
       <c r="E15">
-        <v>0.9443381690515913</v>
+        <v>0.94433816905159</v>
       </c>
       <c r="F15">
-        <v>0.9336494733379348</v>
+        <v>0.9336494733379336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017388580308707</v>
+        <v>1.017388580308706</v>
       </c>
       <c r="J15">
-        <v>0.9654570668207486</v>
+        <v>0.9654570668207476</v>
       </c>
       <c r="K15">
-        <v>0.9799231273901596</v>
+        <v>0.9799231273901584</v>
       </c>
       <c r="L15">
-        <v>0.9603138144522103</v>
+        <v>0.9603138144522091</v>
       </c>
       <c r="M15">
-        <v>0.9498617671189608</v>
+        <v>0.9498617671189595</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.942082891043919</v>
+        <v>0.9420828910439198</v>
       </c>
       <c r="D16">
-        <v>0.9714598211606429</v>
+        <v>0.9714598211606434</v>
       </c>
       <c r="E16">
-        <v>0.9527228858786929</v>
+        <v>0.9527228858786937</v>
       </c>
       <c r="F16">
-        <v>0.9429039915981858</v>
+        <v>0.9429039915981872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02098061527457</v>
+        <v>1.020980615274571</v>
       </c>
       <c r="J16">
-        <v>0.9727141422183689</v>
+        <v>0.9727141422183698</v>
       </c>
       <c r="K16">
-        <v>0.9863259749844173</v>
+        <v>0.9863259749844179</v>
       </c>
       <c r="L16">
-        <v>0.9679622672419022</v>
+        <v>0.9679622672419028</v>
       </c>
       <c r="M16">
-        <v>0.9583467958280472</v>
+        <v>0.9583467958280485</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9474471785863068</v>
+        <v>0.9474471785863059</v>
       </c>
       <c r="D17">
-        <v>0.9757364600701882</v>
+        <v>0.9757364600701876</v>
       </c>
       <c r="E17">
-        <v>0.9577811695229742</v>
+        <v>0.9577811695229735</v>
       </c>
       <c r="F17">
-        <v>0.9484867721245061</v>
+        <v>0.9484867721245051</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023140731675933</v>
       </c>
       <c r="J17">
-        <v>0.9770862407450867</v>
+        <v>0.9770862407450858</v>
       </c>
       <c r="K17">
-        <v>0.9901837259383032</v>
+        <v>0.9901837259383024</v>
       </c>
       <c r="L17">
-        <v>0.9725722840313421</v>
+        <v>0.9725722840313412</v>
       </c>
       <c r="M17">
-        <v>0.963462609302034</v>
+        <v>0.9634626093020332</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505040092076502</v>
+        <v>0.9505040092076525</v>
       </c>
       <c r="D18">
-        <v>0.9781749078276462</v>
+        <v>0.9781749078276483</v>
       </c>
       <c r="E18">
-        <v>0.9606649762682865</v>
+        <v>0.9606649762682886</v>
       </c>
       <c r="F18">
-        <v>0.9516696116601759</v>
+        <v>0.9516696116601786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024369766580604</v>
+        <v>1.024369766580605</v>
       </c>
       <c r="J18">
-        <v>0.9795767546531006</v>
+        <v>0.979576754653103</v>
       </c>
       <c r="K18">
-        <v>0.9923813142494002</v>
+        <v>0.9923813142494022</v>
       </c>
       <c r="L18">
-        <v>0.9751990782092315</v>
+        <v>0.9751990782092336</v>
       </c>
       <c r="M18">
-        <v>0.9663782157768701</v>
+        <v>0.9663782157768727</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9515346388206471</v>
+        <v>0.9515346388206483</v>
       </c>
       <c r="D19">
-        <v>0.9789972701972056</v>
+        <v>0.9789972701972064</v>
       </c>
       <c r="E19">
-        <v>0.9616374897465413</v>
+        <v>0.9616374897465425</v>
       </c>
       <c r="F19">
-        <v>0.9527429781493831</v>
+        <v>0.9527429781493841</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024783814926665</v>
+        <v>1.024783814926666</v>
       </c>
       <c r="J19">
-        <v>0.9804162858290694</v>
+        <v>0.9804162858290704</v>
       </c>
       <c r="K19">
-        <v>0.9931221106114967</v>
+        <v>0.9931221106114976</v>
       </c>
       <c r="L19">
-        <v>0.9760846750157083</v>
+        <v>0.9760846750157094</v>
       </c>
       <c r="M19">
-        <v>0.9673612900678705</v>
+        <v>0.9673612900678714</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9468792304426082</v>
+        <v>0.9468792304426101</v>
       </c>
       <c r="D20">
-        <v>0.9752835165197484</v>
+        <v>0.9752835165197501</v>
       </c>
       <c r="E20">
-        <v>0.9572454763867363</v>
+        <v>0.9572454763867381</v>
       </c>
       <c r="F20">
-        <v>0.9478955336210707</v>
+        <v>0.9478955336210725</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022912225005224</v>
+        <v>1.022912225005225</v>
       </c>
       <c r="J20">
-        <v>0.9766234360477949</v>
+        <v>0.9766234360477969</v>
       </c>
       <c r="K20">
-        <v>0.9897753593125633</v>
+        <v>0.9897753593125649</v>
       </c>
       <c r="L20">
-        <v>0.9720842158612464</v>
+        <v>0.9720842158612483</v>
       </c>
       <c r="M20">
-        <v>0.9629209293119128</v>
+        <v>0.9629209293119145</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9308510535836331</v>
+        <v>0.930851053583632</v>
       </c>
       <c r="D21">
-        <v>0.962516144509755</v>
+        <v>0.9625161445097544</v>
       </c>
       <c r="E21">
-        <v>0.9421416843384937</v>
+        <v>0.9421416843384925</v>
       </c>
       <c r="F21">
-        <v>0.9312249709792434</v>
+        <v>0.9312249709792426</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.016445408764195</v>
       </c>
       <c r="J21">
-        <v>0.9635540526883293</v>
+        <v>0.9635540526883285</v>
       </c>
       <c r="K21">
-        <v>0.9782442451563749</v>
+        <v>0.9782442451563744</v>
       </c>
       <c r="L21">
-        <v>0.9583088656904145</v>
+        <v>0.9583088656904136</v>
       </c>
       <c r="M21">
-        <v>0.9476379759446805</v>
+        <v>0.9476379759446797</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9199712152025725</v>
+        <v>0.9199712152025705</v>
       </c>
       <c r="D22">
-        <v>0.9538677781896729</v>
+        <v>0.9538677781896709</v>
       </c>
       <c r="E22">
-        <v>0.9319051549554179</v>
+        <v>0.9319051549554157</v>
       </c>
       <c r="F22">
-        <v>0.919924311295048</v>
+        <v>0.9199243112950459</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01203888361129</v>
+        <v>1.012038883611289</v>
       </c>
       <c r="J22">
-        <v>0.9546752542148608</v>
+        <v>0.9546752542148589</v>
       </c>
       <c r="K22">
-        <v>0.9704120747981436</v>
+        <v>0.9704120747981416</v>
       </c>
       <c r="L22">
-        <v>0.9489580684197925</v>
+        <v>0.9489580684197902</v>
       </c>
       <c r="M22">
-        <v>0.9372684831798682</v>
+        <v>0.9372684831798661</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258236415533893</v>
+        <v>0.9258236415533868</v>
       </c>
       <c r="D23">
-        <v>0.9585179506373934</v>
+        <v>0.9585179506373915</v>
       </c>
       <c r="E23">
-        <v>0.9374099178575779</v>
+        <v>0.9374099178575757</v>
       </c>
       <c r="F23">
-        <v>0.9260016584535641</v>
+        <v>0.9260016584535615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014410696121158</v>
+        <v>1.014410696121156</v>
       </c>
       <c r="J23">
-        <v>0.9594518881339836</v>
+        <v>0.9594518881339815</v>
       </c>
       <c r="K23">
-        <v>0.9746254428276542</v>
+        <v>0.9746254428276524</v>
       </c>
       <c r="L23">
-        <v>0.9539879086349004</v>
+        <v>0.953987908634898</v>
       </c>
       <c r="M23">
-        <v>0.9428459208687787</v>
+        <v>0.9428459208687764</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9471360829362359</v>
+        <v>0.9471360829362375</v>
       </c>
       <c r="D24">
-        <v>0.9754883542379131</v>
+        <v>0.9754883542379145</v>
       </c>
       <c r="E24">
-        <v>0.957487737477289</v>
+        <v>0.957487737477291</v>
       </c>
       <c r="F24">
-        <v>0.9481629144183907</v>
+        <v>0.9481629144183921</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023015572276781</v>
       </c>
       <c r="J24">
-        <v>0.9768327406816308</v>
+        <v>0.9768327406816324</v>
       </c>
       <c r="K24">
-        <v>0.9899600439882529</v>
+        <v>0.9899600439882542</v>
       </c>
       <c r="L24">
-        <v>0.9723049436195881</v>
+        <v>0.9723049436195899</v>
       </c>
       <c r="M24">
-        <v>0.9631659009873754</v>
+        <v>0.9631659009873768</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969074553194212</v>
+        <v>0.9690745531942085</v>
       </c>
       <c r="D25">
-        <v>0.9930088951108895</v>
+        <v>0.9930088951108864</v>
       </c>
       <c r="E25">
-        <v>0.9782051516052853</v>
+        <v>0.9782051516052817</v>
       </c>
       <c r="F25">
-        <v>0.9710309679364452</v>
+        <v>0.9710309679364421</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03180171972354</v>
+        <v>1.031801719723539</v>
       </c>
       <c r="J25">
-        <v>0.9946894653521553</v>
+        <v>0.9946894653521519</v>
       </c>
       <c r="K25">
-        <v>1.005716717187239</v>
+        <v>1.005716717187236</v>
       </c>
       <c r="L25">
-        <v>0.9911514972947091</v>
+        <v>0.9911514972947055</v>
       </c>
       <c r="M25">
-        <v>0.9840962784960718</v>
+        <v>0.9840962784960687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848762121507707</v>
+        <v>0.9849514397646627</v>
       </c>
       <c r="D2">
-        <v>1.005654721093799</v>
+        <v>1.0057166341903</v>
       </c>
       <c r="E2">
-        <v>0.9931576807947442</v>
+        <v>0.993232362312763</v>
       </c>
       <c r="F2">
-        <v>0.9875437653822222</v>
+        <v>0.9876151266449289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038068450479342</v>
+        <v>1.038103056253333</v>
       </c>
       <c r="J2">
-        <v>1.007518878476515</v>
+        <v>1.00759175974336</v>
       </c>
       <c r="K2">
-        <v>1.017035834825346</v>
+        <v>1.017096897618801</v>
       </c>
       <c r="L2">
-        <v>1.004713170301656</v>
+        <v>1.004786793283565</v>
       </c>
       <c r="M2">
-        <v>0.9991794070231896</v>
+        <v>0.9992497421909629</v>
+      </c>
+      <c r="N2">
+        <v>0.9998823599217775</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9955621471524055</v>
+        <v>0.9956211466869789</v>
       </c>
       <c r="D3">
-        <v>1.01421628907728</v>
+        <v>1.014264919972119</v>
       </c>
       <c r="E3">
-        <v>1.003283584339344</v>
+        <v>1.003342238448021</v>
       </c>
       <c r="F3">
-        <v>0.9987335173584629</v>
+        <v>0.9987893933861589</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042268940039425</v>
+        <v>1.042296161569433</v>
       </c>
       <c r="J3">
-        <v>1.016174527989362</v>
+        <v>1.016231899654409</v>
       </c>
       <c r="K3">
-        <v>1.024670444691901</v>
+        <v>1.024718474910909</v>
       </c>
       <c r="L3">
-        <v>1.013874622791949</v>
+        <v>1.013932532586168</v>
       </c>
       <c r="M3">
-        <v>1.009382628756258</v>
+        <v>1.009437787621265</v>
+      </c>
+      <c r="N3">
+        <v>1.006762118313361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002162337052486</v>
+        <v>1.002211762005921</v>
       </c>
       <c r="D4">
-        <v>1.019507467258724</v>
+        <v>1.019548242729695</v>
       </c>
       <c r="E4">
-        <v>1.009543573603689</v>
+        <v>1.009592749941641</v>
       </c>
       <c r="F4">
-        <v>1.005655189795585</v>
+        <v>1.005701952150552</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04484558027657</v>
+        <v>1.044868425574534</v>
       </c>
       <c r="J4">
-        <v>1.021510891298877</v>
+        <v>1.021559059402534</v>
       </c>
       <c r="K4">
-        <v>1.029376020077815</v>
+        <v>1.029416326437521</v>
       </c>
       <c r="L4">
-        <v>1.019528164678982</v>
+        <v>1.01957676135256</v>
       </c>
       <c r="M4">
-        <v>1.015685837484562</v>
+        <v>1.015732043332586</v>
+      </c>
+      <c r="N4">
+        <v>1.010984306832122</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004868114247382</v>
+        <v>1.004913706668581</v>
       </c>
       <c r="D5">
-        <v>1.021677173482331</v>
+        <v>1.021714800616522</v>
       </c>
       <c r="E5">
-        <v>1.012111144666726</v>
+        <v>1.012156522732828</v>
       </c>
       <c r="F5">
-        <v>1.008495196887897</v>
+        <v>1.008538316025886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045897540461796</v>
+        <v>1.045918629826224</v>
       </c>
       <c r="J5">
-        <v>1.023696142246073</v>
+        <v>1.02374061507491</v>
       </c>
       <c r="K5">
-        <v>1.031302605629206</v>
+        <v>1.031339812884715</v>
       </c>
       <c r="L5">
-        <v>1.021844572857098</v>
+        <v>1.021889432681194</v>
       </c>
       <c r="M5">
-        <v>1.018270106296146</v>
+        <v>1.018312728618469</v>
+      </c>
+      <c r="N5">
+        <v>1.0127086632855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005318550828117</v>
+        <v>1.005363510302272</v>
       </c>
       <c r="D6">
-        <v>1.022038397469057</v>
+        <v>1.022075504434094</v>
       </c>
       <c r="E6">
-        <v>1.012538645074082</v>
+        <v>1.012583395604577</v>
       </c>
       <c r="F6">
-        <v>1.008968121504403</v>
+        <v>1.009010639229192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046072404761779</v>
+        <v>1.046093203896285</v>
       </c>
       <c r="J6">
-        <v>1.024059781940022</v>
+        <v>1.024103643864489</v>
       </c>
       <c r="K6">
-        <v>1.031623179526676</v>
+        <v>1.031659874550802</v>
       </c>
       <c r="L6">
-        <v>1.022230112585132</v>
+        <v>1.022274354766397</v>
       </c>
       <c r="M6">
-        <v>1.018700328183383</v>
+        <v>1.018742358693481</v>
+      </c>
+      <c r="N6">
+        <v>1.012995334022098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002198754979373</v>
+        <v>1.002248127999774</v>
       </c>
       <c r="D7">
-        <v>1.019536668019299</v>
+        <v>1.019577400843602</v>
       </c>
       <c r="E7">
-        <v>1.009578126497573</v>
+        <v>1.009627251383888</v>
       </c>
       <c r="F7">
-        <v>1.005693404732912</v>
+        <v>1.005740117701612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044859756294428</v>
+        <v>1.044882577814742</v>
       </c>
       <c r="J7">
-        <v>1.02154031295889</v>
+        <v>1.021588431032747</v>
       </c>
       <c r="K7">
-        <v>1.029401960606257</v>
+        <v>1.029442224999739</v>
       </c>
       <c r="L7">
-        <v>1.019559347164615</v>
+        <v>1.019607893236213</v>
       </c>
       <c r="M7">
-        <v>1.015720619086123</v>
+        <v>1.015766776374521</v>
+      </c>
+      <c r="N7">
+        <v>1.011007541558123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9885567435684529</v>
+        <v>0.9886262756645482</v>
       </c>
       <c r="D8">
-        <v>1.00860277830118</v>
+        <v>1.008660034360333</v>
       </c>
       <c r="E8">
-        <v>0.9966440326728286</v>
+        <v>0.9967130943332773</v>
       </c>
       <c r="F8">
-        <v>0.9913956044273483</v>
+        <v>0.99146152548282</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039518966444433</v>
+        <v>1.039550985224009</v>
       </c>
       <c r="J8">
-        <v>1.010502179234742</v>
+        <v>1.010569629778804</v>
       </c>
       <c r="K8">
-        <v>1.019667466908008</v>
+        <v>1.019723963966406</v>
       </c>
       <c r="L8">
-        <v>1.007869655389418</v>
+        <v>1.007937773699195</v>
       </c>
       <c r="M8">
-        <v>1.002693403122969</v>
+        <v>1.002758411662029</v>
+      </c>
+      <c r="N8">
+        <v>1.002257694887373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9617699430228144</v>
+        <v>0.9618837953125455</v>
       </c>
       <c r="D9">
-        <v>0.9871701083168892</v>
+        <v>0.9872634748763794</v>
       </c>
       <c r="E9">
-        <v>0.9713016072229103</v>
+        <v>0.9714142530921345</v>
       </c>
       <c r="F9">
-        <v>0.9634098972241851</v>
+        <v>0.9635182987934807</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028886044675567</v>
+        <v>1.02893806983905</v>
       </c>
       <c r="J9">
-        <v>0.9887488884709895</v>
+        <v>0.9888582549196653</v>
       </c>
       <c r="K9">
-        <v>1.000474828799194</v>
+        <v>1.000566629561031</v>
       </c>
       <c r="L9">
-        <v>0.9848781140019496</v>
+        <v>0.9849887900067779</v>
       </c>
       <c r="M9">
-        <v>0.9771258969893053</v>
+        <v>0.9772323623669578</v>
+      </c>
+      <c r="N9">
+        <v>0.9848510881447723</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414664777482649</v>
+        <v>0.9416191226647749</v>
       </c>
       <c r="D10">
-        <v>0.9709685978956967</v>
+        <v>0.9710933357548337</v>
       </c>
       <c r="E10">
-        <v>0.9521418304123311</v>
+        <v>0.9522923563447799</v>
       </c>
       <c r="F10">
-        <v>0.9422626808029001</v>
+        <v>0.9424085230988699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020732136162385</v>
+        <v>1.020801455612367</v>
       </c>
       <c r="J10">
-        <v>0.9722116190319308</v>
+        <v>0.9723570712097952</v>
       </c>
       <c r="K10">
-        <v>0.9858825821275687</v>
+        <v>0.9860048880891007</v>
       </c>
       <c r="L10">
-        <v>0.9674325030988055</v>
+        <v>0.9675799393580641</v>
       </c>
       <c r="M10">
-        <v>0.9577589884191058</v>
+        <v>0.9579017535063296</v>
+      </c>
+      <c r="N10">
+        <v>0.9715058910207874</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9319105358114474</v>
+        <v>0.9320833528400445</v>
       </c>
       <c r="D11">
-        <v>0.9633591353034594</v>
+        <v>0.9635001033424593</v>
       </c>
       <c r="E11">
-        <v>0.9431392131781687</v>
+        <v>0.9433093431727272</v>
       </c>
       <c r="F11">
-        <v>0.9323260644437519</v>
+        <v>0.9324914623563446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016873856210716</v>
+        <v>1.016952096442283</v>
       </c>
       <c r="J11">
-        <v>0.9644183990890477</v>
+        <v>0.9645824152551252</v>
       </c>
       <c r="K11">
-        <v>0.9790067836394453</v>
+        <v>0.9791448197990238</v>
       </c>
       <c r="L11">
-        <v>0.9592194758484137</v>
+        <v>0.959385862944982</v>
       </c>
       <c r="M11">
-        <v>0.9486479591653689</v>
+        <v>0.948809604757838</v>
+      </c>
+      <c r="N11">
+        <v>0.9651905036784416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282250239956307</v>
+        <v>0.9284059940084667</v>
       </c>
       <c r="D12">
-        <v>0.9604273173017602</v>
+        <v>0.9605748296083901</v>
       </c>
       <c r="E12">
-        <v>0.9396697384214956</v>
+        <v>0.9398477744412159</v>
       </c>
       <c r="F12">
-        <v>0.9284962977133173</v>
+        <v>0.9286696151835624</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015382926672804</v>
+        <v>1.015464759290381</v>
       </c>
       <c r="J12">
-        <v>0.9614114584827024</v>
+        <v>0.9615829413612423</v>
       </c>
       <c r="K12">
-        <v>0.9763540755329359</v>
+        <v>0.9764984452760027</v>
       </c>
       <c r="L12">
-        <v>0.9560518364728808</v>
+        <v>0.9562258530190582</v>
       </c>
       <c r="M12">
-        <v>0.9451347845347676</v>
+        <v>0.9453040619620741</v>
+      </c>
+      <c r="N12">
+        <v>0.9627498633897781</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290221392984302</v>
+        <v>0.9292013274501197</v>
       </c>
       <c r="D13">
-        <v>0.961061275947281</v>
+        <v>0.961207358733111</v>
       </c>
       <c r="E13">
-        <v>0.9404200031260459</v>
+        <v>0.9405963120963756</v>
       </c>
       <c r="F13">
-        <v>0.9293244960684135</v>
+        <v>0.92949608193933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015705515529098</v>
+        <v>1.015786563648469</v>
       </c>
       <c r="J13">
-        <v>0.9620618632448146</v>
+        <v>0.9622317159851832</v>
       </c>
       <c r="K13">
-        <v>0.9769278455828045</v>
+        <v>0.9770708322555322</v>
       </c>
       <c r="L13">
-        <v>0.956736942246423</v>
+        <v>0.9569092927852216</v>
       </c>
       <c r="M13">
-        <v>0.945894590349098</v>
+        <v>0.9460621997715171</v>
+      </c>
+      <c r="N13">
+        <v>0.9632779510732694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9316088086692872</v>
+        <v>0.9317822850506958</v>
       </c>
       <c r="D14">
-        <v>0.9631190479584641</v>
+        <v>0.9632605455768278</v>
       </c>
       <c r="E14">
-        <v>0.9428551171798355</v>
+        <v>0.9430258869212254</v>
       </c>
       <c r="F14">
-        <v>0.9320124751760411</v>
+        <v>0.9321785132335233</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01675185267162</v>
+        <v>1.016830383704129</v>
       </c>
       <c r="J14">
-        <v>0.9641722497223256</v>
+        <v>0.9643368705007778</v>
       </c>
       <c r="K14">
-        <v>0.9787896259287032</v>
+        <v>0.9789281748069077</v>
       </c>
       <c r="L14">
-        <v>0.9589601455717375</v>
+        <v>0.9591271503089646</v>
       </c>
       <c r="M14">
-        <v>0.9483603251874712</v>
+        <v>0.9485225879674415</v>
+      </c>
+      <c r="N14">
+        <v>0.9649907900921395</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9331837842194304</v>
+        <v>0.9333538344931966</v>
       </c>
       <c r="D15">
-        <v>0.964372396004412</v>
+        <v>0.9645111412070708</v>
       </c>
       <c r="E15">
-        <v>0.94433816905159</v>
+        <v>0.9445056138532107</v>
       </c>
       <c r="F15">
-        <v>0.9336494733379336</v>
+        <v>0.9338121857353544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017388580308706</v>
+        <v>1.017465599756816</v>
       </c>
       <c r="J15">
-        <v>0.9654570668207476</v>
+        <v>0.9656185444569741</v>
       </c>
       <c r="K15">
-        <v>0.9799231273901584</v>
+        <v>0.9800590111165188</v>
       </c>
       <c r="L15">
-        <v>0.9603138144522091</v>
+        <v>0.9604776086084749</v>
       </c>
       <c r="M15">
-        <v>0.9498617671189595</v>
+        <v>0.9500208229252461</v>
+      </c>
+      <c r="N15">
+        <v>0.9660330709620588</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420828910439198</v>
+        <v>0.9422342800681746</v>
       </c>
       <c r="D16">
-        <v>0.9714598211606434</v>
+        <v>0.9715835467102309</v>
       </c>
       <c r="E16">
-        <v>0.9527228858786937</v>
+        <v>0.9528721892194973</v>
       </c>
       <c r="F16">
-        <v>0.9429039915981872</v>
+        <v>0.9430486182714541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020980615274571</v>
+        <v>1.02104937775219</v>
       </c>
       <c r="J16">
-        <v>0.9727141422183698</v>
+        <v>0.9728584342601084</v>
       </c>
       <c r="K16">
-        <v>0.9863259749844179</v>
+        <v>0.986447298711675</v>
       </c>
       <c r="L16">
-        <v>0.9679622672419028</v>
+        <v>0.9681085200550543</v>
       </c>
       <c r="M16">
-        <v>0.9583467958280485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9584883855413332</v>
+      </c>
+      <c r="N16">
+        <v>0.971912587468163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9474471785863059</v>
+        <v>0.9475878563371269</v>
       </c>
       <c r="D17">
-        <v>0.9757364600701876</v>
+        <v>0.9758515429108273</v>
       </c>
       <c r="E17">
-        <v>0.9577811695229735</v>
+        <v>0.9579200355567845</v>
       </c>
       <c r="F17">
-        <v>0.9484867721245051</v>
+        <v>0.9486210402448575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023140731675933</v>
+        <v>1.023204736101761</v>
       </c>
       <c r="J17">
-        <v>0.9770862407450858</v>
+        <v>0.9772206167157413</v>
       </c>
       <c r="K17">
-        <v>0.9901837259383024</v>
+        <v>0.9902966581739799</v>
       </c>
       <c r="L17">
-        <v>0.9725722840313412</v>
+        <v>0.9727084258237363</v>
       </c>
       <c r="M17">
-        <v>0.9634626093020332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9635941749737904</v>
+      </c>
+      <c r="N17">
+        <v>0.9754480526189107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505040092076525</v>
+        <v>0.9506387520684786</v>
       </c>
       <c r="D18">
-        <v>0.9781749078276483</v>
+        <v>0.978285194996508</v>
       </c>
       <c r="E18">
-        <v>0.9606649762682886</v>
+        <v>0.9607980513790449</v>
       </c>
       <c r="F18">
-        <v>0.9516696116601786</v>
+        <v>0.9517981475919164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024369766580605</v>
+        <v>1.024431128602892</v>
       </c>
       <c r="J18">
-        <v>0.979576754653103</v>
+        <v>0.9797056194748694</v>
       </c>
       <c r="K18">
-        <v>0.9923813142494022</v>
+        <v>0.9924895858078875</v>
       </c>
       <c r="L18">
-        <v>0.9751990782092336</v>
+        <v>0.9753296038819601</v>
       </c>
       <c r="M18">
-        <v>0.9663782157768727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9665042277329893</v>
+      </c>
+      <c r="N18">
+        <v>0.9774595607512613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9515346388206483</v>
+        <v>0.9516674073451016</v>
       </c>
       <c r="D19">
-        <v>0.9789972701972064</v>
+        <v>0.9791059609032327</v>
       </c>
       <c r="E19">
-        <v>0.9616374897465425</v>
+        <v>0.9617686371617349</v>
       </c>
       <c r="F19">
-        <v>0.9527429781493841</v>
+        <v>0.9528696083455522</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024783814926666</v>
+        <v>1.024844296934463</v>
       </c>
       <c r="J19">
-        <v>0.9804162858290704</v>
+        <v>0.9805433145625307</v>
       </c>
       <c r="K19">
-        <v>0.9931221106114976</v>
+        <v>0.9932288299306768</v>
       </c>
       <c r="L19">
-        <v>0.9760846750157094</v>
+        <v>0.9762133301739169</v>
       </c>
       <c r="M19">
-        <v>0.9673612900678714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9674854545541987</v>
+      </c>
+      <c r="N19">
+        <v>0.9781372099729791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9468792304426101</v>
+        <v>0.9470210241325703</v>
       </c>
       <c r="D20">
-        <v>0.9752835165197501</v>
+        <v>0.9753995005373655</v>
       </c>
       <c r="E20">
-        <v>0.9572454763867381</v>
+        <v>0.9573854306620562</v>
       </c>
       <c r="F20">
-        <v>0.9478955336210725</v>
+        <v>0.9480308801505586</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022912225005225</v>
+        <v>1.02297672579522</v>
       </c>
       <c r="J20">
-        <v>0.9766234360477969</v>
+        <v>0.9767588469252185</v>
       </c>
       <c r="K20">
-        <v>0.9897753593125649</v>
+        <v>0.989889167002334</v>
       </c>
       <c r="L20">
-        <v>0.9720842158612483</v>
+        <v>0.972221412543949</v>
       </c>
       <c r="M20">
-        <v>0.9629209293119145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9630535392819939</v>
+      </c>
+      <c r="N20">
+        <v>0.9750740620483668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.930851053583632</v>
+        <v>0.9310261921744699</v>
       </c>
       <c r="D21">
-        <v>0.9625161445097544</v>
+        <v>0.9626589769256697</v>
       </c>
       <c r="E21">
-        <v>0.9421416843384925</v>
+        <v>0.9423140665759842</v>
       </c>
       <c r="F21">
-        <v>0.9312249709792426</v>
+        <v>0.9313926230828005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016445408764195</v>
+        <v>1.016524672681171</v>
       </c>
       <c r="J21">
-        <v>0.9635540526883285</v>
+        <v>0.9637201970798563</v>
       </c>
       <c r="K21">
-        <v>0.9782442451563744</v>
+        <v>0.978384086186474</v>
       </c>
       <c r="L21">
-        <v>0.9583088656904136</v>
+        <v>0.9584774269891072</v>
       </c>
       <c r="M21">
-        <v>0.9476379759446797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.947801794651137</v>
+      </c>
+      <c r="N21">
+        <v>0.9644891529576506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9199712152025705</v>
+        <v>0.9201712668320271</v>
       </c>
       <c r="D22">
-        <v>0.9538677781896709</v>
+        <v>0.9540305731001248</v>
       </c>
       <c r="E22">
-        <v>0.9319051549554157</v>
+        <v>0.9321016568095298</v>
       </c>
       <c r="F22">
-        <v>0.9199243112950459</v>
+        <v>0.9201161979073212</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012038883611289</v>
+        <v>1.012129095767833</v>
       </c>
       <c r="J22">
-        <v>0.9546752542148589</v>
+        <v>0.9548641347721625</v>
       </c>
       <c r="K22">
-        <v>0.9704120747981416</v>
+        <v>0.970571216140337</v>
       </c>
       <c r="L22">
-        <v>0.9489580684197902</v>
+        <v>0.949149876980115</v>
       </c>
       <c r="M22">
-        <v>0.9372684831798661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9374556244298021</v>
+      </c>
+      <c r="N22">
+        <v>0.9572751308363113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258236415533868</v>
+        <v>0.9260100428914108</v>
       </c>
       <c r="D23">
-        <v>0.9585179506373915</v>
+        <v>0.9586698177266272</v>
       </c>
       <c r="E23">
-        <v>0.9374099178575757</v>
+        <v>0.9375932152658204</v>
       </c>
       <c r="F23">
-        <v>0.9260016584535615</v>
+        <v>0.9261802566143023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014410696121156</v>
+        <v>1.014494917838832</v>
       </c>
       <c r="J23">
-        <v>0.9594518881339815</v>
+        <v>0.9596283339618488</v>
       </c>
       <c r="K23">
-        <v>0.9746254428276524</v>
+        <v>0.9747740244008828</v>
       </c>
       <c r="L23">
-        <v>0.953987908634898</v>
+        <v>0.954166998488522</v>
       </c>
       <c r="M23">
-        <v>0.9428459208687764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9430202827197777</v>
+      </c>
+      <c r="N23">
+        <v>0.9611582499190806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9471360829362375</v>
+        <v>0.947277371425465</v>
       </c>
       <c r="D24">
-        <v>0.9754883542379145</v>
+        <v>0.9756039303022089</v>
       </c>
       <c r="E24">
-        <v>0.957487737477291</v>
+        <v>0.9576271991154769</v>
       </c>
       <c r="F24">
-        <v>0.9481629144183921</v>
+        <v>0.9482977727147275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023015572276781</v>
+        <v>1.023079848375014</v>
       </c>
       <c r="J24">
-        <v>0.9768327406816324</v>
+        <v>0.9769676830956018</v>
       </c>
       <c r="K24">
-        <v>0.9899600439882542</v>
+        <v>0.9900734553829801</v>
       </c>
       <c r="L24">
-        <v>0.9723049436195899</v>
+        <v>0.9724416627824656</v>
       </c>
       <c r="M24">
-        <v>0.9631659009873768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9632980381882587</v>
+      </c>
+      <c r="N24">
+        <v>0.9752432078415453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9690745531942085</v>
+        <v>0.969175622442593</v>
       </c>
       <c r="D25">
-        <v>0.9930088951108864</v>
+        <v>0.9930918765615696</v>
       </c>
       <c r="E25">
-        <v>0.9782051516052817</v>
+        <v>0.9783052610745804</v>
       </c>
       <c r="F25">
-        <v>0.9710309679364421</v>
+        <v>0.9711270832336332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031801719723539</v>
+        <v>1.031848003096195</v>
       </c>
       <c r="J25">
-        <v>0.9946894653521519</v>
+        <v>0.9947868212915087</v>
       </c>
       <c r="K25">
-        <v>1.005716717187236</v>
+        <v>1.005798387271163</v>
       </c>
       <c r="L25">
-        <v>0.9911514972947055</v>
+        <v>0.9912499625871053</v>
       </c>
       <c r="M25">
-        <v>0.9840962784960687</v>
+        <v>0.9841907850040351</v>
+      </c>
+      <c r="N25">
+        <v>0.9896232417911839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9849514397646627</v>
+        <v>1.01391605993743</v>
       </c>
       <c r="D2">
-        <v>1.0057166341903</v>
+        <v>1.026193282718827</v>
       </c>
       <c r="E2">
-        <v>0.993232362312763</v>
+        <v>1.030488694678764</v>
       </c>
       <c r="F2">
-        <v>0.9876151266449289</v>
+        <v>1.034881868274558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038103056253333</v>
+        <v>1.044484147228905</v>
       </c>
       <c r="J2">
-        <v>1.00759175974336</v>
+        <v>1.03568836405693</v>
       </c>
       <c r="K2">
-        <v>1.017096897618801</v>
+        <v>1.037299376871117</v>
       </c>
       <c r="L2">
-        <v>1.004786793283565</v>
+        <v>1.04153900628222</v>
       </c>
       <c r="M2">
-        <v>0.9992497421909629</v>
+        <v>1.045875726384767</v>
       </c>
       <c r="N2">
-        <v>0.9998823599217775</v>
+        <v>1.037159160329007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9956211466869789</v>
+        <v>1.026528748094413</v>
       </c>
       <c r="D3">
-        <v>1.014264919972119</v>
+        <v>1.036085691425238</v>
       </c>
       <c r="E3">
-        <v>1.003342238448021</v>
+        <v>1.042646109155719</v>
       </c>
       <c r="F3">
-        <v>0.9987893933861589</v>
+        <v>1.047082174372741</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042296161569433</v>
+        <v>1.048744838187145</v>
       </c>
       <c r="J3">
-        <v>1.016231899654409</v>
+        <v>1.046321440514113</v>
       </c>
       <c r="K3">
-        <v>1.024718474910909</v>
+        <v>1.046276765280578</v>
       </c>
       <c r="L3">
-        <v>1.013932532586168</v>
+        <v>1.052760922534418</v>
       </c>
       <c r="M3">
-        <v>1.009437787621265</v>
+        <v>1.057146089714956</v>
       </c>
       <c r="N3">
-        <v>1.006762118313361</v>
+        <v>1.047807336974389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002211762005921</v>
+        <v>1.034307118266823</v>
       </c>
       <c r="D4">
-        <v>1.019548242729695</v>
+        <v>1.042186970142869</v>
       </c>
       <c r="E4">
-        <v>1.009592749941641</v>
+        <v>1.050150506352615</v>
       </c>
       <c r="F4">
-        <v>1.005701952150552</v>
+        <v>1.054613655541458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044868425574534</v>
+        <v>1.051354564775716</v>
       </c>
       <c r="J4">
-        <v>1.021559059402534</v>
+        <v>1.052872172971239</v>
       </c>
       <c r="K4">
-        <v>1.029416326437521</v>
+        <v>1.051801562152472</v>
       </c>
       <c r="L4">
-        <v>1.01957676135256</v>
+        <v>1.059679113047957</v>
       </c>
       <c r="M4">
-        <v>1.015732043332586</v>
+        <v>1.064094766788953</v>
       </c>
       <c r="N4">
-        <v>1.010984306832122</v>
+        <v>1.054367372222985</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004913706668581</v>
+        <v>1.037493752442342</v>
       </c>
       <c r="D5">
-        <v>1.021714800616522</v>
+        <v>1.044686414829739</v>
       </c>
       <c r="E5">
-        <v>1.012156522732828</v>
+        <v>1.05322638413282</v>
       </c>
       <c r="F5">
-        <v>1.008538316025886</v>
+        <v>1.057700770354375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045918629826224</v>
+        <v>1.05241927826438</v>
       </c>
       <c r="J5">
-        <v>1.02374061507491</v>
+        <v>1.055554125646789</v>
       </c>
       <c r="K5">
-        <v>1.031339812884715</v>
+        <v>1.054061998810691</v>
       </c>
       <c r="L5">
-        <v>1.021889432681194</v>
+        <v>1.062512628195373</v>
       </c>
       <c r="M5">
-        <v>1.018312728618469</v>
+        <v>1.066940908430299</v>
       </c>
       <c r="N5">
-        <v>1.0127086632855</v>
+        <v>1.057053133578958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005363510302272</v>
+        <v>1.038024130301756</v>
       </c>
       <c r="D6">
-        <v>1.022075504434094</v>
+        <v>1.045102404342641</v>
       </c>
       <c r="E6">
-        <v>1.012583395604577</v>
+        <v>1.053738411363459</v>
       </c>
       <c r="F6">
-        <v>1.009010639229192</v>
+        <v>1.058214675899389</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046093203896285</v>
+        <v>1.052596222272265</v>
       </c>
       <c r="J6">
-        <v>1.024103643864489</v>
+        <v>1.056000399473387</v>
       </c>
       <c r="K6">
-        <v>1.031659874550802</v>
+        <v>1.054438043656621</v>
       </c>
       <c r="L6">
-        <v>1.022274354766397</v>
+        <v>1.062984187676909</v>
       </c>
       <c r="M6">
-        <v>1.018742358693481</v>
+        <v>1.067414577250209</v>
       </c>
       <c r="N6">
-        <v>1.012995334022098</v>
+        <v>1.057500041165577</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002248127999774</v>
+        <v>1.034350015872153</v>
       </c>
       <c r="D7">
-        <v>1.019577400843602</v>
+        <v>1.042220617773886</v>
       </c>
       <c r="E7">
-        <v>1.009627251383888</v>
+        <v>1.050191907269545</v>
       </c>
       <c r="F7">
-        <v>1.005740117701612</v>
+        <v>1.054655207179775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044882577814742</v>
+        <v>1.051368915460882</v>
       </c>
       <c r="J7">
-        <v>1.021588431032747</v>
+        <v>1.052908283759452</v>
       </c>
       <c r="K7">
-        <v>1.029442224999739</v>
+        <v>1.051832003477282</v>
       </c>
       <c r="L7">
-        <v>1.019607893236213</v>
+        <v>1.059717260082834</v>
       </c>
       <c r="M7">
-        <v>1.015766776374521</v>
+        <v>1.06413308326629</v>
       </c>
       <c r="N7">
-        <v>1.011007541558123</v>
+        <v>1.054403534292659</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9886262756645482</v>
+        <v>1.018263243638795</v>
       </c>
       <c r="D8">
-        <v>1.008660034360333</v>
+        <v>1.029602594807255</v>
       </c>
       <c r="E8">
-        <v>0.9967130943332773</v>
+        <v>1.034677409357334</v>
       </c>
       <c r="F8">
-        <v>0.99146152548282</v>
+        <v>1.039085224189146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039550985224009</v>
+        <v>1.045956393233104</v>
       </c>
       <c r="J8">
-        <v>1.010569629778804</v>
+        <v>1.039354613978146</v>
       </c>
       <c r="K8">
-        <v>1.019723963966406</v>
+        <v>1.040395971459364</v>
       </c>
       <c r="L8">
-        <v>1.007937773699195</v>
+        <v>1.04540727983689</v>
       </c>
       <c r="M8">
-        <v>1.002758411662029</v>
+        <v>1.049760561754974</v>
       </c>
       <c r="N8">
-        <v>1.002257694887373</v>
+        <v>1.040830616745636</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9618837953125455</v>
+        <v>0.9865302616012555</v>
       </c>
       <c r="D9">
-        <v>0.9872634748763794</v>
+        <v>1.00473126913735</v>
       </c>
       <c r="E9">
-        <v>0.9714142530921345</v>
+        <v>1.004139564549859</v>
       </c>
       <c r="F9">
-        <v>0.9635182987934807</v>
+        <v>1.00844390914141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02893806983905</v>
+        <v>1.035136625225781</v>
       </c>
       <c r="J9">
-        <v>0.9888582549196653</v>
+        <v>1.012567804794994</v>
       </c>
       <c r="K9">
-        <v>1.000566629561031</v>
+        <v>1.017748048373295</v>
       </c>
       <c r="L9">
-        <v>0.9849887900067779</v>
+        <v>1.017165835348347</v>
       </c>
       <c r="M9">
-        <v>0.9772323623669578</v>
+        <v>1.021401459380429</v>
       </c>
       <c r="N9">
-        <v>0.9848510881447723</v>
+        <v>1.014005767220953</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9416191226647749</v>
+        <v>0.9622829809300467</v>
       </c>
       <c r="D10">
-        <v>0.9710933357548337</v>
+        <v>0.9857671586297596</v>
       </c>
       <c r="E10">
-        <v>0.9522923563447799</v>
+        <v>0.9808676515520814</v>
       </c>
       <c r="F10">
-        <v>0.9424085230988699</v>
+        <v>0.9850982768769116</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020801455612367</v>
+        <v>1.026784805346496</v>
       </c>
       <c r="J10">
-        <v>0.9723570712097952</v>
+        <v>0.9920772977734461</v>
       </c>
       <c r="K10">
-        <v>0.9860048880891007</v>
+        <v>1.000398236062265</v>
       </c>
       <c r="L10">
-        <v>0.9675799393580641</v>
+        <v>0.9955911577371258</v>
       </c>
       <c r="M10">
-        <v>0.9579017535063296</v>
+        <v>0.9997419019338695</v>
       </c>
       <c r="N10">
-        <v>0.9715058910207874</v>
+        <v>0.9934861613291409</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9320833528400445</v>
+        <v>0.9507901890402387</v>
       </c>
       <c r="D11">
-        <v>0.9635001033424593</v>
+        <v>0.9767964803031044</v>
       </c>
       <c r="E11">
-        <v>0.9433093431727272</v>
+        <v>0.9698570468392927</v>
       </c>
       <c r="F11">
-        <v>0.9324914623563446</v>
+        <v>0.9740543860846124</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016952096442283</v>
+        <v>1.022810692832373</v>
       </c>
       <c r="J11">
-        <v>0.9645824152551252</v>
+        <v>0.982363793560914</v>
       </c>
       <c r="K11">
-        <v>0.9791448197990238</v>
+        <v>0.9921696610167707</v>
       </c>
       <c r="L11">
-        <v>0.959385862944982</v>
+        <v>0.9853707183392942</v>
       </c>
       <c r="M11">
-        <v>0.948809604757838</v>
+        <v>0.9894827662425596</v>
       </c>
       <c r="N11">
-        <v>0.9651905036784416</v>
+        <v>0.9837588628264728</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284059940084667</v>
+        <v>0.9463410615504666</v>
       </c>
       <c r="D12">
-        <v>0.9605748296083901</v>
+        <v>0.9733273869845998</v>
       </c>
       <c r="E12">
-        <v>0.9398477744412159</v>
+        <v>0.9655981494035852</v>
       </c>
       <c r="F12">
-        <v>0.9286696151835624</v>
+        <v>0.9697828959595867</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015464759290381</v>
+        <v>1.021270430039036</v>
       </c>
       <c r="J12">
-        <v>0.9615829413612423</v>
+        <v>0.9786037409328067</v>
       </c>
       <c r="K12">
-        <v>0.9764984452760027</v>
+        <v>0.9889840760206317</v>
       </c>
       <c r="L12">
-        <v>0.9562258530190582</v>
+        <v>0.9814155075482445</v>
       </c>
       <c r="M12">
-        <v>0.9453040619620741</v>
+        <v>0.9855128449898964</v>
       </c>
       <c r="N12">
-        <v>0.9627498633897781</v>
+        <v>0.9799934704923494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9292013274501197</v>
+        <v>0.9473041744182862</v>
       </c>
       <c r="D13">
-        <v>0.961207358733111</v>
+        <v>0.9740781664728362</v>
       </c>
       <c r="E13">
-        <v>0.9405963120963756</v>
+        <v>0.9665199114978089</v>
       </c>
       <c r="F13">
-        <v>0.92949608193933</v>
+        <v>0.9707073699889703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015786563648469</v>
+        <v>1.021603924595313</v>
       </c>
       <c r="J13">
-        <v>0.9622317159851832</v>
+        <v>0.9794176668386494</v>
       </c>
       <c r="K13">
-        <v>0.9770708322555322</v>
+        <v>0.989673659514442</v>
       </c>
       <c r="L13">
-        <v>0.9569092927852216</v>
+        <v>0.982271630027633</v>
       </c>
       <c r="M13">
-        <v>0.9460621997715171</v>
+        <v>0.9863721389964549</v>
       </c>
       <c r="N13">
-        <v>0.9632779510732694</v>
+        <v>0.980808552266337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9317822850506958</v>
+        <v>0.950426313009563</v>
       </c>
       <c r="D14">
-        <v>0.9632605455768278</v>
+        <v>0.9765126770810904</v>
       </c>
       <c r="E14">
-        <v>0.9430258869212254</v>
+        <v>0.9695086533731763</v>
       </c>
       <c r="F14">
-        <v>0.9321785132335233</v>
+        <v>0.9737049565157411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016830383704129</v>
+        <v>1.022684753450391</v>
       </c>
       <c r="J14">
-        <v>0.9643368705007778</v>
+        <v>0.982056265485154</v>
       </c>
       <c r="K14">
-        <v>0.9789281748069077</v>
+        <v>0.9919091228540933</v>
       </c>
       <c r="L14">
-        <v>0.9591271503089646</v>
+        <v>0.9850472068821785</v>
       </c>
       <c r="M14">
-        <v>0.9485225879674415</v>
+        <v>0.9891580459847432</v>
       </c>
       <c r="N14">
-        <v>0.9649907900921395</v>
+        <v>0.9834508980255707</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9333538344931966</v>
+        <v>0.952324996338431</v>
       </c>
       <c r="D15">
-        <v>0.9645111412070708</v>
+        <v>0.9779936991813696</v>
       </c>
       <c r="E15">
-        <v>0.9445056138532107</v>
+        <v>0.9713266968788512</v>
       </c>
       <c r="F15">
-        <v>0.9338121857353544</v>
+        <v>0.975528418437172</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017465599756816</v>
+        <v>1.023341829046647</v>
       </c>
       <c r="J15">
-        <v>0.9656185444569741</v>
+        <v>0.9836609426373625</v>
       </c>
       <c r="K15">
-        <v>0.9800590111165188</v>
+        <v>0.9932685951842604</v>
       </c>
       <c r="L15">
-        <v>0.9604776086084749</v>
+        <v>0.9867353284556307</v>
       </c>
       <c r="M15">
-        <v>0.9500208229252461</v>
+        <v>0.9908524861261141</v>
       </c>
       <c r="N15">
-        <v>0.9660330709620588</v>
+        <v>0.9850578540033947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9422342800681746</v>
+        <v>0.9630223584997221</v>
       </c>
       <c r="D16">
-        <v>0.9715835467102309</v>
+        <v>0.9863447167003291</v>
       </c>
       <c r="E16">
-        <v>0.9528721892194973</v>
+        <v>0.9815764552353581</v>
       </c>
       <c r="F16">
-        <v>0.9430486182714541</v>
+        <v>0.9858092589275568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02104937775219</v>
+        <v>1.027040202932508</v>
       </c>
       <c r="J16">
-        <v>0.9728584342601084</v>
+        <v>0.9927022152123324</v>
       </c>
       <c r="K16">
-        <v>0.986447298711675</v>
+        <v>1.000927560191829</v>
       </c>
       <c r="L16">
-        <v>0.9681085200550543</v>
+        <v>0.9962488326028631</v>
       </c>
       <c r="M16">
-        <v>0.9584883855413332</v>
+        <v>1.000402100390094</v>
       </c>
       <c r="N16">
-        <v>0.971912587468163</v>
+        <v>0.9941119662224696</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9475878563371269</v>
+        <v>0.9694474895457442</v>
       </c>
       <c r="D17">
-        <v>0.9758515429108273</v>
+        <v>0.9913657114395505</v>
       </c>
       <c r="E17">
-        <v>0.9579200355567845</v>
+        <v>0.9877381379961608</v>
       </c>
       <c r="F17">
-        <v>0.9486210402448575</v>
+        <v>0.9919900573486253</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023204736101761</v>
+        <v>1.029257931777888</v>
       </c>
       <c r="J17">
-        <v>0.9772206167157413</v>
+        <v>0.9981325888743113</v>
       </c>
       <c r="K17">
-        <v>0.9902966581739799</v>
+        <v>1.005526843859978</v>
       </c>
       <c r="L17">
-        <v>0.9727084258237363</v>
+        <v>1.001964633020594</v>
       </c>
       <c r="M17">
-        <v>0.9635941749737904</v>
+        <v>1.006140002761967</v>
       </c>
       <c r="N17">
-        <v>0.9754480526189107</v>
+        <v>0.999550051637921</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9506387520684786</v>
+        <v>0.9731017945878364</v>
       </c>
       <c r="D18">
-        <v>0.978285194996508</v>
+        <v>0.9942229818349699</v>
       </c>
       <c r="E18">
-        <v>0.9607980513790449</v>
+        <v>0.9912443782647491</v>
       </c>
       <c r="F18">
-        <v>0.9517981475919164</v>
+        <v>0.995507317491385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024431128602892</v>
+        <v>1.030517815790862</v>
       </c>
       <c r="J18">
-        <v>0.9797056194748694</v>
+        <v>1.001220964729838</v>
       </c>
       <c r="K18">
-        <v>0.9924895858078875</v>
+        <v>1.008142184838832</v>
       </c>
       <c r="L18">
-        <v>0.9753296038819601</v>
+        <v>1.005215976252353</v>
       </c>
       <c r="M18">
-        <v>0.9665042277329893</v>
+        <v>1.009404053744175</v>
       </c>
       <c r="N18">
-        <v>0.9774595607512613</v>
+        <v>1.002642813341405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9516674073451016</v>
+        <v>0.9743327746051105</v>
       </c>
       <c r="D19">
-        <v>0.9791059609032327</v>
+        <v>0.9951857174649436</v>
       </c>
       <c r="E19">
-        <v>0.9617686371617349</v>
+        <v>0.9924257679553032</v>
       </c>
       <c r="F19">
-        <v>0.9528696083455522</v>
+        <v>0.9966924433035883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024844296934463</v>
+        <v>1.0309419573571</v>
       </c>
       <c r="J19">
-        <v>0.9805433145625307</v>
+        <v>1.002261268689401</v>
       </c>
       <c r="K19">
-        <v>0.9932288299306768</v>
+        <v>1.009023079636846</v>
       </c>
       <c r="L19">
-        <v>0.9762133301739169</v>
+        <v>1.006311282803197</v>
       </c>
       <c r="M19">
-        <v>0.9674854545541987</v>
+        <v>1.010503663321791</v>
       </c>
       <c r="N19">
-        <v>0.9781372099729791</v>
+        <v>1.003684594651914</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470210241325703</v>
+        <v>0.968767984768887</v>
       </c>
       <c r="D20">
-        <v>0.9753995005373655</v>
+        <v>0.9908345345323354</v>
       </c>
       <c r="E20">
-        <v>0.9573854306620562</v>
+        <v>0.9870863062630758</v>
       </c>
       <c r="F20">
-        <v>0.9480308801505586</v>
+        <v>0.9913361882914618</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02297672579522</v>
+        <v>1.029023539180819</v>
       </c>
       <c r="J20">
-        <v>0.9767588469252185</v>
+        <v>0.9975583007490273</v>
       </c>
       <c r="K20">
-        <v>0.989889167002334</v>
+        <v>1.005040485193298</v>
       </c>
       <c r="L20">
-        <v>0.972221412543949</v>
+        <v>1.001360092809639</v>
       </c>
       <c r="M20">
-        <v>0.9630535392819939</v>
+        <v>1.005533110541117</v>
       </c>
       <c r="N20">
-        <v>0.9750740620483668</v>
+        <v>0.9989749479576273</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310261921744699</v>
+        <v>0.9495121932841358</v>
       </c>
       <c r="D21">
-        <v>0.9626589769256697</v>
+        <v>0.9757997764652374</v>
       </c>
       <c r="E21">
-        <v>0.9423140665759842</v>
+        <v>0.9686334877419888</v>
       </c>
       <c r="F21">
-        <v>0.9313926230828005</v>
+        <v>0.9728271928733757</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016524672681171</v>
+        <v>1.022368345326956</v>
       </c>
       <c r="J21">
-        <v>0.9637201970798563</v>
+        <v>0.9812837077958949</v>
       </c>
       <c r="K21">
-        <v>0.978384086186474</v>
+        <v>0.9912546065322095</v>
       </c>
       <c r="L21">
-        <v>0.9584774269891072</v>
+        <v>0.9842345137296781</v>
       </c>
       <c r="M21">
-        <v>0.947801794651137</v>
+        <v>0.9883423205797212</v>
       </c>
       <c r="N21">
-        <v>0.9644891529576506</v>
+        <v>0.9826772432157791</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9201712668320271</v>
+        <v>0.9363392332341736</v>
       </c>
       <c r="D22">
-        <v>0.9540305731001248</v>
+        <v>0.965536900473716</v>
       </c>
       <c r="E22">
-        <v>0.9321016568095298</v>
+        <v>0.956031421847765</v>
       </c>
       <c r="F22">
-        <v>0.9201161979073212</v>
+        <v>0.960188469221533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012129095767833</v>
+        <v>1.01780526179666</v>
       </c>
       <c r="J22">
-        <v>0.9548641347721625</v>
+        <v>0.9701521620845124</v>
       </c>
       <c r="K22">
-        <v>0.970571216140337</v>
+        <v>0.9818234527956967</v>
       </c>
       <c r="L22">
-        <v>0.949149876980115</v>
+        <v>0.9725272956436509</v>
       </c>
       <c r="M22">
-        <v>0.9374556244298021</v>
+        <v>0.976592121876817</v>
       </c>
       <c r="N22">
-        <v>0.9572751308363113</v>
+        <v>0.9715298894326806</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260100428914108</v>
+        <v>0.9434366955981218</v>
       </c>
       <c r="D23">
-        <v>0.9586698177266272</v>
+        <v>0.9710639625182216</v>
       </c>
       <c r="E23">
-        <v>0.9375932152658204</v>
+        <v>0.9628190581566634</v>
       </c>
       <c r="F23">
-        <v>0.9261802566143023</v>
+        <v>0.9669956738254091</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014494917838832</v>
+        <v>1.020264530590619</v>
       </c>
       <c r="J23">
-        <v>0.9596283339618488</v>
+        <v>0.9761493487105779</v>
       </c>
       <c r="K23">
-        <v>0.9747740244008828</v>
+        <v>0.9869046112704504</v>
       </c>
       <c r="L23">
-        <v>0.954166998488522</v>
+        <v>0.9788340309709446</v>
       </c>
       <c r="M23">
-        <v>0.9430202827197777</v>
+        <v>0.9829218476410148</v>
       </c>
       <c r="N23">
-        <v>0.9611582499190806</v>
+        <v>0.9775355927516424</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.947277371425465</v>
+        <v>0.9690753100302177</v>
       </c>
       <c r="D24">
-        <v>0.9756039303022089</v>
+        <v>0.9910747694799825</v>
       </c>
       <c r="E24">
-        <v>0.9576271991154769</v>
+        <v>0.987381110113726</v>
       </c>
       <c r="F24">
-        <v>0.9482977727147275</v>
+        <v>0.9916319131210358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023079848375014</v>
+        <v>1.029129554440348</v>
       </c>
       <c r="J24">
-        <v>0.9769676830956018</v>
+        <v>0.997818039332157</v>
       </c>
       <c r="K24">
-        <v>0.9900734553829801</v>
+        <v>1.005260456298757</v>
       </c>
       <c r="L24">
-        <v>0.9724416627824656</v>
+        <v>1.001633511789004</v>
       </c>
       <c r="M24">
-        <v>0.9632980381882587</v>
+        <v>1.005807592857662</v>
       </c>
       <c r="N24">
-        <v>0.9752432078415453</v>
+        <v>0.9992350553993373</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969175622442593</v>
+        <v>0.9952078137784375</v>
       </c>
       <c r="D25">
-        <v>0.9930918765615696</v>
+        <v>1.011528003812084</v>
       </c>
       <c r="E25">
-        <v>0.9783052610745804</v>
+        <v>1.012481361773974</v>
       </c>
       <c r="F25">
-        <v>0.9711270832336332</v>
+        <v>1.016813217760099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031848003096195</v>
+        <v>1.038110423398895</v>
       </c>
       <c r="J25">
-        <v>0.9947868212915087</v>
+        <v>1.019897537438726</v>
       </c>
       <c r="K25">
-        <v>1.005798387271163</v>
+        <v>1.02394995988593</v>
       </c>
       <c r="L25">
-        <v>0.9912499625871053</v>
+        <v>1.024888961916822</v>
       </c>
       <c r="M25">
-        <v>0.9841907850040351</v>
+        <v>1.02915601873506</v>
       </c>
       <c r="N25">
-        <v>0.9896232417911839</v>
+        <v>1.021345908925771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01391605993743</v>
+        <v>0.9807814235594062</v>
       </c>
       <c r="D2">
-        <v>1.026193282718827</v>
+        <v>1.002144137583931</v>
       </c>
       <c r="E2">
-        <v>1.030488694678764</v>
+        <v>0.9890929147141484</v>
       </c>
       <c r="F2">
-        <v>1.034881868274558</v>
+        <v>0.9900553773429748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044484147228905</v>
+        <v>1.034976526984507</v>
       </c>
       <c r="J2">
-        <v>1.03568836405693</v>
+        <v>1.003552557543383</v>
       </c>
       <c r="K2">
-        <v>1.037299376871117</v>
+        <v>1.013573681770428</v>
       </c>
       <c r="L2">
-        <v>1.04153900628222</v>
+        <v>1.000706323458101</v>
       </c>
       <c r="M2">
-        <v>1.045875726384767</v>
+        <v>1.0016550174799</v>
       </c>
       <c r="N2">
-        <v>1.037159160329007</v>
+        <v>1.004158076575702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026528748094413</v>
+        <v>0.9881031604713267</v>
       </c>
       <c r="D3">
-        <v>1.036085691425238</v>
+        <v>1.007625763047558</v>
       </c>
       <c r="E3">
-        <v>1.042646109155719</v>
+        <v>0.9958690930621532</v>
       </c>
       <c r="F3">
-        <v>1.047082174372741</v>
+        <v>0.9976484813322832</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048744838187145</v>
+        <v>1.037056169273675</v>
       </c>
       <c r="J3">
-        <v>1.046321440514113</v>
+        <v>1.008923484493076</v>
       </c>
       <c r="K3">
-        <v>1.046276765280578</v>
+        <v>1.018161991856361</v>
       </c>
       <c r="L3">
-        <v>1.052760922534418</v>
+        <v>1.006555103916299</v>
       </c>
       <c r="M3">
-        <v>1.057146089714956</v>
+        <v>1.008311538965109</v>
       </c>
       <c r="N3">
-        <v>1.047807336974389</v>
+        <v>1.006057781292041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034307118266823</v>
+        <v>0.9926954828833372</v>
       </c>
       <c r="D4">
-        <v>1.042186970142869</v>
+        <v>1.011066219345636</v>
       </c>
       <c r="E4">
-        <v>1.050150506352615</v>
+        <v>1.000125523883021</v>
       </c>
       <c r="F4">
-        <v>1.054613655541458</v>
+        <v>1.002415206661274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051354564775716</v>
+        <v>1.0383475126954</v>
       </c>
       <c r="J4">
-        <v>1.052872172971239</v>
+        <v>1.012287902743468</v>
       </c>
       <c r="K4">
-        <v>1.051801562152472</v>
+        <v>1.021032894662056</v>
       </c>
       <c r="L4">
-        <v>1.059679113047957</v>
+        <v>1.01022243417815</v>
       </c>
       <c r="M4">
-        <v>1.064094766788953</v>
+        <v>1.012484569406976</v>
       </c>
       <c r="N4">
-        <v>1.054367372222985</v>
+        <v>1.007246309988461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037493752442342</v>
+        <v>0.9945932891081954</v>
       </c>
       <c r="D5">
-        <v>1.044686414829739</v>
+        <v>1.012488433626034</v>
       </c>
       <c r="E5">
-        <v>1.05322638413282</v>
+        <v>1.001885956005043</v>
       </c>
       <c r="F5">
-        <v>1.057700770354375</v>
+        <v>1.004386078855483</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05241927826438</v>
+        <v>1.038877972464862</v>
       </c>
       <c r="J5">
-        <v>1.055554125646789</v>
+        <v>1.013677167824965</v>
       </c>
       <c r="K5">
-        <v>1.054061998810691</v>
+        <v>1.022217554715472</v>
       </c>
       <c r="L5">
-        <v>1.062512628195373</v>
+        <v>1.011737642119618</v>
       </c>
       <c r="M5">
-        <v>1.066940908430299</v>
+        <v>1.014208575210051</v>
       </c>
       <c r="N5">
-        <v>1.057053133578958</v>
+        <v>1.007736710308861</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038024130301756</v>
+        <v>0.9949100699354652</v>
       </c>
       <c r="D6">
-        <v>1.045102404342641</v>
+        <v>1.012725850377058</v>
       </c>
       <c r="E6">
-        <v>1.053738411363459</v>
+        <v>1.002179888770457</v>
       </c>
       <c r="F6">
-        <v>1.058214675899389</v>
+        <v>1.004715113822323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052596222272265</v>
+        <v>1.03896632668626</v>
       </c>
       <c r="J6">
-        <v>1.056000399473387</v>
+        <v>1.013908996596483</v>
       </c>
       <c r="K6">
-        <v>1.054438043656621</v>
+        <v>1.022415191674997</v>
       </c>
       <c r="L6">
-        <v>1.062984187676909</v>
+        <v>1.011990537960193</v>
       </c>
       <c r="M6">
-        <v>1.067414577250209</v>
+        <v>1.014496313571988</v>
       </c>
       <c r="N6">
-        <v>1.057500041165577</v>
+        <v>1.007818521263844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034350015872153</v>
+        <v>0.9927209678693831</v>
       </c>
       <c r="D7">
-        <v>1.042220617773886</v>
+        <v>1.01108531625071</v>
       </c>
       <c r="E7">
-        <v>1.050191907269545</v>
+        <v>1.000149158532175</v>
       </c>
       <c r="F7">
-        <v>1.054655207179775</v>
+        <v>1.002441668912347</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051368915460882</v>
+        <v>1.038354648794733</v>
       </c>
       <c r="J7">
-        <v>1.052908283759452</v>
+        <v>1.012306563151356</v>
       </c>
       <c r="K7">
-        <v>1.051832003477282</v>
+        <v>1.021048810127622</v>
       </c>
       <c r="L7">
-        <v>1.059717260082834</v>
+        <v>1.010242782815028</v>
       </c>
       <c r="M7">
-        <v>1.06413308326629</v>
+        <v>1.012507722607501</v>
       </c>
       <c r="N7">
-        <v>1.054403534292659</v>
+        <v>1.007252898500755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018263243638795</v>
+        <v>0.98328718281447</v>
       </c>
       <c r="D8">
-        <v>1.029602594807255</v>
+        <v>1.004019583469479</v>
       </c>
       <c r="E8">
-        <v>1.034677409357334</v>
+        <v>0.9914105875390594</v>
       </c>
       <c r="F8">
-        <v>1.039085224189146</v>
+        <v>0.9926531126810201</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045956393233104</v>
+        <v>1.035690968159626</v>
       </c>
       <c r="J8">
-        <v>1.039354613978146</v>
+        <v>1.005391551503718</v>
       </c>
       <c r="K8">
-        <v>1.040395971459364</v>
+        <v>1.015145380848986</v>
       </c>
       <c r="L8">
-        <v>1.04540727983689</v>
+        <v>1.002708178816634</v>
       </c>
       <c r="M8">
-        <v>1.049760561754974</v>
+        <v>1.003933530579662</v>
       </c>
       <c r="N8">
-        <v>1.040830616745636</v>
+        <v>1.004808826983693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9865302616012555</v>
+        <v>0.9654511237435685</v>
       </c>
       <c r="D9">
-        <v>1.00473126913735</v>
+        <v>0.9906857336694735</v>
       </c>
       <c r="E9">
-        <v>1.004139564549859</v>
+        <v>0.974944096130663</v>
       </c>
       <c r="F9">
-        <v>1.00844390914141</v>
+        <v>0.9741812122543518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035136625225781</v>
+        <v>1.030551956187544</v>
       </c>
       <c r="J9">
-        <v>1.012567804794994</v>
+        <v>0.9922857859351683</v>
       </c>
       <c r="K9">
-        <v>1.017748048373295</v>
+        <v>1.00393175787329</v>
       </c>
       <c r="L9">
-        <v>1.017165835348347</v>
+        <v>0.9884572042620029</v>
       </c>
       <c r="M9">
-        <v>1.021401459380429</v>
+        <v>0.9877075478192329</v>
       </c>
       <c r="N9">
-        <v>1.014005767220953</v>
+        <v>1.000165889382361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9622829809300467</v>
+        <v>0.9525873295804356</v>
       </c>
       <c r="D10">
-        <v>0.9857671586297596</v>
+        <v>0.9810963283773639</v>
       </c>
       <c r="E10">
-        <v>0.9808676515520814</v>
+        <v>0.9631120474944707</v>
       </c>
       <c r="F10">
-        <v>0.9850982768769116</v>
+        <v>0.9608838556529975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026784805346496</v>
+        <v>1.026780336239463</v>
       </c>
       <c r="J10">
-        <v>0.9920772977734461</v>
+        <v>0.982817092973004</v>
       </c>
       <c r="K10">
-        <v>1.000398236062265</v>
+        <v>0.9958154937410408</v>
       </c>
       <c r="L10">
-        <v>0.9955911577371258</v>
+        <v>0.9781808725629876</v>
       </c>
       <c r="M10">
-        <v>0.9997419019338695</v>
+        <v>0.9759972014720649</v>
       </c>
       <c r="N10">
-        <v>0.9934861613291409</v>
+        <v>0.9968059435592218</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9507901890402387</v>
+        <v>0.9467444609939401</v>
       </c>
       <c r="D11">
-        <v>0.9767964803031044</v>
+        <v>0.9767498375289969</v>
       </c>
       <c r="E11">
-        <v>0.9698570468392927</v>
+        <v>0.9577499144035913</v>
       </c>
       <c r="F11">
-        <v>0.9740543860846124</v>
+        <v>0.9548503037569934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022810692832373</v>
+        <v>1.025052981749647</v>
       </c>
       <c r="J11">
-        <v>0.982363793560914</v>
+        <v>0.9785137441571986</v>
       </c>
       <c r="K11">
-        <v>0.9921696610167707</v>
+        <v>0.9921239537708612</v>
       </c>
       <c r="L11">
-        <v>0.9853707183392942</v>
+        <v>0.9735151515053588</v>
       </c>
       <c r="M11">
-        <v>0.9894827662425596</v>
+        <v>0.9706770444489645</v>
       </c>
       <c r="N11">
-        <v>0.9837588628264728</v>
+        <v>0.9952780604199671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9463410615504666</v>
+        <v>0.9445289972663513</v>
       </c>
       <c r="D12">
-        <v>0.9733273869845998</v>
+        <v>0.9751033853439994</v>
       </c>
       <c r="E12">
-        <v>0.9655981494035852</v>
+        <v>0.9557187131390341</v>
       </c>
       <c r="F12">
-        <v>0.9697828959595867</v>
+        <v>0.9525635040245929</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021270430039036</v>
+        <v>1.024395993714548</v>
       </c>
       <c r="J12">
-        <v>0.9786037409328067</v>
+        <v>0.9768817710583624</v>
       </c>
       <c r="K12">
-        <v>0.9889840760206317</v>
+        <v>0.990723630956832</v>
       </c>
       <c r="L12">
-        <v>0.9814155075482445</v>
+        <v>0.9717464585734975</v>
       </c>
       <c r="M12">
-        <v>0.9855128449898964</v>
+        <v>0.9686596624660919</v>
       </c>
       <c r="N12">
-        <v>0.9799934704923494</v>
+        <v>0.9946985517258971</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9473041744182862</v>
+        <v>0.945006339169471</v>
       </c>
       <c r="D13">
-        <v>0.9740781664728362</v>
+        <v>0.9754580508435672</v>
       </c>
       <c r="E13">
-        <v>0.9665199114978089</v>
+        <v>0.9561562618758261</v>
       </c>
       <c r="F13">
-        <v>0.9707073699889703</v>
+        <v>0.9530561718599243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021603924595313</v>
+        <v>1.024537636875167</v>
       </c>
       <c r="J13">
-        <v>0.9794176668386494</v>
+        <v>0.9772334038227606</v>
       </c>
       <c r="K13">
-        <v>0.989673659514442</v>
+        <v>0.9910253668217024</v>
       </c>
       <c r="L13">
-        <v>0.982271630027633</v>
+        <v>0.9721275178913985</v>
       </c>
       <c r="M13">
-        <v>0.9863721389964549</v>
+        <v>0.9690943300364452</v>
       </c>
       <c r="N13">
-        <v>0.980808552266337</v>
+        <v>0.9948234185375094</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.950426313009563</v>
+        <v>0.9465622776902397</v>
       </c>
       <c r="D14">
-        <v>0.9765126770810904</v>
+        <v>0.9766144110364881</v>
       </c>
       <c r="E14">
-        <v>0.9695086533731763</v>
+        <v>0.9575828423545629</v>
       </c>
       <c r="F14">
-        <v>0.9737049565157411</v>
+        <v>0.954662234561918</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022684753450391</v>
+        <v>1.024998996131713</v>
       </c>
       <c r="J14">
-        <v>0.982056265485154</v>
+        <v>0.978379547159419</v>
       </c>
       <c r="K14">
-        <v>0.9919091228540933</v>
+        <v>0.9920088124485837</v>
       </c>
       <c r="L14">
-        <v>0.9850472068821785</v>
+        <v>0.973369697784548</v>
       </c>
       <c r="M14">
-        <v>0.9891580459847432</v>
+        <v>0.9705111519008732</v>
       </c>
       <c r="N14">
-        <v>0.9834508980255707</v>
+        <v>0.9952304089262028</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.952324996338431</v>
+        <v>0.9475148230647723</v>
       </c>
       <c r="D15">
-        <v>0.9779936991813696</v>
+        <v>0.977322555969612</v>
       </c>
       <c r="E15">
-        <v>0.9713266968788512</v>
+        <v>0.9584564599561772</v>
       </c>
       <c r="F15">
-        <v>0.975528418437172</v>
+        <v>0.9556455937253364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023341829046647</v>
+        <v>1.025281178631899</v>
       </c>
       <c r="J15">
-        <v>0.9836609426373625</v>
+        <v>0.9790811865940443</v>
       </c>
       <c r="K15">
-        <v>0.9932685951842604</v>
+        <v>0.9926108060675978</v>
       </c>
       <c r="L15">
-        <v>0.9867353284556307</v>
+        <v>0.9741302207736988</v>
       </c>
       <c r="M15">
-        <v>0.9908524861261141</v>
+        <v>0.9713785167072166</v>
       </c>
       <c r="N15">
-        <v>0.9850578540033947</v>
+        <v>0.9954795481950671</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9630223584997221</v>
+        <v>0.9529690109839014</v>
       </c>
       <c r="D16">
-        <v>0.9863447167003291</v>
+        <v>0.9813804689625498</v>
       </c>
       <c r="E16">
-        <v>0.9815764552353581</v>
+        <v>0.9634625883956058</v>
       </c>
       <c r="F16">
-        <v>0.9858092589275568</v>
+        <v>0.9612781246370991</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027040202932508</v>
+        <v>1.026892889934366</v>
       </c>
       <c r="J16">
-        <v>0.9927022152123324</v>
+        <v>0.9830981638231436</v>
       </c>
       <c r="K16">
-        <v>1.000927560191829</v>
+        <v>0.9960565507033222</v>
       </c>
       <c r="L16">
-        <v>0.9962488326028631</v>
+        <v>0.9784857083194778</v>
       </c>
       <c r="M16">
-        <v>1.000402100390094</v>
+        <v>0.9763447174908447</v>
       </c>
       <c r="N16">
-        <v>0.9941119662224696</v>
+        <v>0.9969057223809216</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9694474895457442</v>
+        <v>0.9563144794895836</v>
       </c>
       <c r="D17">
-        <v>0.9913657114395505</v>
+        <v>0.9838720383498487</v>
       </c>
       <c r="E17">
-        <v>0.9877381379961608</v>
+        <v>0.9665364883913693</v>
       </c>
       <c r="F17">
-        <v>0.9919900573486253</v>
+        <v>0.964734630694671</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029257931777888</v>
+        <v>1.027877841184448</v>
       </c>
       <c r="J17">
-        <v>0.9981325888743113</v>
+        <v>0.9855614973277016</v>
       </c>
       <c r="K17">
-        <v>1.005526843859978</v>
+        <v>0.9981688846183239</v>
       </c>
       <c r="L17">
-        <v>1.001964633020594</v>
+        <v>0.9811578472137636</v>
       </c>
       <c r="M17">
-        <v>1.006140002761967</v>
+        <v>0.9793905957146971</v>
       </c>
       <c r="N17">
-        <v>0.999550051637921</v>
+        <v>0.997780103333691</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9731017945878364</v>
+        <v>0.9582398289430685</v>
       </c>
       <c r="D18">
-        <v>0.9942229818349699</v>
+        <v>0.9853067973703167</v>
       </c>
       <c r="E18">
-        <v>0.9912443782647491</v>
+        <v>0.9683066710284541</v>
       </c>
       <c r="F18">
-        <v>0.995507317491385</v>
+        <v>0.9667244668634994</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030517815790862</v>
+        <v>1.028443346376033</v>
       </c>
       <c r="J18">
-        <v>1.001220964729838</v>
+        <v>0.9869789194181224</v>
       </c>
       <c r="K18">
-        <v>1.008142184838832</v>
+        <v>0.999384067909589</v>
       </c>
       <c r="L18">
-        <v>1.005215976252353</v>
+        <v>0.982695856629436</v>
       </c>
       <c r="M18">
-        <v>1.009404053744175</v>
+        <v>0.9811434115149108</v>
       </c>
       <c r="N18">
-        <v>1.002642813341405</v>
+        <v>0.9982831467244785</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9743327746051105</v>
+        <v>0.9588920299791139</v>
       </c>
       <c r="D19">
-        <v>0.9951857174649436</v>
+        <v>0.9857929486250668</v>
       </c>
       <c r="E19">
-        <v>0.9924257679553032</v>
+        <v>0.968906496331605</v>
       </c>
       <c r="F19">
-        <v>0.9966924433035883</v>
+        <v>0.9673986106030915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0309419573571</v>
+        <v>1.028634676716115</v>
       </c>
       <c r="J19">
-        <v>1.002261268689401</v>
+        <v>0.9874590169356681</v>
       </c>
       <c r="K19">
-        <v>1.009023079636846</v>
+        <v>0.9997956171780839</v>
       </c>
       <c r="L19">
-        <v>1.006311282803197</v>
+        <v>0.9832168729714074</v>
       </c>
       <c r="M19">
-        <v>1.010503663321791</v>
+        <v>0.981737146257992</v>
       </c>
       <c r="N19">
-        <v>1.003684594651914</v>
+        <v>0.9984535182319684</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.968767984768887</v>
+        <v>0.9559582606341687</v>
       </c>
       <c r="D20">
-        <v>0.9908345345323354</v>
+        <v>0.9836066522801772</v>
       </c>
       <c r="E20">
-        <v>0.9870863062630758</v>
+        <v>0.9662090677289487</v>
       </c>
       <c r="F20">
-        <v>0.9913361882914618</v>
+        <v>0.9643665279223994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029023539180819</v>
+        <v>1.027773104430714</v>
       </c>
       <c r="J20">
-        <v>0.9975583007490273</v>
+        <v>0.9852992315907289</v>
       </c>
       <c r="K20">
-        <v>1.005040485193298</v>
+        <v>0.9979440167957999</v>
       </c>
       <c r="L20">
-        <v>1.001360092809639</v>
+        <v>0.9808733047787289</v>
       </c>
       <c r="M20">
-        <v>1.005533110541117</v>
+        <v>0.9790662883352516</v>
       </c>
       <c r="N20">
-        <v>0.9989749479576273</v>
+        <v>0.9976870181916982</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9495121932841358</v>
+        <v>0.9461053758737726</v>
       </c>
       <c r="D21">
-        <v>0.9757997764652374</v>
+        <v>0.976274798751019</v>
       </c>
       <c r="E21">
-        <v>0.9686334877419888</v>
+        <v>0.9571638708179925</v>
       </c>
       <c r="F21">
-        <v>0.9728271928733757</v>
+        <v>0.9541905870057876</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022368345326956</v>
+        <v>1.024863572286159</v>
       </c>
       <c r="J21">
-        <v>0.9812837077958949</v>
+        <v>0.9780429877055066</v>
       </c>
       <c r="K21">
-        <v>0.9912546065322095</v>
+        <v>0.9917200379880814</v>
       </c>
       <c r="L21">
-        <v>0.9842345137296781</v>
+        <v>0.9730049183360346</v>
       </c>
       <c r="M21">
-        <v>0.9883423205797212</v>
+        <v>0.9700951044035618</v>
       </c>
       <c r="N21">
-        <v>0.9826772432157791</v>
+        <v>0.9951109001232467</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9363392332341736</v>
+        <v>0.9396466480542037</v>
       </c>
       <c r="D22">
-        <v>0.965536900473716</v>
+        <v>0.9714783082242564</v>
       </c>
       <c r="E22">
-        <v>0.956031421847765</v>
+        <v>0.9512462869810956</v>
       </c>
       <c r="F22">
-        <v>0.960188469221533</v>
+        <v>0.947525764217601</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01780526179666</v>
+        <v>1.022944564727503</v>
       </c>
       <c r="J22">
-        <v>0.9701521620845124</v>
+        <v>0.9732849830247676</v>
       </c>
       <c r="K22">
-        <v>0.9818234527956967</v>
+        <v>0.9876367807245889</v>
       </c>
       <c r="L22">
-        <v>0.9725272956436509</v>
+        <v>0.9678496468073543</v>
       </c>
       <c r="M22">
-        <v>0.976592121876817</v>
+        <v>0.9642136981824059</v>
       </c>
       <c r="N22">
-        <v>0.9715298894326806</v>
+        <v>0.993421238252592</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9434366955981218</v>
+        <v>0.9430971098881633</v>
       </c>
       <c r="D23">
-        <v>0.9710639625182216</v>
+        <v>0.9740397509663472</v>
       </c>
       <c r="E23">
-        <v>0.9628190581566634</v>
+        <v>0.9544064975442742</v>
       </c>
       <c r="F23">
-        <v>0.9669956738254091</v>
+        <v>0.9510857871939706</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020264530590619</v>
+        <v>1.023970819103222</v>
       </c>
       <c r="J23">
-        <v>0.9761493487105779</v>
+        <v>0.9758269482257964</v>
       </c>
       <c r="K23">
-        <v>0.9869046112704504</v>
+        <v>0.989818439096839</v>
       </c>
       <c r="L23">
-        <v>0.9788340309709446</v>
+        <v>0.9706034655977885</v>
       </c>
       <c r="M23">
-        <v>0.9829218476410148</v>
+        <v>0.9673557738334465</v>
       </c>
       <c r="N23">
-        <v>0.9775355927516424</v>
+        <v>0.9943239692210373</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9690753100302177</v>
+        <v>0.9561193006576731</v>
       </c>
       <c r="D24">
-        <v>0.9910747694799825</v>
+        <v>0.9837266258822144</v>
       </c>
       <c r="E24">
-        <v>0.987381110113726</v>
+        <v>0.9663570851368594</v>
       </c>
       <c r="F24">
-        <v>0.9916319131210358</v>
+        <v>0.9645329386357795</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029129554440348</v>
+        <v>1.027820458184623</v>
       </c>
       <c r="J24">
-        <v>0.997818039332157</v>
+        <v>0.9854177979162679</v>
       </c>
       <c r="K24">
-        <v>1.005260456298757</v>
+        <v>0.998045676942574</v>
       </c>
       <c r="L24">
-        <v>1.001633511789004</v>
+        <v>0.9810019406940551</v>
       </c>
       <c r="M24">
-        <v>1.005807592857662</v>
+        <v>0.9792129021314705</v>
       </c>
       <c r="N24">
-        <v>0.9992350553993373</v>
+        <v>0.9977291008192499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9952078137784375</v>
+        <v>0.9702209481625313</v>
       </c>
       <c r="D25">
-        <v>1.011528003812084</v>
+        <v>0.9942476978862269</v>
       </c>
       <c r="E25">
-        <v>1.012481361773974</v>
+        <v>0.9793406862599073</v>
       </c>
       <c r="F25">
-        <v>1.016813217760099</v>
+        <v>0.9791169217619835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038110423398895</v>
+        <v>1.031937705737558</v>
       </c>
       <c r="J25">
-        <v>1.019897537438726</v>
+        <v>0.9957938052239298</v>
       </c>
       <c r="K25">
-        <v>1.02394995988593</v>
+        <v>1.006935972127948</v>
       </c>
       <c r="L25">
-        <v>1.024888961916822</v>
+        <v>0.992268407515751</v>
       </c>
       <c r="M25">
-        <v>1.02915601873506</v>
+        <v>0.9920483086896708</v>
       </c>
       <c r="N25">
-        <v>1.021345908925771</v>
+        <v>1.001409735108</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9807814235594062</v>
+        <v>1.028639757754075</v>
       </c>
       <c r="D2">
-        <v>1.002144137583931</v>
+        <v>1.032432101668982</v>
       </c>
       <c r="E2">
-        <v>0.9890929147141484</v>
+        <v>1.032273333469335</v>
       </c>
       <c r="F2">
-        <v>0.9900553773429748</v>
+        <v>1.037794868816087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034976526984507</v>
+        <v>1.031901358382663</v>
       </c>
       <c r="J2">
-        <v>1.003552557543383</v>
+        <v>1.033790957529502</v>
       </c>
       <c r="K2">
-        <v>1.013573681770428</v>
+        <v>1.03523734969345</v>
       </c>
       <c r="L2">
-        <v>1.000706323458101</v>
+        <v>1.035079039519726</v>
       </c>
       <c r="M2">
-        <v>1.0016550174799</v>
+        <v>1.040584735341346</v>
       </c>
       <c r="N2">
-        <v>1.004158076575702</v>
+        <v>1.015108602799619</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9881031604713267</v>
+        <v>1.030079525528191</v>
       </c>
       <c r="D3">
-        <v>1.007625763047558</v>
+        <v>1.033516232239543</v>
       </c>
       <c r="E3">
-        <v>0.9958690930621532</v>
+        <v>1.033661736548206</v>
       </c>
       <c r="F3">
-        <v>0.9976484813322832</v>
+        <v>1.039352271275644</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037056169273675</v>
+        <v>1.032222900516538</v>
       </c>
       <c r="J3">
-        <v>1.008923484493076</v>
+        <v>1.034868909154358</v>
       </c>
       <c r="K3">
-        <v>1.018161991856361</v>
+        <v>1.036129514706875</v>
       </c>
       <c r="L3">
-        <v>1.006555103916299</v>
+        <v>1.036274629989866</v>
       </c>
       <c r="M3">
-        <v>1.008311538965109</v>
+        <v>1.041950042621673</v>
       </c>
       <c r="N3">
-        <v>1.006057781292041</v>
+        <v>1.015479869650347</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9926954828833372</v>
+        <v>1.031009655082153</v>
       </c>
       <c r="D4">
-        <v>1.011066219345636</v>
+        <v>1.034216236757715</v>
       </c>
       <c r="E4">
-        <v>1.000125523883021</v>
+        <v>1.034559022327542</v>
       </c>
       <c r="F4">
-        <v>1.002415206661274</v>
+        <v>1.040358703648867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0383475126954</v>
+        <v>1.032428923691462</v>
       </c>
       <c r="J4">
-        <v>1.012287902743468</v>
+        <v>1.03556454850967</v>
       </c>
       <c r="K4">
-        <v>1.021032894662056</v>
+        <v>1.036704720795414</v>
       </c>
       <c r="L4">
-        <v>1.01022243417815</v>
+        <v>1.037046636580516</v>
       </c>
       <c r="M4">
-        <v>1.012484569406976</v>
+        <v>1.042831695376559</v>
       </c>
       <c r="N4">
-        <v>1.007246309988461</v>
+        <v>1.01571911194643</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9945932891081954</v>
+        <v>1.03140033058385</v>
       </c>
       <c r="D5">
-        <v>1.012488433626034</v>
+        <v>1.034510163947395</v>
       </c>
       <c r="E5">
-        <v>1.001885956005043</v>
+        <v>1.03493598330738</v>
       </c>
       <c r="F5">
-        <v>1.004386078855483</v>
+        <v>1.040781501908025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038877972464862</v>
+        <v>1.03251505021882</v>
       </c>
       <c r="J5">
-        <v>1.013677167824965</v>
+        <v>1.035856553516473</v>
       </c>
       <c r="K5">
-        <v>1.022217554715472</v>
+        <v>1.036946042691687</v>
       </c>
       <c r="L5">
-        <v>1.011737642119618</v>
+        <v>1.037370805920386</v>
       </c>
       <c r="M5">
-        <v>1.014208575210051</v>
+        <v>1.043201920249526</v>
       </c>
       <c r="N5">
-        <v>1.007736710308861</v>
+        <v>1.015819453550102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9949100699354652</v>
+        <v>1.031465906350229</v>
       </c>
       <c r="D6">
-        <v>1.012725850377058</v>
+        <v>1.034559494945747</v>
       </c>
       <c r="E6">
-        <v>1.002179888770457</v>
+        <v>1.034999261770043</v>
       </c>
       <c r="F6">
-        <v>1.004715113822323</v>
+        <v>1.040852473888543</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03896632668626</v>
+        <v>1.032529482817859</v>
       </c>
       <c r="J6">
-        <v>1.013908996596483</v>
+        <v>1.035905556688922</v>
       </c>
       <c r="K6">
-        <v>1.022415191674997</v>
+        <v>1.036986532810878</v>
       </c>
       <c r="L6">
-        <v>1.011990537960193</v>
+        <v>1.037425213129551</v>
       </c>
       <c r="M6">
-        <v>1.014496313571988</v>
+        <v>1.043264058098595</v>
       </c>
       <c r="N6">
-        <v>1.007818521263844</v>
+        <v>1.015836287564445</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9927209678693831</v>
+        <v>1.031014876677347</v>
       </c>
       <c r="D7">
-        <v>1.01108531625071</v>
+        <v>1.034220165615423</v>
       </c>
       <c r="E7">
-        <v>1.000149158532175</v>
+        <v>1.034564060304422</v>
       </c>
       <c r="F7">
-        <v>1.002441668912347</v>
+        <v>1.040364354292045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038354648794733</v>
+        <v>1.032430076424224</v>
       </c>
       <c r="J7">
-        <v>1.012306563151356</v>
+        <v>1.035568452024223</v>
       </c>
       <c r="K7">
-        <v>1.021048810127622</v>
+        <v>1.03670794728917</v>
       </c>
       <c r="L7">
-        <v>1.010242782815028</v>
+        <v>1.037050969641974</v>
       </c>
       <c r="M7">
-        <v>1.012507722607501</v>
+        <v>1.042836643988559</v>
       </c>
       <c r="N7">
-        <v>1.007252898500755</v>
+        <v>1.015720453640545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.98328718281447</v>
+        <v>1.02912664827153</v>
       </c>
       <c r="D8">
-        <v>1.004019583469479</v>
+        <v>1.032798802069823</v>
       </c>
       <c r="E8">
-        <v>0.9914105875390594</v>
+        <v>1.032742783155061</v>
       </c>
       <c r="F8">
-        <v>0.9926531126810201</v>
+        <v>1.038321476571445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035690968159626</v>
+        <v>1.032010447741993</v>
       </c>
       <c r="J8">
-        <v>1.005391551503718</v>
+        <v>1.03415564618365</v>
       </c>
       <c r="K8">
-        <v>1.015145380848986</v>
+        <v>1.035539295178763</v>
       </c>
       <c r="L8">
-        <v>1.002708178816634</v>
+        <v>1.035483433867026</v>
       </c>
       <c r="M8">
-        <v>1.003933530579662</v>
+        <v>1.041046522761324</v>
       </c>
       <c r="N8">
-        <v>1.004808826983693</v>
+        <v>1.015234280618789</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9654511237435685</v>
+        <v>1.025787559417351</v>
       </c>
       <c r="D9">
-        <v>0.9906857336694735</v>
+        <v>1.03028248325455</v>
       </c>
       <c r="E9">
-        <v>0.974944096130663</v>
+        <v>1.029524722386425</v>
       </c>
       <c r="F9">
-        <v>0.9741812122543518</v>
+        <v>1.034711264242695</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030551956187544</v>
+        <v>1.031255331879469</v>
       </c>
       <c r="J9">
-        <v>0.9922857859351683</v>
+        <v>1.031651561515681</v>
       </c>
       <c r="K9">
-        <v>1.00393175787329</v>
+        <v>1.033463825811856</v>
       </c>
       <c r="L9">
-        <v>0.9884572042620029</v>
+        <v>1.032708569056878</v>
       </c>
       <c r="M9">
-        <v>0.9877075478192329</v>
+        <v>1.037878051781254</v>
       </c>
       <c r="N9">
-        <v>1.000165889382361</v>
+        <v>1.014369907225286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9525873295804356</v>
+        <v>1.023553113072921</v>
       </c>
       <c r="D10">
-        <v>0.9810963283773639</v>
+        <v>1.028596788016358</v>
       </c>
       <c r="E10">
-        <v>0.9631120474944707</v>
+        <v>1.027373074896923</v>
       </c>
       <c r="F10">
-        <v>0.9608838556529975</v>
+        <v>1.032296959189953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026780336239463</v>
+        <v>1.03074126449673</v>
       </c>
       <c r="J10">
-        <v>0.982817092973004</v>
+        <v>1.029972060581969</v>
       </c>
       <c r="K10">
-        <v>0.9958154937410408</v>
+        <v>1.032069047612976</v>
       </c>
       <c r="L10">
-        <v>0.9781808725629876</v>
+        <v>1.030849782298703</v>
       </c>
       <c r="M10">
-        <v>0.9759972014720649</v>
+        <v>1.035755840675975</v>
       </c>
       <c r="N10">
-        <v>0.9968059435592218</v>
+        <v>1.013788391730817</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9467444609939401</v>
+        <v>1.022583480669071</v>
       </c>
       <c r="D11">
-        <v>0.9767498375289969</v>
+        <v>1.027864865857995</v>
       </c>
       <c r="E11">
-        <v>0.9577499144035913</v>
+        <v>1.026439810279418</v>
       </c>
       <c r="F11">
-        <v>0.9548503037569934</v>
+        <v>1.031249647534746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025052981749647</v>
+        <v>1.030516113555476</v>
       </c>
       <c r="J11">
-        <v>0.9785137441571986</v>
+        <v>1.029242344650286</v>
       </c>
       <c r="K11">
-        <v>0.9921239537708612</v>
+        <v>1.031462392046729</v>
       </c>
       <c r="L11">
-        <v>0.9735151515053588</v>
+        <v>1.030042720679324</v>
       </c>
       <c r="M11">
-        <v>0.9706770444489645</v>
+        <v>1.03483445123585</v>
       </c>
       <c r="N11">
-        <v>0.9952780604199671</v>
+        <v>1.013535315835277</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9445289972663513</v>
+        <v>1.022222991191345</v>
       </c>
       <c r="D12">
-        <v>0.9751033853439994</v>
+        <v>1.027592690487887</v>
       </c>
       <c r="E12">
-        <v>0.9557187131390341</v>
+        <v>1.026092908015191</v>
       </c>
       <c r="F12">
-        <v>0.9525635040245929</v>
+        <v>1.030860333861036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024395993714548</v>
+        <v>1.0304320960611</v>
       </c>
       <c r="J12">
-        <v>0.9768817710583624</v>
+        <v>1.028970916355662</v>
       </c>
       <c r="K12">
-        <v>0.990723630956832</v>
+        <v>1.031236641063654</v>
       </c>
       <c r="L12">
-        <v>0.9717464585734975</v>
+        <v>1.029742605269121</v>
       </c>
       <c r="M12">
-        <v>0.9686596624660919</v>
+        <v>1.034491828082976</v>
       </c>
       <c r="N12">
-        <v>0.9946985517258971</v>
+        <v>1.013441118374499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.945006339169471</v>
+        <v>1.022300332252041</v>
       </c>
       <c r="D13">
-        <v>0.9754580508435672</v>
+        <v>1.027651087007677</v>
       </c>
       <c r="E13">
-        <v>0.9561562618758261</v>
+        <v>1.026167330996788</v>
       </c>
       <c r="F13">
-        <v>0.9530561718599243</v>
+        <v>1.030943856495388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024537636875167</v>
+        <v>1.030450135622577</v>
       </c>
       <c r="J13">
-        <v>0.9772334038227606</v>
+        <v>1.029029155916811</v>
       </c>
       <c r="K13">
-        <v>0.9910253668217024</v>
+        <v>1.031285084150205</v>
       </c>
       <c r="L13">
-        <v>0.9721275178913985</v>
+        <v>1.029806996397885</v>
       </c>
       <c r="M13">
-        <v>0.9690943300364452</v>
+        <v>1.034565339163727</v>
       </c>
       <c r="N13">
-        <v>0.9948234185375094</v>
+        <v>1.013461332853983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9465622776902397</v>
+        <v>1.022553689174958</v>
       </c>
       <c r="D14">
-        <v>0.9766144110364881</v>
+        <v>1.02784237405044</v>
       </c>
       <c r="E14">
-        <v>0.9575828423545629</v>
+        <v>1.026411140298408</v>
       </c>
       <c r="F14">
-        <v>0.954662234561918</v>
+        <v>1.031217472829939</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024998996131713</v>
+        <v>1.030509176539464</v>
       </c>
       <c r="J14">
-        <v>0.978379547159419</v>
+        <v>1.029219916078748</v>
       </c>
       <c r="K14">
-        <v>0.9920088124485837</v>
+        <v>1.031443739837694</v>
       </c>
       <c r="L14">
-        <v>0.973369697784548</v>
+        <v>1.030017919957385</v>
       </c>
       <c r="M14">
-        <v>0.9705111519008732</v>
+        <v>1.034806137663224</v>
       </c>
       <c r="N14">
-        <v>0.9952304089262028</v>
+        <v>1.0135275334097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9475148230647723</v>
+        <v>1.02270974742433</v>
       </c>
       <c r="D15">
-        <v>0.977322555969612</v>
+        <v>1.027960191474315</v>
       </c>
       <c r="E15">
-        <v>0.9584564599561772</v>
+        <v>1.026561326393502</v>
       </c>
       <c r="F15">
-        <v>0.9556455937253364</v>
+        <v>1.031386017434061</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025281178631899</v>
+        <v>1.030545502323392</v>
       </c>
       <c r="J15">
-        <v>0.9790811865940443</v>
+        <v>1.029337399250953</v>
       </c>
       <c r="K15">
-        <v>0.9926108060675978</v>
+        <v>1.031541438076041</v>
       </c>
       <c r="L15">
-        <v>0.9741302207736988</v>
+        <v>1.030147832083448</v>
       </c>
       <c r="M15">
-        <v>0.9713785167072166</v>
+        <v>1.034954451201087</v>
       </c>
       <c r="N15">
-        <v>0.9954795481950671</v>
+        <v>1.013568296012073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9529690109839014</v>
+        <v>1.023617419323205</v>
       </c>
       <c r="D16">
-        <v>0.9813804689625498</v>
+        <v>1.028645320554275</v>
       </c>
       <c r="E16">
-        <v>0.9634625883956058</v>
+        <v>1.027434978494671</v>
       </c>
       <c r="F16">
-        <v>0.9612781246370991</v>
+        <v>1.032366424915788</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026892889934366</v>
+        <v>1.030756152963792</v>
       </c>
       <c r="J16">
-        <v>0.9830981638231436</v>
+        <v>1.030020436594655</v>
       </c>
       <c r="K16">
-        <v>0.9960565507033222</v>
+        <v>1.032109251848557</v>
       </c>
       <c r="L16">
-        <v>0.9784857083194778</v>
+        <v>1.030903297479295</v>
       </c>
       <c r="M16">
-        <v>0.9763447174908447</v>
+        <v>1.035816937721347</v>
       </c>
       <c r="N16">
-        <v>0.9969057223809216</v>
+        <v>1.013805160483092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9563144794895836</v>
+        <v>1.024186208744636</v>
       </c>
       <c r="D17">
-        <v>0.9838720383498487</v>
+        <v>1.029074543148314</v>
       </c>
       <c r="E17">
-        <v>0.9665364883913693</v>
+        <v>1.027982566993172</v>
       </c>
       <c r="F17">
-        <v>0.964734630694671</v>
+        <v>1.032980892614796</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027877841184448</v>
+        <v>1.030887602483723</v>
       </c>
       <c r="J17">
-        <v>0.9855614973277016</v>
+        <v>1.030448219032022</v>
       </c>
       <c r="K17">
-        <v>0.9981688846183239</v>
+        <v>1.032464697824432</v>
       </c>
       <c r="L17">
-        <v>0.9811578472137636</v>
+        <v>1.031376588414415</v>
       </c>
       <c r="M17">
-        <v>0.9793905957146971</v>
+        <v>1.036357288455098</v>
       </c>
       <c r="N17">
-        <v>0.997780103333691</v>
+        <v>1.013953396234237</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9582398289430685</v>
+        <v>1.024517771750715</v>
       </c>
       <c r="D18">
-        <v>0.9853067973703167</v>
+        <v>1.029324708358431</v>
       </c>
       <c r="E18">
-        <v>0.9683066710284541</v>
+        <v>1.028301813502427</v>
       </c>
       <c r="F18">
-        <v>0.9667244668634994</v>
+        <v>1.033339118413481</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028443346376033</v>
+        <v>1.0309640282717</v>
       </c>
       <c r="J18">
-        <v>0.9869789194181224</v>
+        <v>1.030697498362484</v>
       </c>
       <c r="K18">
-        <v>0.999384067909589</v>
+        <v>1.032671762587065</v>
       </c>
       <c r="L18">
-        <v>0.982695856629436</v>
+        <v>1.031652439734687</v>
       </c>
       <c r="M18">
-        <v>0.9811434115149108</v>
+        <v>1.036672229330616</v>
       </c>
       <c r="N18">
-        <v>0.9982831467244785</v>
+        <v>1.014039736683745</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9588920299791139</v>
+        <v>1.024630792134009</v>
       </c>
       <c r="D19">
-        <v>0.9857929486250668</v>
+        <v>1.029409975652961</v>
       </c>
       <c r="E19">
-        <v>0.968906496331605</v>
+        <v>1.028410642663397</v>
       </c>
       <c r="F19">
-        <v>0.9673986106030915</v>
+        <v>1.033461233439878</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028634676716115</v>
+        <v>1.030990045751322</v>
       </c>
       <c r="J19">
-        <v>0.9874590169356681</v>
+        <v>1.030782455843699</v>
       </c>
       <c r="K19">
-        <v>0.9997956171780839</v>
+        <v>1.032742322233983</v>
       </c>
       <c r="L19">
-        <v>0.9832168729714074</v>
+        <v>1.031746462282943</v>
       </c>
       <c r="M19">
-        <v>0.981737146257992</v>
+        <v>1.03677957616965</v>
       </c>
       <c r="N19">
-        <v>0.9984535182319684</v>
+        <v>1.014069155754093</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9559582606341687</v>
+        <v>1.024125204006333</v>
       </c>
       <c r="D20">
-        <v>0.9836066522801772</v>
+        <v>1.029028511637005</v>
       </c>
       <c r="E20">
-        <v>0.9662090677289487</v>
+        <v>1.027923831769975</v>
       </c>
       <c r="F20">
-        <v>0.9643665279223994</v>
+        <v>1.032914985026232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027773104430714</v>
+        <v>1.030873524707192</v>
       </c>
       <c r="J20">
-        <v>0.9852992315907289</v>
+        <v>1.030402346786041</v>
       </c>
       <c r="K20">
-        <v>0.9979440167957999</v>
+        <v>1.032426588855945</v>
       </c>
       <c r="L20">
-        <v>0.9808733047787289</v>
+        <v>1.031325830680588</v>
       </c>
       <c r="M20">
-        <v>0.9790662883352516</v>
+        <v>1.036299338468015</v>
       </c>
       <c r="N20">
-        <v>0.9976870181916982</v>
+        <v>1.013937504674358</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9461053758737726</v>
+        <v>1.0224790909152</v>
       </c>
       <c r="D21">
-        <v>0.976274798751019</v>
+        <v>1.027786053301504</v>
       </c>
       <c r="E21">
-        <v>0.9571638708179925</v>
+        <v>1.026339351395983</v>
       </c>
       <c r="F21">
-        <v>0.9541905870057876</v>
+        <v>1.031136907875231</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024863572286159</v>
+        <v>1.030491801146736</v>
       </c>
       <c r="J21">
-        <v>0.9780429877055066</v>
+        <v>1.029163752489423</v>
       </c>
       <c r="K21">
-        <v>0.9917200379880814</v>
+        <v>1.031397031111046</v>
       </c>
       <c r="L21">
-        <v>0.9730049183360346</v>
+        <v>1.029955817580324</v>
       </c>
       <c r="M21">
-        <v>0.9700951044035618</v>
+        <v>1.034735239015018</v>
       </c>
       <c r="N21">
-        <v>0.9951109001232467</v>
+        <v>1.013508044363164</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9396466480542037</v>
+        <v>1.021442230420126</v>
       </c>
       <c r="D22">
-        <v>0.9714783082242564</v>
+        <v>1.027003092009473</v>
       </c>
       <c r="E22">
-        <v>0.9512462869810956</v>
+        <v>1.025341697169245</v>
       </c>
       <c r="F22">
-        <v>0.947525764217601</v>
+        <v>1.030017245657194</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022944564727503</v>
+        <v>1.030249559568009</v>
       </c>
       <c r="J22">
-        <v>0.9732849830247676</v>
+        <v>1.028382801246211</v>
       </c>
       <c r="K22">
-        <v>0.9876367807245889</v>
+        <v>1.03074732036393</v>
       </c>
       <c r="L22">
-        <v>0.9678496468073543</v>
+        <v>1.029092483862089</v>
       </c>
       <c r="M22">
-        <v>0.9642136981824059</v>
+        <v>1.033749635688362</v>
       </c>
       <c r="N22">
-        <v>0.993421238252592</v>
+        <v>1.013236903258188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9430971098881633</v>
+        <v>1.021992071367079</v>
       </c>
       <c r="D23">
-        <v>0.9740397509663472</v>
+        <v>1.027418325082221</v>
       </c>
       <c r="E23">
-        <v>0.9544064975442742</v>
+        <v>1.025870710577204</v>
       </c>
       <c r="F23">
-        <v>0.9510857871939706</v>
+        <v>1.0306109655918</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023970819103222</v>
+        <v>1.030378189225451</v>
       </c>
       <c r="J23">
-        <v>0.9758269482257964</v>
+        <v>1.028797008815335</v>
       </c>
       <c r="K23">
-        <v>0.989818439096839</v>
+        <v>1.03109197237124</v>
       </c>
       <c r="L23">
-        <v>0.9706034655977885</v>
+        <v>1.029550340810925</v>
       </c>
       <c r="M23">
-        <v>0.9673557738334465</v>
+        <v>1.03427233338431</v>
       </c>
       <c r="N23">
-        <v>0.9943239692210373</v>
+        <v>1.013380747388891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9561193006576731</v>
+        <v>1.024152770046772</v>
       </c>
       <c r="D24">
-        <v>0.9837266258822144</v>
+        <v>1.029049311892383</v>
       </c>
       <c r="E24">
-        <v>0.9663570851368594</v>
+        <v>1.027950372160877</v>
       </c>
       <c r="F24">
-        <v>0.9645329386357795</v>
+        <v>1.032944766393634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027820458184623</v>
+        <v>1.030879886610178</v>
       </c>
       <c r="J24">
-        <v>0.9854177979162679</v>
+        <v>1.030423075217923</v>
       </c>
       <c r="K24">
-        <v>0.998045676942574</v>
+        <v>1.032443809464664</v>
       </c>
       <c r="L24">
-        <v>0.9810019406940551</v>
+        <v>1.031348766568707</v>
       </c>
       <c r="M24">
-        <v>0.9792129021314705</v>
+        <v>1.036325524303914</v>
       </c>
       <c r="N24">
-        <v>0.9977291008192499</v>
+        <v>1.013944685766245</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9702209481625313</v>
+        <v>1.026652238225113</v>
       </c>
       <c r="D25">
-        <v>0.9942476978862269</v>
+        <v>1.030934427200836</v>
       </c>
       <c r="E25">
-        <v>0.9793406862599073</v>
+        <v>1.030357744573867</v>
       </c>
       <c r="F25">
-        <v>0.9791169217619835</v>
+        <v>1.035645874864948</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031937705737558</v>
+        <v>1.031452417133857</v>
       </c>
       <c r="J25">
-        <v>0.9957938052239298</v>
+        <v>1.032300684853697</v>
       </c>
       <c r="K25">
-        <v>1.006935972127948</v>
+        <v>1.034002326520043</v>
       </c>
       <c r="L25">
-        <v>0.992268407515751</v>
+        <v>1.033427476121366</v>
       </c>
       <c r="M25">
-        <v>0.9920483086896708</v>
+        <v>1.038698888598835</v>
       </c>
       <c r="N25">
-        <v>1.001409735108</v>
+        <v>1.014594288848339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028639757754075</v>
+        <v>0.9807814235594082</v>
       </c>
       <c r="D2">
-        <v>1.032432101668982</v>
+        <v>1.002144137583932</v>
       </c>
       <c r="E2">
-        <v>1.032273333469335</v>
+        <v>0.98909291471415</v>
       </c>
       <c r="F2">
-        <v>1.037794868816087</v>
+        <v>0.9900553773429767</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031901358382663</v>
+        <v>1.034976526984507</v>
       </c>
       <c r="J2">
-        <v>1.033790957529502</v>
+        <v>1.003552557543385</v>
       </c>
       <c r="K2">
-        <v>1.03523734969345</v>
+        <v>1.01357368177043</v>
       </c>
       <c r="L2">
-        <v>1.035079039519726</v>
+        <v>1.000706323458102</v>
       </c>
       <c r="M2">
-        <v>1.040584735341346</v>
+        <v>1.001655017479902</v>
       </c>
       <c r="N2">
-        <v>1.015108602799619</v>
+        <v>1.004158076575703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030079525528191</v>
+        <v>0.9881031604713263</v>
       </c>
       <c r="D3">
-        <v>1.033516232239543</v>
+        <v>1.007625763047558</v>
       </c>
       <c r="E3">
-        <v>1.033661736548206</v>
+        <v>0.9958690930621527</v>
       </c>
       <c r="F3">
-        <v>1.039352271275644</v>
+        <v>0.9976484813322823</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032222900516538</v>
+        <v>1.037056169273674</v>
       </c>
       <c r="J3">
-        <v>1.034868909154358</v>
+        <v>1.008923484493075</v>
       </c>
       <c r="K3">
-        <v>1.036129514706875</v>
+        <v>1.018161991856361</v>
       </c>
       <c r="L3">
-        <v>1.036274629989866</v>
+        <v>1.006555103916299</v>
       </c>
       <c r="M3">
-        <v>1.041950042621673</v>
+        <v>1.008311538965108</v>
       </c>
       <c r="N3">
-        <v>1.015479869650347</v>
+        <v>1.006057781292041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031009655082153</v>
+        <v>0.992695482883336</v>
       </c>
       <c r="D4">
-        <v>1.034216236757715</v>
+        <v>1.011066219345636</v>
       </c>
       <c r="E4">
-        <v>1.034559022327542</v>
+        <v>1.00012552388302</v>
       </c>
       <c r="F4">
-        <v>1.040358703648867</v>
+        <v>1.002415206661273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032428923691462</v>
+        <v>1.0383475126954</v>
       </c>
       <c r="J4">
-        <v>1.03556454850967</v>
+        <v>1.012287902743467</v>
       </c>
       <c r="K4">
-        <v>1.036704720795414</v>
+        <v>1.021032894662055</v>
       </c>
       <c r="L4">
-        <v>1.037046636580516</v>
+        <v>1.010222434178149</v>
       </c>
       <c r="M4">
-        <v>1.042831695376559</v>
+        <v>1.012484569406975</v>
       </c>
       <c r="N4">
-        <v>1.01571911194643</v>
+        <v>1.007246309988461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03140033058385</v>
+        <v>0.9945932891081942</v>
       </c>
       <c r="D5">
-        <v>1.034510163947395</v>
+        <v>1.012488433626033</v>
       </c>
       <c r="E5">
-        <v>1.03493598330738</v>
+        <v>1.001885956005041</v>
       </c>
       <c r="F5">
-        <v>1.040781501908025</v>
+        <v>1.004386078855482</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03251505021882</v>
+        <v>1.038877972464862</v>
       </c>
       <c r="J5">
-        <v>1.035856553516473</v>
+        <v>1.013677167824964</v>
       </c>
       <c r="K5">
-        <v>1.036946042691687</v>
+        <v>1.022217554715471</v>
       </c>
       <c r="L5">
-        <v>1.037370805920386</v>
+        <v>1.011737642119617</v>
       </c>
       <c r="M5">
-        <v>1.043201920249526</v>
+        <v>1.01420857521005</v>
       </c>
       <c r="N5">
-        <v>1.015819453550102</v>
+        <v>1.00773671030886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031465906350229</v>
+        <v>0.9949100699354653</v>
       </c>
       <c r="D6">
-        <v>1.034559494945747</v>
+        <v>1.012725850377058</v>
       </c>
       <c r="E6">
-        <v>1.034999261770043</v>
+        <v>1.002179888770458</v>
       </c>
       <c r="F6">
-        <v>1.040852473888543</v>
+        <v>1.004715113822324</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032529482817859</v>
+        <v>1.03896632668626</v>
       </c>
       <c r="J6">
-        <v>1.035905556688922</v>
+        <v>1.013908996596484</v>
       </c>
       <c r="K6">
-        <v>1.036986532810878</v>
+        <v>1.022415191674997</v>
       </c>
       <c r="L6">
-        <v>1.037425213129551</v>
+        <v>1.011990537960194</v>
       </c>
       <c r="M6">
-        <v>1.043264058098595</v>
+        <v>1.014496313571989</v>
       </c>
       <c r="N6">
-        <v>1.015836287564445</v>
+        <v>1.007818521263845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031014876677347</v>
+        <v>0.9927209678693828</v>
       </c>
       <c r="D7">
-        <v>1.034220165615423</v>
+        <v>1.01108531625071</v>
       </c>
       <c r="E7">
-        <v>1.034564060304422</v>
+        <v>1.000149158532174</v>
       </c>
       <c r="F7">
-        <v>1.040364354292045</v>
+        <v>1.002441668912345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032430076424224</v>
+        <v>1.038354648794733</v>
       </c>
       <c r="J7">
-        <v>1.035568452024223</v>
+        <v>1.012306563151355</v>
       </c>
       <c r="K7">
-        <v>1.03670794728917</v>
+        <v>1.021048810127622</v>
       </c>
       <c r="L7">
-        <v>1.037050969641974</v>
+        <v>1.010242782815027</v>
       </c>
       <c r="M7">
-        <v>1.042836643988559</v>
+        <v>1.0125077226075</v>
       </c>
       <c r="N7">
-        <v>1.015720453640545</v>
+        <v>1.007252898500755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02912664827153</v>
+        <v>0.9832871828144703</v>
       </c>
       <c r="D8">
-        <v>1.032798802069823</v>
+        <v>1.004019583469479</v>
       </c>
       <c r="E8">
-        <v>1.032742783155061</v>
+        <v>0.9914105875390595</v>
       </c>
       <c r="F8">
-        <v>1.038321476571445</v>
+        <v>0.9926531126810204</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032010447741993</v>
+        <v>1.035690968159626</v>
       </c>
       <c r="J8">
-        <v>1.03415564618365</v>
+        <v>1.005391551503718</v>
       </c>
       <c r="K8">
-        <v>1.035539295178763</v>
+        <v>1.015145380848987</v>
       </c>
       <c r="L8">
-        <v>1.035483433867026</v>
+        <v>1.002708178816634</v>
       </c>
       <c r="M8">
-        <v>1.041046522761324</v>
+        <v>1.003933530579662</v>
       </c>
       <c r="N8">
-        <v>1.015234280618789</v>
+        <v>1.004808826983694</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025787559417351</v>
+        <v>0.9654511237435691</v>
       </c>
       <c r="D9">
-        <v>1.03028248325455</v>
+        <v>0.9906857336694744</v>
       </c>
       <c r="E9">
-        <v>1.029524722386425</v>
+        <v>0.9749440961306638</v>
       </c>
       <c r="F9">
-        <v>1.034711264242695</v>
+        <v>0.9741812122543521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031255331879469</v>
+        <v>1.030551956187544</v>
       </c>
       <c r="J9">
-        <v>1.031651561515681</v>
+        <v>0.9922857859351689</v>
       </c>
       <c r="K9">
-        <v>1.033463825811856</v>
+        <v>1.00393175787329</v>
       </c>
       <c r="L9">
-        <v>1.032708569056878</v>
+        <v>0.9884572042620038</v>
       </c>
       <c r="M9">
-        <v>1.037878051781254</v>
+        <v>0.9877075478192332</v>
       </c>
       <c r="N9">
-        <v>1.014369907225286</v>
+        <v>1.000165889382361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023553113072921</v>
+        <v>0.9525873295804345</v>
       </c>
       <c r="D10">
-        <v>1.028596788016358</v>
+        <v>0.9810963283773633</v>
       </c>
       <c r="E10">
-        <v>1.027373074896923</v>
+        <v>0.96311204749447</v>
       </c>
       <c r="F10">
-        <v>1.032296959189953</v>
+        <v>0.9608838556529963</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03074126449673</v>
+        <v>1.026780336239463</v>
       </c>
       <c r="J10">
-        <v>1.029972060581969</v>
+        <v>0.9828170929730029</v>
       </c>
       <c r="K10">
-        <v>1.032069047612976</v>
+        <v>0.9958154937410399</v>
       </c>
       <c r="L10">
-        <v>1.030849782298703</v>
+        <v>0.9781808725629867</v>
       </c>
       <c r="M10">
-        <v>1.035755840675975</v>
+        <v>0.9759972014720638</v>
       </c>
       <c r="N10">
-        <v>1.013788391730817</v>
+        <v>0.9968059435592214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022583480669071</v>
+        <v>0.9467444609939389</v>
       </c>
       <c r="D11">
-        <v>1.027864865857995</v>
+        <v>0.9767498375289959</v>
       </c>
       <c r="E11">
-        <v>1.026439810279418</v>
+        <v>0.95774991440359</v>
       </c>
       <c r="F11">
-        <v>1.031249647534746</v>
+        <v>0.9548503037569926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030516113555476</v>
+        <v>1.025052981749647</v>
       </c>
       <c r="J11">
-        <v>1.029242344650286</v>
+        <v>0.9785137441571976</v>
       </c>
       <c r="K11">
-        <v>1.031462392046729</v>
+        <v>0.9921239537708602</v>
       </c>
       <c r="L11">
-        <v>1.030042720679324</v>
+        <v>0.9735151515053578</v>
       </c>
       <c r="M11">
-        <v>1.03483445123585</v>
+        <v>0.9706770444489636</v>
       </c>
       <c r="N11">
-        <v>1.013535315835277</v>
+        <v>0.9952780604199668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022222991191345</v>
+        <v>0.944528997266351</v>
       </c>
       <c r="D12">
-        <v>1.027592690487887</v>
+        <v>0.9751033853439988</v>
       </c>
       <c r="E12">
-        <v>1.026092908015191</v>
+        <v>0.9557187131390338</v>
       </c>
       <c r="F12">
-        <v>1.030860333861036</v>
+        <v>0.9525635040245926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0304320960611</v>
+        <v>1.024395993714548</v>
       </c>
       <c r="J12">
-        <v>1.028970916355662</v>
+        <v>0.9768817710583619</v>
       </c>
       <c r="K12">
-        <v>1.031236641063654</v>
+        <v>0.9907236309568312</v>
       </c>
       <c r="L12">
-        <v>1.029742605269121</v>
+        <v>0.9717464585734973</v>
       </c>
       <c r="M12">
-        <v>1.034491828082976</v>
+        <v>0.9686596624660916</v>
       </c>
       <c r="N12">
-        <v>1.013441118374499</v>
+        <v>0.9946985517258971</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022300332252041</v>
+        <v>0.9450063391694717</v>
       </c>
       <c r="D13">
-        <v>1.027651087007677</v>
+        <v>0.975458050843568</v>
       </c>
       <c r="E13">
-        <v>1.026167330996788</v>
+        <v>0.956156261875827</v>
       </c>
       <c r="F13">
-        <v>1.030943856495388</v>
+        <v>0.9530561718599257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030450135622577</v>
+        <v>1.024537636875167</v>
       </c>
       <c r="J13">
-        <v>1.029029155916811</v>
+        <v>0.9772334038227617</v>
       </c>
       <c r="K13">
-        <v>1.031285084150205</v>
+        <v>0.9910253668217033</v>
       </c>
       <c r="L13">
-        <v>1.029806996397885</v>
+        <v>0.9721275178913994</v>
       </c>
       <c r="M13">
-        <v>1.034565339163727</v>
+        <v>0.9690943300364466</v>
       </c>
       <c r="N13">
-        <v>1.013461332853983</v>
+        <v>0.9948234185375098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022553689174958</v>
+        <v>0.9465622776902385</v>
       </c>
       <c r="D14">
-        <v>1.02784237405044</v>
+        <v>0.9766144110364869</v>
       </c>
       <c r="E14">
-        <v>1.026411140298408</v>
+        <v>0.9575828423545617</v>
       </c>
       <c r="F14">
-        <v>1.031217472829939</v>
+        <v>0.954662234561917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030509176539464</v>
+        <v>1.024998996131713</v>
       </c>
       <c r="J14">
-        <v>1.029219916078748</v>
+        <v>0.9783795471594178</v>
       </c>
       <c r="K14">
-        <v>1.031443739837694</v>
+        <v>0.9920088124485825</v>
       </c>
       <c r="L14">
-        <v>1.030017919957385</v>
+        <v>0.9733696977845466</v>
       </c>
       <c r="M14">
-        <v>1.034806137663224</v>
+        <v>0.9705111519008721</v>
       </c>
       <c r="N14">
-        <v>1.0135275334097</v>
+        <v>0.9952304089262023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02270974742433</v>
+        <v>0.9475148230647723</v>
       </c>
       <c r="D15">
-        <v>1.027960191474315</v>
+        <v>0.9773225559696124</v>
       </c>
       <c r="E15">
-        <v>1.026561326393502</v>
+        <v>0.9584564599561771</v>
       </c>
       <c r="F15">
-        <v>1.031386017434061</v>
+        <v>0.9556455937253369</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030545502323392</v>
+        <v>1.025281178631899</v>
       </c>
       <c r="J15">
-        <v>1.029337399250953</v>
+        <v>0.9790811865940443</v>
       </c>
       <c r="K15">
-        <v>1.031541438076041</v>
+        <v>0.992610806067598</v>
       </c>
       <c r="L15">
-        <v>1.030147832083448</v>
+        <v>0.9741302207736987</v>
       </c>
       <c r="M15">
-        <v>1.034954451201087</v>
+        <v>0.9713785167072172</v>
       </c>
       <c r="N15">
-        <v>1.013568296012073</v>
+        <v>0.995479548195067</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023617419323205</v>
+        <v>0.9529690109839009</v>
       </c>
       <c r="D16">
-        <v>1.028645320554275</v>
+        <v>0.9813804689625495</v>
       </c>
       <c r="E16">
-        <v>1.027434978494671</v>
+        <v>0.9634625883956054</v>
       </c>
       <c r="F16">
-        <v>1.032366424915788</v>
+        <v>0.9612781246370986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030756152963792</v>
+        <v>1.026892889934366</v>
       </c>
       <c r="J16">
-        <v>1.030020436594655</v>
+        <v>0.9830981638231433</v>
       </c>
       <c r="K16">
-        <v>1.032109251848557</v>
+        <v>0.996056550703322</v>
       </c>
       <c r="L16">
-        <v>1.030903297479295</v>
+        <v>0.9784857083194773</v>
       </c>
       <c r="M16">
-        <v>1.035816937721347</v>
+        <v>0.9763447174908445</v>
       </c>
       <c r="N16">
-        <v>1.013805160483092</v>
+        <v>0.9969057223809213</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024186208744636</v>
+        <v>0.9563144794895834</v>
       </c>
       <c r="D17">
-        <v>1.029074543148314</v>
+        <v>0.9838720383498485</v>
       </c>
       <c r="E17">
-        <v>1.027982566993172</v>
+        <v>0.9665364883913693</v>
       </c>
       <c r="F17">
-        <v>1.032980892614796</v>
+        <v>0.9647346306946707</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030887602483723</v>
+        <v>1.027877841184448</v>
       </c>
       <c r="J17">
-        <v>1.030448219032022</v>
+        <v>0.9855614973277014</v>
       </c>
       <c r="K17">
-        <v>1.032464697824432</v>
+        <v>0.9981688846183238</v>
       </c>
       <c r="L17">
-        <v>1.031376588414415</v>
+        <v>0.9811578472137636</v>
       </c>
       <c r="M17">
-        <v>1.036357288455098</v>
+        <v>0.9793905957146968</v>
       </c>
       <c r="N17">
-        <v>1.013953396234237</v>
+        <v>0.9977801033336912</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024517771750715</v>
+        <v>0.9582398289430681</v>
       </c>
       <c r="D18">
-        <v>1.029324708358431</v>
+        <v>0.9853067973703163</v>
       </c>
       <c r="E18">
-        <v>1.028301813502427</v>
+        <v>0.968306671028454</v>
       </c>
       <c r="F18">
-        <v>1.033339118413481</v>
+        <v>0.9667244668634994</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0309640282717</v>
+        <v>1.028443346376033</v>
       </c>
       <c r="J18">
-        <v>1.030697498362484</v>
+        <v>0.9869789194181221</v>
       </c>
       <c r="K18">
-        <v>1.032671762587065</v>
+        <v>0.9993840679095887</v>
       </c>
       <c r="L18">
-        <v>1.031652439734687</v>
+        <v>0.9826958566294357</v>
       </c>
       <c r="M18">
-        <v>1.036672229330616</v>
+        <v>0.9811434115149107</v>
       </c>
       <c r="N18">
-        <v>1.014039736683745</v>
+        <v>0.9982831467244785</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024630792134009</v>
+        <v>0.9588920299791164</v>
       </c>
       <c r="D19">
-        <v>1.029409975652961</v>
+        <v>0.9857929486250686</v>
       </c>
       <c r="E19">
-        <v>1.028410642663397</v>
+        <v>0.9689064963316076</v>
       </c>
       <c r="F19">
-        <v>1.033461233439878</v>
+        <v>0.9673986106030931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030990045751322</v>
+        <v>1.028634676716115</v>
       </c>
       <c r="J19">
-        <v>1.030782455843699</v>
+        <v>0.9874590169356704</v>
       </c>
       <c r="K19">
-        <v>1.032742322233983</v>
+        <v>0.9997956171780855</v>
       </c>
       <c r="L19">
-        <v>1.031746462282943</v>
+        <v>0.9832168729714097</v>
       </c>
       <c r="M19">
-        <v>1.03677957616965</v>
+        <v>0.9817371462579937</v>
       </c>
       <c r="N19">
-        <v>1.014069155754093</v>
+        <v>0.998453518231969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024125204006333</v>
+        <v>0.9559582606341702</v>
       </c>
       <c r="D20">
-        <v>1.029028511637005</v>
+        <v>0.9836066522801786</v>
       </c>
       <c r="E20">
-        <v>1.027923831769975</v>
+        <v>0.9662090677289508</v>
       </c>
       <c r="F20">
-        <v>1.032914985026232</v>
+        <v>0.9643665279224007</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030873524707192</v>
+        <v>1.027773104430715</v>
       </c>
       <c r="J20">
-        <v>1.030402346786041</v>
+        <v>0.9852992315907305</v>
       </c>
       <c r="K20">
-        <v>1.032426588855945</v>
+        <v>0.9979440167958014</v>
       </c>
       <c r="L20">
-        <v>1.031325830680588</v>
+        <v>0.9808733047787307</v>
       </c>
       <c r="M20">
-        <v>1.036299338468015</v>
+        <v>0.9790662883352529</v>
       </c>
       <c r="N20">
-        <v>1.013937504674358</v>
+        <v>0.9976870181916987</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0224790909152</v>
+        <v>0.9461053758737722</v>
       </c>
       <c r="D21">
-        <v>1.027786053301504</v>
+        <v>0.976274798751019</v>
       </c>
       <c r="E21">
-        <v>1.026339351395983</v>
+        <v>0.9571638708179923</v>
       </c>
       <c r="F21">
-        <v>1.031136907875231</v>
+        <v>0.9541905870057874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030491801146736</v>
+        <v>1.024863572286159</v>
       </c>
       <c r="J21">
-        <v>1.029163752489423</v>
+        <v>0.9780429877055062</v>
       </c>
       <c r="K21">
-        <v>1.031397031111046</v>
+        <v>0.9917200379880811</v>
       </c>
       <c r="L21">
-        <v>1.029955817580324</v>
+        <v>0.9730049183360346</v>
       </c>
       <c r="M21">
-        <v>1.034735239015018</v>
+        <v>0.9700951044035615</v>
       </c>
       <c r="N21">
-        <v>1.013508044363164</v>
+        <v>0.9951109001232465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021442230420126</v>
+        <v>0.9396466480542044</v>
       </c>
       <c r="D22">
-        <v>1.027003092009473</v>
+        <v>0.9714783082242571</v>
       </c>
       <c r="E22">
-        <v>1.025341697169245</v>
+        <v>0.951246286981096</v>
       </c>
       <c r="F22">
-        <v>1.030017245657194</v>
+        <v>0.9475257642176019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030249559568009</v>
+        <v>1.022944564727503</v>
       </c>
       <c r="J22">
-        <v>1.028382801246211</v>
+        <v>0.9732849830247682</v>
       </c>
       <c r="K22">
-        <v>1.03074732036393</v>
+        <v>0.9876367807245895</v>
       </c>
       <c r="L22">
-        <v>1.029092483862089</v>
+        <v>0.967849646807355</v>
       </c>
       <c r="M22">
-        <v>1.033749635688362</v>
+        <v>0.9642136981824068</v>
       </c>
       <c r="N22">
-        <v>1.013236903258188</v>
+        <v>0.9934212382525921</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021992071367079</v>
+        <v>0.9430971098881619</v>
       </c>
       <c r="D23">
-        <v>1.027418325082221</v>
+        <v>0.9740397509663463</v>
       </c>
       <c r="E23">
-        <v>1.025870710577204</v>
+        <v>0.9544064975442731</v>
       </c>
       <c r="F23">
-        <v>1.0306109655918</v>
+        <v>0.9510857871939695</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030378189225451</v>
+        <v>1.023970819103221</v>
       </c>
       <c r="J23">
-        <v>1.028797008815335</v>
+        <v>0.9758269482257952</v>
       </c>
       <c r="K23">
-        <v>1.03109197237124</v>
+        <v>0.9898184390968381</v>
       </c>
       <c r="L23">
-        <v>1.029550340810925</v>
+        <v>0.9706034655977873</v>
       </c>
       <c r="M23">
-        <v>1.03427233338431</v>
+        <v>0.9673557738334454</v>
       </c>
       <c r="N23">
-        <v>1.013380747388891</v>
+        <v>0.9943239692210371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024152770046772</v>
+        <v>0.9561193006576729</v>
       </c>
       <c r="D24">
-        <v>1.029049311892383</v>
+        <v>0.9837266258822142</v>
       </c>
       <c r="E24">
-        <v>1.027950372160877</v>
+        <v>0.9663570851368593</v>
       </c>
       <c r="F24">
-        <v>1.032944766393634</v>
+        <v>0.9645329386357795</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030879886610178</v>
+        <v>1.027820458184623</v>
       </c>
       <c r="J24">
-        <v>1.030423075217923</v>
+        <v>0.9854177979162677</v>
       </c>
       <c r="K24">
-        <v>1.032443809464664</v>
+        <v>0.9980456769425737</v>
       </c>
       <c r="L24">
-        <v>1.031348766568707</v>
+        <v>0.9810019406940551</v>
       </c>
       <c r="M24">
-        <v>1.036325524303914</v>
+        <v>0.9792129021314703</v>
       </c>
       <c r="N24">
-        <v>1.013944685766245</v>
+        <v>0.9977291008192499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026652238225113</v>
+        <v>0.9702209481625312</v>
       </c>
       <c r="D25">
-        <v>1.030934427200836</v>
+        <v>0.994247697886227</v>
       </c>
       <c r="E25">
-        <v>1.030357744573867</v>
+        <v>0.9793406862599073</v>
       </c>
       <c r="F25">
-        <v>1.035645874864948</v>
+        <v>0.9791169217619836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031452417133857</v>
+        <v>1.031937705737558</v>
       </c>
       <c r="J25">
-        <v>1.032300684853697</v>
+        <v>0.9957938052239301</v>
       </c>
       <c r="K25">
-        <v>1.034002326520043</v>
+        <v>1.006935972127948</v>
       </c>
       <c r="L25">
-        <v>1.033427476121366</v>
+        <v>0.9922684075157512</v>
       </c>
       <c r="M25">
-        <v>1.038698888598835</v>
+        <v>0.9920483086896708</v>
       </c>
       <c r="N25">
-        <v>1.014594288848339</v>
+        <v>1.001409735108</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9807814235594082</v>
+        <v>1.011241808077368</v>
       </c>
       <c r="D2">
-        <v>1.002144137583932</v>
+        <v>1.027224383132884</v>
       </c>
       <c r="E2">
-        <v>0.98909291471415</v>
+        <v>1.029202054218981</v>
       </c>
       <c r="F2">
-        <v>0.9900553773429767</v>
+        <v>1.036577338898885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034976526984507</v>
+        <v>1.04698457568153</v>
       </c>
       <c r="J2">
-        <v>1.003552557543385</v>
+        <v>1.033091399995887</v>
       </c>
       <c r="K2">
-        <v>1.01357368177043</v>
+        <v>1.038317033571351</v>
       </c>
       <c r="L2">
-        <v>1.000706323458102</v>
+        <v>1.040269013696424</v>
       </c>
       <c r="M2">
-        <v>1.001655017479902</v>
+        <v>1.047549569600427</v>
       </c>
       <c r="N2">
-        <v>1.004158076575703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01404585631362</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046204663135755</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038163732588685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881031604713263</v>
+        <v>1.016098628284804</v>
       </c>
       <c r="D3">
-        <v>1.007625763047558</v>
+        <v>1.030417910002885</v>
       </c>
       <c r="E3">
-        <v>0.9958690930621527</v>
+        <v>1.033354416607847</v>
       </c>
       <c r="F3">
-        <v>0.9976484813322823</v>
+        <v>1.040259282737081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037056169273674</v>
+        <v>1.047989336960832</v>
       </c>
       <c r="J3">
-        <v>1.008923484493075</v>
+        <v>1.036159845955777</v>
       </c>
       <c r="K3">
-        <v>1.018161991856361</v>
+        <v>1.04067583671714</v>
       </c>
       <c r="L3">
-        <v>1.006555103916299</v>
+        <v>1.043577593152054</v>
       </c>
       <c r="M3">
-        <v>1.008311538965108</v>
+        <v>1.050401703794616</v>
       </c>
       <c r="N3">
-        <v>1.006057781292041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015160467604447</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048461914987098</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03982895031715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.992695482883336</v>
+        <v>1.019175896001789</v>
       </c>
       <c r="D4">
-        <v>1.011066219345636</v>
+        <v>1.032444195757456</v>
       </c>
       <c r="E4">
-        <v>1.00012552388302</v>
+        <v>1.03599146401756</v>
       </c>
       <c r="F4">
-        <v>1.002415206661273</v>
+        <v>1.042599513048446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0383475126954</v>
+        <v>1.048615417078249</v>
       </c>
       <c r="J4">
-        <v>1.012287902743467</v>
+        <v>1.038101482431081</v>
       </c>
       <c r="K4">
-        <v>1.021032894662055</v>
+        <v>1.042166203293713</v>
       </c>
       <c r="L4">
-        <v>1.010222434178149</v>
+        <v>1.045674074880526</v>
       </c>
       <c r="M4">
-        <v>1.012484569406975</v>
+        <v>1.052209611089294</v>
       </c>
       <c r="N4">
-        <v>1.007246309988461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015864789520803</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049892735438403</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040883663323509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945932891081942</v>
+        <v>1.020459806241334</v>
       </c>
       <c r="D5">
-        <v>1.012488433626033</v>
+        <v>1.03329270382639</v>
       </c>
       <c r="E5">
-        <v>1.001885956005041</v>
+        <v>1.0370933855641</v>
       </c>
       <c r="F5">
-        <v>1.004386078855482</v>
+        <v>1.043577351130959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038877972464862</v>
+        <v>1.048876027032468</v>
       </c>
       <c r="J5">
-        <v>1.013677167824964</v>
+        <v>1.038912768676453</v>
       </c>
       <c r="K5">
-        <v>1.022217554715471</v>
+        <v>1.042790301376667</v>
       </c>
       <c r="L5">
-        <v>1.011737642119617</v>
+        <v>1.046549916990863</v>
       </c>
       <c r="M5">
-        <v>1.01420857521005</v>
+        <v>1.052964668684906</v>
       </c>
       <c r="N5">
-        <v>1.00773671030886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016159740313521</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050490305005271</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041332110867699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949100699354653</v>
+        <v>1.020680977674228</v>
       </c>
       <c r="D6">
-        <v>1.012725850377058</v>
+        <v>1.033441897774031</v>
       </c>
       <c r="E6">
-        <v>1.002179888770458</v>
+        <v>1.037283598532109</v>
       </c>
       <c r="F6">
-        <v>1.004715113822324</v>
+        <v>1.04374555903879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03896632668626</v>
+        <v>1.048923170496765</v>
       </c>
       <c r="J6">
-        <v>1.013908996596484</v>
+        <v>1.039054715403677</v>
       </c>
       <c r="K6">
-        <v>1.022415191674997</v>
+        <v>1.042901792350991</v>
       </c>
       <c r="L6">
-        <v>1.011990537960194</v>
+        <v>1.046702177689409</v>
       </c>
       <c r="M6">
-        <v>1.014496313571989</v>
+        <v>1.053095482436495</v>
       </c>
       <c r="N6">
-        <v>1.007818521263845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01621243426644</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050593833902464</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041419672273464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9927209678693828</v>
+        <v>1.019210595529604</v>
       </c>
       <c r="D7">
-        <v>1.01108531625071</v>
+        <v>1.032475160283117</v>
       </c>
       <c r="E7">
-        <v>1.000149158532174</v>
+        <v>1.036022071881303</v>
       </c>
       <c r="F7">
-        <v>1.002441668912345</v>
+        <v>1.042625025571221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038354648794733</v>
+        <v>1.04862896044653</v>
       </c>
       <c r="J7">
-        <v>1.012306563151355</v>
+        <v>1.038129422901423</v>
       </c>
       <c r="K7">
-        <v>1.021048810127622</v>
+        <v>1.042193947119058</v>
       </c>
       <c r="L7">
-        <v>1.010242782815027</v>
+        <v>1.045701482008539</v>
       </c>
       <c r="M7">
-        <v>1.0125077226075</v>
+        <v>1.052232007695135</v>
       </c>
       <c r="N7">
-        <v>1.007252898500755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015877965263708</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049910460622982</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040923361249844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9832871828144703</v>
+        <v>1.012919390010407</v>
       </c>
       <c r="D8">
-        <v>1.004019583469479</v>
+        <v>1.028336893149681</v>
       </c>
       <c r="E8">
-        <v>0.9914105875390595</v>
+        <v>1.030636111663723</v>
       </c>
       <c r="F8">
-        <v>0.9926531126810204</v>
+        <v>1.037846461538038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035690968159626</v>
+        <v>1.047341972195371</v>
       </c>
       <c r="J8">
-        <v>1.005391551503718</v>
+        <v>1.034159352397985</v>
       </c>
       <c r="K8">
-        <v>1.015145380848987</v>
+        <v>1.039146230637779</v>
       </c>
       <c r="L8">
-        <v>1.002708178816634</v>
+        <v>1.041416491653346</v>
       </c>
       <c r="M8">
-        <v>1.003933530579662</v>
+        <v>1.048537066666914</v>
       </c>
       <c r="N8">
-        <v>1.004808826983694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014437991920466</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046986194317839</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038772953078444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9654511237435691</v>
+        <v>1.001275874800203</v>
       </c>
       <c r="D9">
-        <v>0.9906857336694744</v>
+        <v>1.020690938864087</v>
       </c>
       <c r="E9">
-        <v>0.9749440961306638</v>
+        <v>1.020717714433229</v>
       </c>
       <c r="F9">
-        <v>0.9741812122543521</v>
+        <v>1.029065413472436</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030551956187544</v>
+        <v>1.044867565953878</v>
       </c>
       <c r="J9">
-        <v>0.9922857859351689</v>
+        <v>1.026783658947803</v>
       </c>
       <c r="K9">
-        <v>1.00393175787329</v>
+        <v>1.03345700835135</v>
       </c>
       <c r="L9">
-        <v>0.9884572042620038</v>
+        <v>1.033483371713987</v>
       </c>
       <c r="M9">
-        <v>0.9877075478192332</v>
+        <v>1.041703890906849</v>
       </c>
       <c r="N9">
-        <v>1.000165889382361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011750244510995</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041578222004756</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034747093316121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9525873295804345</v>
+        <v>0.9932531294798994</v>
       </c>
       <c r="D10">
-        <v>0.9810963283773633</v>
+        <v>1.015462044322289</v>
       </c>
       <c r="E10">
-        <v>0.96311204749447</v>
+        <v>1.013961462767154</v>
       </c>
       <c r="F10">
-        <v>0.9608838556529963</v>
+        <v>1.023142351474494</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026780336239463</v>
+        <v>1.043142399058565</v>
       </c>
       <c r="J10">
-        <v>0.9828170929730029</v>
+        <v>1.021737014018367</v>
       </c>
       <c r="K10">
-        <v>0.9958154937410399</v>
+        <v>1.029557628081823</v>
       </c>
       <c r="L10">
-        <v>0.9781808725629867</v>
+        <v>1.028083132604939</v>
       </c>
       <c r="M10">
-        <v>0.9759972014720638</v>
+        <v>1.037105967970264</v>
       </c>
       <c r="N10">
-        <v>0.9968059435592214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009923840145641</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037990739357958</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032006831753033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9467444609939389</v>
+        <v>0.9907800049254798</v>
       </c>
       <c r="D11">
-        <v>0.9767498375289959</v>
+        <v>1.013990939070191</v>
       </c>
       <c r="E11">
-        <v>0.95774991440359</v>
+        <v>1.012212012338416</v>
       </c>
       <c r="F11">
-        <v>0.9548503037569926</v>
+        <v>1.021989212337857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025052981749647</v>
+        <v>1.04285017807437</v>
       </c>
       <c r="J11">
-        <v>0.9785137441571976</v>
+        <v>1.020541441135872</v>
       </c>
       <c r="K11">
-        <v>0.9921239537708602</v>
+        <v>1.028653743531475</v>
       </c>
       <c r="L11">
-        <v>0.9735151515053578</v>
+        <v>1.026907245032497</v>
       </c>
       <c r="M11">
-        <v>0.9706770444489636</v>
+        <v>1.03650802615451</v>
       </c>
       <c r="N11">
-        <v>0.9952780604199668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009629713565001</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037954008083378</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031400738526863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.944528997266351</v>
+        <v>0.9902731795900276</v>
       </c>
       <c r="D12">
-        <v>0.9751033853439988</v>
+        <v>1.013763378698873</v>
       </c>
       <c r="E12">
-        <v>0.9557187131390338</v>
+        <v>1.012027515279921</v>
       </c>
       <c r="F12">
-        <v>0.9525635040245926</v>
+        <v>1.022107148202311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024395993714548</v>
+        <v>1.042925672054144</v>
       </c>
       <c r="J12">
-        <v>0.9768817710583619</v>
+        <v>1.020494977927542</v>
       </c>
       <c r="K12">
-        <v>0.9907236309568312</v>
+        <v>1.028631560581081</v>
       </c>
       <c r="L12">
-        <v>0.9717464585734973</v>
+        <v>1.026927858659293</v>
       </c>
       <c r="M12">
-        <v>0.9686596624660916</v>
+        <v>1.036822721965723</v>
       </c>
       <c r="N12">
-        <v>0.9946985517258971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009724629178164</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038529402416258</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031385054323389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9450063391694717</v>
+        <v>0.9912687341648596</v>
       </c>
       <c r="D13">
-        <v>0.975458050843568</v>
+        <v>1.014500449293345</v>
       </c>
       <c r="E13">
-        <v>0.956156261875827</v>
+        <v>1.013057277502112</v>
       </c>
       <c r="F13">
-        <v>0.9530561718599257</v>
+        <v>1.023238151038891</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024537636875167</v>
+        <v>1.043305606678607</v>
       </c>
       <c r="J13">
-        <v>0.9772334038227617</v>
+        <v>1.021353277942112</v>
       </c>
       <c r="K13">
-        <v>0.9910253668217033</v>
+        <v>1.02931189886296</v>
       </c>
       <c r="L13">
-        <v>0.9721275178913994</v>
+        <v>1.027895315648004</v>
       </c>
       <c r="M13">
-        <v>0.9690943300364466</v>
+        <v>1.037890701095243</v>
       </c>
       <c r="N13">
-        <v>0.9948234185375098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010137244855598</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039650451803563</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031863576236613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9465622776902385</v>
+        <v>0.9926421081406621</v>
       </c>
       <c r="D14">
-        <v>0.9766144110364869</v>
+        <v>1.015452009906023</v>
       </c>
       <c r="E14">
-        <v>0.9575828423545617</v>
+        <v>1.014323199827053</v>
       </c>
       <c r="F14">
-        <v>0.954662234561917</v>
+        <v>1.024483895283557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024998996131713</v>
+        <v>1.043708176403481</v>
       </c>
       <c r="J14">
-        <v>0.9783795471594178</v>
+        <v>1.022360316865118</v>
       </c>
       <c r="K14">
-        <v>0.9920088124485825</v>
+        <v>1.03010488561933</v>
       </c>
       <c r="L14">
-        <v>0.9733696977845466</v>
+        <v>1.028996585378949</v>
       </c>
       <c r="M14">
-        <v>0.9705111519008721</v>
+        <v>1.038974778308623</v>
       </c>
       <c r="N14">
-        <v>0.9952304089262023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010568713675359</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040680621410365</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032425678858917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9475148230647723</v>
+        <v>0.9933129576132863</v>
       </c>
       <c r="D15">
-        <v>0.9773225559696124</v>
+        <v>1.015903003650169</v>
       </c>
       <c r="E15">
-        <v>0.9584564599561771</v>
+        <v>1.014909766995152</v>
       </c>
       <c r="F15">
-        <v>0.9556455937253369</v>
+        <v>1.025027005996243</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025281178631899</v>
+        <v>1.043877958709257</v>
       </c>
       <c r="J15">
-        <v>0.9790811865940443</v>
+        <v>1.022813805394611</v>
       </c>
       <c r="K15">
-        <v>0.992610806067598</v>
+        <v>1.030460820107114</v>
       </c>
       <c r="L15">
-        <v>0.9741302207736987</v>
+        <v>1.029485482850123</v>
       </c>
       <c r="M15">
-        <v>0.9713785167072172</v>
+        <v>1.039422499784218</v>
       </c>
       <c r="N15">
-        <v>0.995479548195067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010747944314393</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041072010461392</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032683230230018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9529690109839009</v>
+        <v>0.9965176475836369</v>
       </c>
       <c r="D16">
-        <v>0.9813804689625495</v>
+        <v>1.017972861412157</v>
       </c>
       <c r="E16">
-        <v>0.9634625883956054</v>
+        <v>1.017576688715749</v>
       </c>
       <c r="F16">
-        <v>0.9612781246370986</v>
+        <v>1.027346185117555</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026892889934366</v>
+        <v>1.044548478272779</v>
       </c>
       <c r="J16">
-        <v>0.9830981638231433</v>
+        <v>1.024792884090634</v>
       </c>
       <c r="K16">
-        <v>0.996056550703322</v>
+        <v>1.031989271822636</v>
       </c>
       <c r="L16">
-        <v>0.9784857083194773</v>
+        <v>1.031599912682492</v>
       </c>
       <c r="M16">
-        <v>0.9763447174908445</v>
+        <v>1.04120336537483</v>
       </c>
       <c r="N16">
-        <v>0.9969057223809213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011443508331421</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042440932118389</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033767078386532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9563144794895834</v>
+        <v>0.9982588567152402</v>
       </c>
       <c r="D17">
-        <v>0.9838720383498485</v>
+        <v>1.01906500941237</v>
       </c>
       <c r="E17">
-        <v>0.9665364883913693</v>
+        <v>1.018961218468871</v>
       </c>
       <c r="F17">
-        <v>0.9647346306946707</v>
+        <v>1.02846925600381</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027877841184448</v>
+        <v>1.044850177075871</v>
       </c>
       <c r="J17">
-        <v>0.9855614973277014</v>
+        <v>1.025784109314166</v>
       </c>
       <c r="K17">
-        <v>0.9981688846183238</v>
+        <v>1.032746818317039</v>
       </c>
       <c r="L17">
-        <v>0.9811578472137636</v>
+        <v>1.032644760750738</v>
       </c>
       <c r="M17">
-        <v>0.9793905957146968</v>
+        <v>1.041995873632663</v>
       </c>
       <c r="N17">
-        <v>0.9977801033336912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01175128875964</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042938506933531</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034305286898313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582398289430681</v>
+        <v>0.9988769564278582</v>
       </c>
       <c r="D18">
-        <v>0.9853067973703163</v>
+        <v>1.019390126989336</v>
       </c>
       <c r="E18">
-        <v>0.968306671028454</v>
+        <v>1.019326747886717</v>
       </c>
       <c r="F18">
-        <v>0.9667244668634994</v>
+        <v>1.028605655015042</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028443346376033</v>
+        <v>1.044847123207951</v>
       </c>
       <c r="J18">
-        <v>0.9869789194181221</v>
+        <v>1.025982458236961</v>
       </c>
       <c r="K18">
-        <v>0.9993840679095887</v>
+        <v>1.032882349826278</v>
       </c>
       <c r="L18">
-        <v>0.9826958566294357</v>
+        <v>1.032820011940042</v>
       </c>
       <c r="M18">
-        <v>0.9811434115149107</v>
+        <v>1.041948233433532</v>
       </c>
       <c r="N18">
-        <v>0.9982831467244785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011737353867225</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042663550858074</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034389446196374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9588920299791164</v>
+        <v>0.9985171604429632</v>
       </c>
       <c r="D19">
-        <v>0.9857929486250686</v>
+        <v>1.019063577041507</v>
       </c>
       <c r="E19">
-        <v>0.9689064963316076</v>
+        <v>1.018798487925064</v>
       </c>
       <c r="F19">
-        <v>0.9673986106030931</v>
+        <v>1.027867876116423</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028634676716115</v>
+        <v>1.044593307118989</v>
       </c>
       <c r="J19">
-        <v>0.9874590169356704</v>
+        <v>1.025501349347269</v>
       </c>
       <c r="K19">
-        <v>0.9997956171780855</v>
+        <v>1.032498342487604</v>
       </c>
       <c r="L19">
-        <v>0.9832168729714097</v>
+        <v>1.032237589778641</v>
       </c>
       <c r="M19">
-        <v>0.9817371462579937</v>
+        <v>1.041160247597682</v>
       </c>
       <c r="N19">
-        <v>0.998453518231969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011458930770063</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04171549933042</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034124353077892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9559582606341702</v>
+        <v>0.9953898708760073</v>
       </c>
       <c r="D20">
-        <v>0.9836066522801786</v>
+        <v>1.01687442966695</v>
       </c>
       <c r="E20">
-        <v>0.9662090677289508</v>
+        <v>1.015762739295399</v>
       </c>
       <c r="F20">
-        <v>0.9643665279224007</v>
+        <v>1.024719137839726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027773104430715</v>
+        <v>1.043623911825245</v>
       </c>
       <c r="J20">
-        <v>0.9852992315907305</v>
+        <v>1.023099669315202</v>
       </c>
       <c r="K20">
-        <v>0.9979440167958014</v>
+        <v>1.03062691322091</v>
       </c>
       <c r="L20">
-        <v>0.9808733047787307</v>
+        <v>1.029533969216426</v>
       </c>
       <c r="M20">
-        <v>0.9790662883352529</v>
+        <v>1.038340824414577</v>
       </c>
       <c r="N20">
-        <v>0.9976870181916987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010427332023422</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038957443642977</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032805119056621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9461053758737722</v>
+        <v>0.9891302213891988</v>
       </c>
       <c r="D21">
-        <v>0.976274798751019</v>
+        <v>1.012775902863647</v>
       </c>
       <c r="E21">
-        <v>0.9571638708179923</v>
+        <v>1.010442392457077</v>
       </c>
       <c r="F21">
-        <v>0.9541905870057874</v>
+        <v>1.019985953771359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024863572286159</v>
+        <v>1.042211872008762</v>
       </c>
       <c r="J21">
-        <v>0.9780429877055062</v>
+        <v>1.019089539848163</v>
       </c>
       <c r="K21">
-        <v>0.9917200379880811</v>
+        <v>1.0275192080346</v>
       </c>
       <c r="L21">
-        <v>0.9730049183360346</v>
+        <v>1.025228594833542</v>
       </c>
       <c r="M21">
-        <v>0.9700951044035615</v>
+        <v>1.034598327323645</v>
       </c>
       <c r="N21">
-        <v>0.9951109001232465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008948992744912</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035954631237148</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030611097072744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9396466480542044</v>
+        <v>0.9851416900906564</v>
       </c>
       <c r="D22">
-        <v>0.9714783082242571</v>
+        <v>1.010169694033345</v>
       </c>
       <c r="E22">
-        <v>0.951246286981096</v>
+        <v>1.007080629165064</v>
       </c>
       <c r="F22">
-        <v>0.9475257642176019</v>
+        <v>1.017023501802093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022944564727503</v>
+        <v>1.041309615878972</v>
       </c>
       <c r="J22">
-        <v>0.9732849830247682</v>
+        <v>1.016548171180346</v>
       </c>
       <c r="K22">
-        <v>0.9876367807245895</v>
+        <v>1.02554234395814</v>
       </c>
       <c r="L22">
-        <v>0.967849646807355</v>
+        <v>1.022513110417385</v>
       </c>
       <c r="M22">
-        <v>0.9642136981824068</v>
+        <v>1.032265098610004</v>
       </c>
       <c r="N22">
-        <v>0.9934212382525921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008015063615781</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034108022996443</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029199776061192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9430971098881619</v>
+        <v>0.9872476041058629</v>
       </c>
       <c r="D23">
-        <v>0.9740397509663463</v>
+        <v>1.011537574661872</v>
       </c>
       <c r="E23">
-        <v>0.9544064975442731</v>
+        <v>1.008853683943021</v>
       </c>
       <c r="F23">
-        <v>0.9510857871939695</v>
+        <v>1.018587158694024</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023970819103221</v>
+        <v>1.041780775613239</v>
       </c>
       <c r="J23">
-        <v>0.9758269482257952</v>
+        <v>1.017884302092227</v>
       </c>
       <c r="K23">
-        <v>0.9898184390968381</v>
+        <v>1.026576283322429</v>
       </c>
       <c r="L23">
-        <v>0.9706034655977873</v>
+        <v>1.0239429678508</v>
       </c>
       <c r="M23">
-        <v>0.9673557738334454</v>
+        <v>1.033494679267556</v>
       </c>
       <c r="N23">
-        <v>0.9943239692210371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008502623005952</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035081161705484</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029921126345993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9561193006576729</v>
+        <v>0.9953616094002149</v>
       </c>
       <c r="D24">
-        <v>0.9837266258822142</v>
+        <v>1.016832575707258</v>
       </c>
       <c r="E24">
-        <v>0.9663570851368593</v>
+        <v>1.0157057677596</v>
       </c>
       <c r="F24">
-        <v>0.9645329386357795</v>
+        <v>1.024633775771057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027820458184623</v>
+        <v>1.043585585394885</v>
       </c>
       <c r="J24">
-        <v>0.9854177979162677</v>
+        <v>1.023039386957141</v>
       </c>
       <c r="K24">
-        <v>0.9980456769425737</v>
+        <v>1.030570402903731</v>
       </c>
       <c r="L24">
-        <v>0.9810019406940551</v>
+        <v>1.029462574246145</v>
       </c>
       <c r="M24">
-        <v>0.9792129021314703</v>
+        <v>1.038241677293945</v>
       </c>
       <c r="N24">
-        <v>0.9977291008192499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010388110327831</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038838110950506</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032737644927864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9702209481625312</v>
+        <v>1.004382146639903</v>
       </c>
       <c r="D25">
-        <v>0.994247697886227</v>
+        <v>1.022740070259893</v>
       </c>
       <c r="E25">
-        <v>0.9793406862599073</v>
+        <v>1.023358954775437</v>
       </c>
       <c r="F25">
-        <v>0.9791169217619836</v>
+        <v>1.031399170525124</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031937705737558</v>
+        <v>1.045547405621972</v>
       </c>
       <c r="J25">
-        <v>0.9957938052239301</v>
+        <v>1.028762928729866</v>
       </c>
       <c r="K25">
-        <v>1.006935972127948</v>
+        <v>1.034995341848373</v>
       </c>
       <c r="L25">
-        <v>0.9922684075157512</v>
+        <v>1.035605160705206</v>
       </c>
       <c r="M25">
-        <v>0.9920483086896708</v>
+        <v>1.043528852466679</v>
       </c>
       <c r="N25">
-        <v>1.001409735108</v>
+        <v>1.012477727771369</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043022553124068</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035863445827761</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011241808077368</v>
+        <v>1.010885257123306</v>
       </c>
       <c r="D2">
-        <v>1.027224383132884</v>
+        <v>1.026435759109629</v>
       </c>
       <c r="E2">
-        <v>1.029202054218981</v>
+        <v>1.028880977921681</v>
       </c>
       <c r="F2">
-        <v>1.036577338898885</v>
+        <v>1.036332773310517</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04698457568153</v>
+        <v>1.046731096444772</v>
       </c>
       <c r="J2">
-        <v>1.033091399995887</v>
+        <v>1.032745195982698</v>
       </c>
       <c r="K2">
-        <v>1.038317033571351</v>
+        <v>1.037538688759066</v>
       </c>
       <c r="L2">
-        <v>1.040269013696424</v>
+        <v>1.039952099938886</v>
       </c>
       <c r="M2">
-        <v>1.047549569600427</v>
+        <v>1.047308118232819</v>
       </c>
       <c r="N2">
-        <v>1.01404585631362</v>
+        <v>1.015279100028477</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046204663135755</v>
+        <v>1.04601357203912</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038163732588685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037622154045877</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021859808690262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016098628284804</v>
+        <v>1.015417538597275</v>
       </c>
       <c r="D3">
-        <v>1.030417910002885</v>
+        <v>1.029292009403718</v>
       </c>
       <c r="E3">
-        <v>1.033354416607847</v>
+        <v>1.032740955414961</v>
       </c>
       <c r="F3">
-        <v>1.040259282737081</v>
+        <v>1.039790534864397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047989336960832</v>
+        <v>1.047582682993867</v>
       </c>
       <c r="J3">
-        <v>1.036159845955777</v>
+        <v>1.035496551191974</v>
       </c>
       <c r="K3">
-        <v>1.04067583671714</v>
+        <v>1.03956332503564</v>
       </c>
       <c r="L3">
-        <v>1.043577593152054</v>
+        <v>1.042971371340946</v>
       </c>
       <c r="M3">
-        <v>1.050401703794616</v>
+        <v>1.04993839618771</v>
       </c>
       <c r="N3">
-        <v>1.015160467604447</v>
+        <v>1.016067568386655</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048461914987098</v>
+        <v>1.048095241981704</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03982895031715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039050805048479</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022317040959586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019175896001789</v>
+        <v>1.018292546709243</v>
       </c>
       <c r="D4">
-        <v>1.032444195757456</v>
+        <v>1.031106857879565</v>
       </c>
       <c r="E4">
-        <v>1.03599146401756</v>
+        <v>1.035195505902158</v>
       </c>
       <c r="F4">
-        <v>1.042599513048446</v>
+        <v>1.041990992102571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048615417078249</v>
+        <v>1.048112754762153</v>
       </c>
       <c r="J4">
-        <v>1.038101482431081</v>
+        <v>1.037239626009637</v>
       </c>
       <c r="K4">
-        <v>1.042166203293713</v>
+        <v>1.040843804762968</v>
       </c>
       <c r="L4">
-        <v>1.045674074880526</v>
+        <v>1.044886927945024</v>
       </c>
       <c r="M4">
-        <v>1.052209611089294</v>
+        <v>1.051607720497211</v>
       </c>
       <c r="N4">
-        <v>1.015864789520803</v>
+        <v>1.016566610374957</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049892735438403</v>
+        <v>1.049416385340826</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040883663323509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03995718961458</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022603594472391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020459806241334</v>
+        <v>1.01949261558779</v>
       </c>
       <c r="D5">
-        <v>1.03329270382639</v>
+        <v>1.031867545158485</v>
       </c>
       <c r="E5">
-        <v>1.0370933855641</v>
+        <v>1.036221719019416</v>
       </c>
       <c r="F5">
-        <v>1.043577351130959</v>
+        <v>1.042910878447703</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048876027032468</v>
+        <v>1.048333432980813</v>
       </c>
       <c r="J5">
-        <v>1.038912768676453</v>
+        <v>1.037968396995383</v>
       </c>
       <c r="K5">
-        <v>1.042790301376667</v>
+        <v>1.041380637156412</v>
       </c>
       <c r="L5">
-        <v>1.046549916990863</v>
+        <v>1.0456876361121</v>
       </c>
       <c r="M5">
-        <v>1.052964668684906</v>
+        <v>1.05230526177888</v>
       </c>
       <c r="N5">
-        <v>1.016159740313521</v>
+        <v>1.016775796038487</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050490305005271</v>
+        <v>1.049968435572354</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041332110867699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040344644180647</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022723757362593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020680977674228</v>
+        <v>1.019699119941317</v>
       </c>
       <c r="D6">
-        <v>1.033441897774031</v>
+        <v>1.032001486017006</v>
       </c>
       <c r="E6">
-        <v>1.037283598532109</v>
+        <v>1.036398684637228</v>
       </c>
       <c r="F6">
-        <v>1.04374555903879</v>
+        <v>1.04306894464607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048923170496765</v>
+        <v>1.048373566865617</v>
       </c>
       <c r="J6">
-        <v>1.039054715403677</v>
+        <v>1.038095901613397</v>
       </c>
       <c r="K6">
-        <v>1.042901792350991</v>
+        <v>1.04147696869111</v>
       </c>
       <c r="L6">
-        <v>1.046702177689409</v>
+        <v>1.045826747299945</v>
       </c>
       <c r="M6">
-        <v>1.053095482436495</v>
+        <v>1.052426008032406</v>
       </c>
       <c r="N6">
-        <v>1.01621243426644</v>
+        <v>1.01681319124688</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050593833902464</v>
+        <v>1.050063996896131</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041419672273464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040422356786785</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022746091802832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019210595529604</v>
+        <v>1.018336372851101</v>
       </c>
       <c r="D7">
-        <v>1.032475160283117</v>
+        <v>1.031144113863048</v>
       </c>
       <c r="E7">
-        <v>1.036022071881303</v>
+        <v>1.035234356208369</v>
       </c>
       <c r="F7">
-        <v>1.042625025571221</v>
+        <v>1.042022976166796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04862896044653</v>
+        <v>1.048129576880071</v>
       </c>
       <c r="J7">
-        <v>1.038129422901423</v>
+        <v>1.037276461083696</v>
       </c>
       <c r="K7">
-        <v>1.042193947119058</v>
+        <v>1.040877763599471</v>
       </c>
       <c r="L7">
-        <v>1.045701482008539</v>
+        <v>1.044922482650469</v>
       </c>
       <c r="M7">
-        <v>1.052232007695135</v>
+        <v>1.051636515507447</v>
       </c>
       <c r="N7">
-        <v>1.015877965263708</v>
+        <v>1.016606230181352</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049910460622982</v>
+        <v>1.04943917438304</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040923361249844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040003283681597</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022614449840037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012919390010407</v>
+        <v>1.012486772563208</v>
       </c>
       <c r="D8">
-        <v>1.028336893149681</v>
+        <v>1.027459280178756</v>
       </c>
       <c r="E8">
-        <v>1.030636111663723</v>
+        <v>1.030246633390722</v>
       </c>
       <c r="F8">
-        <v>1.037846461538038</v>
+        <v>1.037550012195332</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047341972195371</v>
+        <v>1.047049856397348</v>
       </c>
       <c r="J8">
-        <v>1.034159352397985</v>
+        <v>1.033738858136832</v>
       </c>
       <c r="K8">
-        <v>1.039146230637779</v>
+        <v>1.038279713415917</v>
       </c>
       <c r="L8">
-        <v>1.041416491653346</v>
+        <v>1.041031907321736</v>
       </c>
       <c r="M8">
-        <v>1.048537066666914</v>
+        <v>1.048244277746944</v>
       </c>
       <c r="N8">
-        <v>1.014437991920466</v>
+        <v>1.01564886569957</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046986194317839</v>
+        <v>1.046754473543</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038772953078444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038171293937865</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022033850232573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001275874800203</v>
+        <v>1.001650114041421</v>
       </c>
       <c r="D9">
-        <v>1.020690938864087</v>
+        <v>1.020641808553066</v>
       </c>
       <c r="E9">
-        <v>1.020717714433229</v>
+        <v>1.021053120161246</v>
       </c>
       <c r="F9">
-        <v>1.029065413472436</v>
+        <v>1.029326071633616</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044867565953878</v>
+        <v>1.044952444414464</v>
       </c>
       <c r="J9">
-        <v>1.026783658947803</v>
+        <v>1.027144736790038</v>
       </c>
       <c r="K9">
-        <v>1.03345700835135</v>
+        <v>1.033408634467047</v>
       </c>
       <c r="L9">
-        <v>1.033483371713987</v>
+        <v>1.0338136162511</v>
       </c>
       <c r="M9">
-        <v>1.041703890906849</v>
+        <v>1.041960620150295</v>
       </c>
       <c r="N9">
-        <v>1.011750244510995</v>
+        <v>1.013764833574282</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041578222004756</v>
+        <v>1.041781405655889</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034747093316121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034723659360632</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02091732952558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9932531294798994</v>
+        <v>0.9942548648086321</v>
       </c>
       <c r="D10">
-        <v>1.015462044322289</v>
+        <v>1.016035237496187</v>
       </c>
       <c r="E10">
-        <v>1.013961462767154</v>
+        <v>1.014858317550691</v>
       </c>
       <c r="F10">
-        <v>1.023142351474494</v>
+        <v>1.02383660872269</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043142399058565</v>
+        <v>1.043512295138448</v>
       </c>
       <c r="J10">
-        <v>1.021737014018367</v>
+        <v>1.022698292867134</v>
       </c>
       <c r="K10">
-        <v>1.029557628081823</v>
+        <v>1.030120883193383</v>
       </c>
       <c r="L10">
-        <v>1.028083132604939</v>
+        <v>1.028964384478589</v>
       </c>
       <c r="M10">
-        <v>1.037105967970264</v>
+        <v>1.037788422079679</v>
       </c>
       <c r="N10">
-        <v>1.009923840145641</v>
+        <v>1.012620874094356</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037990739357958</v>
+        <v>1.03853082402442</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032006831753033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03241755136888</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020164478907806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9907800049254798</v>
+        <v>0.9920062917926301</v>
       </c>
       <c r="D11">
-        <v>1.013990939070191</v>
+        <v>1.014772515397441</v>
       </c>
       <c r="E11">
-        <v>1.012212012338416</v>
+        <v>1.013309080721541</v>
       </c>
       <c r="F11">
-        <v>1.021989212337857</v>
+        <v>1.022838301831621</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04285017807437</v>
+        <v>1.043308716020495</v>
       </c>
       <c r="J11">
-        <v>1.020541441135872</v>
+        <v>1.021715441437602</v>
       </c>
       <c r="K11">
-        <v>1.028653743531475</v>
+        <v>1.029421119191221</v>
       </c>
       <c r="L11">
-        <v>1.026907245032497</v>
+        <v>1.027984297333286</v>
       </c>
       <c r="M11">
-        <v>1.03650802615451</v>
+        <v>1.037342001325944</v>
       </c>
       <c r="N11">
-        <v>1.009629713565001</v>
+        <v>1.012675424836306</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037954008083378</v>
+        <v>1.038613672445057</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031400738526863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031958981939283</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02007971281288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9902731795900276</v>
+        <v>0.9915306897933455</v>
       </c>
       <c r="D12">
-        <v>1.013763378698873</v>
+        <v>1.01457119435185</v>
       </c>
       <c r="E12">
-        <v>1.012027515279921</v>
+        <v>1.013152075822219</v>
       </c>
       <c r="F12">
-        <v>1.022107148202311</v>
+        <v>1.022976734827735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042925672054144</v>
+        <v>1.043388491220361</v>
       </c>
       <c r="J12">
-        <v>1.020494977927542</v>
+        <v>1.021697862001008</v>
       </c>
       <c r="K12">
-        <v>1.028631560581081</v>
+        <v>1.029424458200297</v>
       </c>
       <c r="L12">
-        <v>1.026927858659293</v>
+        <v>1.028031567328761</v>
       </c>
       <c r="M12">
-        <v>1.036822721965723</v>
+        <v>1.037676590020635</v>
       </c>
       <c r="N12">
-        <v>1.009724629178164</v>
+        <v>1.012851746657812</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038529402416258</v>
+        <v>1.039204573216766</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031385054323389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031961342694627</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020135644703276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9912687341648596</v>
+        <v>0.9923891146902414</v>
       </c>
       <c r="D13">
-        <v>1.014500449293345</v>
+        <v>1.015179130025828</v>
       </c>
       <c r="E13">
-        <v>1.013057277502112</v>
+        <v>1.014058966857536</v>
       </c>
       <c r="F13">
-        <v>1.023238151038891</v>
+        <v>1.024011107570789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043305606678607</v>
+        <v>1.043699647670487</v>
       </c>
       <c r="J13">
-        <v>1.021353277942112</v>
+        <v>1.022425297010284</v>
       </c>
       <c r="K13">
-        <v>1.02931189886296</v>
+        <v>1.029978109820998</v>
       </c>
       <c r="L13">
-        <v>1.027895315648004</v>
+        <v>1.02887853970199</v>
       </c>
       <c r="M13">
-        <v>1.037890701095243</v>
+        <v>1.03864977063468</v>
       </c>
       <c r="N13">
-        <v>1.010137244855598</v>
+        <v>1.013101789633838</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039650451803563</v>
+        <v>1.040250512918475</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031863576236613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032350042399488</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020307931165094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9926421081406621</v>
+        <v>0.9935924912493558</v>
       </c>
       <c r="D14">
-        <v>1.015452009906023</v>
+        <v>1.015972134149002</v>
       </c>
       <c r="E14">
-        <v>1.014323199827053</v>
+        <v>1.015172752426392</v>
       </c>
       <c r="F14">
-        <v>1.024483895283557</v>
+        <v>1.025137951374996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043708176403481</v>
+        <v>1.044022506762213</v>
       </c>
       <c r="J14">
-        <v>1.022360316865118</v>
+        <v>1.023270319934939</v>
       </c>
       <c r="K14">
-        <v>1.03010488561933</v>
+        <v>1.030615579448593</v>
       </c>
       <c r="L14">
-        <v>1.028996585378949</v>
+        <v>1.029830696565785</v>
       </c>
       <c r="M14">
-        <v>1.038974778308623</v>
+        <v>1.039617247253822</v>
       </c>
       <c r="N14">
-        <v>1.010568713675359</v>
+        <v>1.013311617212509</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040680621410365</v>
+        <v>1.041188438908543</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032425678858917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032802316353755</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020481824102677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9933129576132863</v>
+        <v>0.9941862348290657</v>
       </c>
       <c r="D15">
-        <v>1.015903003650169</v>
+        <v>1.01635147606589</v>
       </c>
       <c r="E15">
-        <v>1.014909766995152</v>
+        <v>1.015690340324242</v>
       </c>
       <c r="F15">
-        <v>1.025027005996243</v>
+        <v>1.025627375397445</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043877958709257</v>
+        <v>1.044157558767513</v>
       </c>
       <c r="J15">
-        <v>1.022813805394611</v>
+        <v>1.023650323109485</v>
       </c>
       <c r="K15">
-        <v>1.030460820107114</v>
+        <v>1.030901225372227</v>
       </c>
       <c r="L15">
-        <v>1.029485482850123</v>
+        <v>1.030251985419019</v>
       </c>
       <c r="M15">
-        <v>1.039422499784218</v>
+        <v>1.040012319414557</v>
       </c>
       <c r="N15">
-        <v>1.010747944314393</v>
+        <v>1.013386117898262</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041072010461392</v>
+        <v>1.041538200939788</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032683230230018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033010735242959</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020553184361757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9965176475836369</v>
+        <v>0.9970670772750854</v>
       </c>
       <c r="D16">
-        <v>1.017972861412157</v>
+        <v>1.018118733148358</v>
       </c>
       <c r="E16">
-        <v>1.017576688715749</v>
+        <v>1.018067606073853</v>
       </c>
       <c r="F16">
-        <v>1.027346185117555</v>
+        <v>1.027722350954312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044548478272779</v>
+        <v>1.044688649176775</v>
       </c>
       <c r="J16">
-        <v>1.024792884090634</v>
+        <v>1.02532038605028</v>
       </c>
       <c r="K16">
-        <v>1.031989271822636</v>
+        <v>1.03213263651772</v>
       </c>
       <c r="L16">
-        <v>1.031599912682492</v>
+        <v>1.03208238803876</v>
       </c>
       <c r="M16">
-        <v>1.04120336537483</v>
+        <v>1.041573219209734</v>
       </c>
       <c r="N16">
-        <v>1.011443508331421</v>
+        <v>1.013632308506251</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042440932118389</v>
+        <v>1.042733271235011</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033767078386532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033884855367728</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020823240303853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9982588567152402</v>
+        <v>0.9986632149778119</v>
       </c>
       <c r="D17">
-        <v>1.01906500941237</v>
+        <v>1.019072324757111</v>
       </c>
       <c r="E17">
-        <v>1.018961218468871</v>
+        <v>1.019322398485693</v>
       </c>
       <c r="F17">
-        <v>1.02846925600381</v>
+        <v>1.02874564090478</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044850177075871</v>
+        <v>1.044930060761719</v>
       </c>
       <c r="J17">
-        <v>1.025784109314166</v>
+        <v>1.026172860964966</v>
       </c>
       <c r="K17">
-        <v>1.032746818317039</v>
+        <v>1.03275401150786</v>
       </c>
       <c r="L17">
-        <v>1.032644760750738</v>
+        <v>1.03299991078546</v>
       </c>
       <c r="M17">
-        <v>1.041995873632663</v>
+        <v>1.04226775270698</v>
       </c>
       <c r="N17">
-        <v>1.01175128875964</v>
+        <v>1.013743072350015</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042938506933531</v>
+        <v>1.043153426442112</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034305286898313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034327029276524</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020942009889115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9988769564278582</v>
+        <v>0.9992597102913102</v>
       </c>
       <c r="D18">
-        <v>1.019390126989336</v>
+        <v>1.019374687423232</v>
       </c>
       <c r="E18">
-        <v>1.019326747886717</v>
+        <v>1.019668766637448</v>
       </c>
       <c r="F18">
-        <v>1.028605655015042</v>
+        <v>1.028867970212647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044847123207951</v>
+        <v>1.044922873243322</v>
       </c>
       <c r="J18">
-        <v>1.025982458236961</v>
+        <v>1.026350714081982</v>
       </c>
       <c r="K18">
-        <v>1.032882349826278</v>
+        <v>1.03286716389199</v>
       </c>
       <c r="L18">
-        <v>1.032820011940042</v>
+        <v>1.033156413849069</v>
       </c>
       <c r="M18">
-        <v>1.041948233433532</v>
+        <v>1.042206339407498</v>
       </c>
       <c r="N18">
-        <v>1.011737353867225</v>
+        <v>1.01369314278201</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042663550858074</v>
+        <v>1.042867625159946</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034389446196374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034394233791706</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020927860634986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9985171604429632</v>
+        <v>0.9989729517151363</v>
       </c>
       <c r="D19">
-        <v>1.019063577041507</v>
+        <v>1.01911640120539</v>
       </c>
       <c r="E19">
-        <v>1.018798487925064</v>
+        <v>1.019206151124982</v>
       </c>
       <c r="F19">
-        <v>1.027867876116423</v>
+        <v>1.028181743900527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044593307118989</v>
+        <v>1.044708267844571</v>
       </c>
       <c r="J19">
-        <v>1.025501349347269</v>
+        <v>1.025939961413853</v>
       </c>
       <c r="K19">
-        <v>1.032498342487604</v>
+        <v>1.032550302884409</v>
       </c>
       <c r="L19">
-        <v>1.032237589778641</v>
+        <v>1.032638585500378</v>
       </c>
       <c r="M19">
-        <v>1.041160247597682</v>
+        <v>1.041469096840002</v>
       </c>
       <c r="N19">
-        <v>1.011458930770063</v>
+        <v>1.013493442988099</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04171549933042</v>
+        <v>1.041959773849648</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034124353077892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034177241561538</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020805370783366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9953898708760073</v>
+        <v>0.9961845326097947</v>
       </c>
       <c r="D20">
-        <v>1.01687442966695</v>
+        <v>1.017251369268091</v>
       </c>
       <c r="E20">
-        <v>1.015762739295399</v>
+        <v>1.016474284196457</v>
       </c>
       <c r="F20">
-        <v>1.024719137839726</v>
+        <v>1.025269484719969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043623911825245</v>
+        <v>1.043901076922027</v>
       </c>
       <c r="J20">
-        <v>1.023099669315202</v>
+        <v>1.023863330587495</v>
       </c>
       <c r="K20">
-        <v>1.03062691322091</v>
+        <v>1.030997508507749</v>
       </c>
       <c r="L20">
-        <v>1.029533969216426</v>
+        <v>1.030233509286571</v>
       </c>
       <c r="M20">
-        <v>1.038340824414577</v>
+        <v>1.038882091879003</v>
       </c>
       <c r="N20">
-        <v>1.010427332023422</v>
+        <v>1.012856231077027</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038957443642977</v>
+        <v>1.039385800129357</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032805119056621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033083694461181</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020369216935096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9891302213891988</v>
+        <v>0.9906106171165802</v>
       </c>
       <c r="D21">
-        <v>1.012775902863647</v>
+        <v>1.013792187776881</v>
       </c>
       <c r="E21">
-        <v>1.010442392457077</v>
+        <v>1.0117676123591</v>
       </c>
       <c r="F21">
-        <v>1.019985953771359</v>
+        <v>1.021015060019797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042211872008762</v>
+        <v>1.042794840866248</v>
       </c>
       <c r="J21">
-        <v>1.019089539848163</v>
+        <v>1.020506218425944</v>
       </c>
       <c r="K21">
-        <v>1.0275192080346</v>
+        <v>1.028516890827321</v>
       </c>
       <c r="L21">
-        <v>1.025228594833542</v>
+        <v>1.026529421430148</v>
       </c>
       <c r="M21">
-        <v>1.034598327323645</v>
+        <v>1.03560894133786</v>
       </c>
       <c r="N21">
-        <v>1.008948992744912</v>
+        <v>1.012325024975939</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035954631237148</v>
+        <v>1.036754469104789</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030611097072744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031333390746112</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019800286547328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9851416900906564</v>
+        <v>0.9870643577807937</v>
       </c>
       <c r="D22">
-        <v>1.010169694033345</v>
+        <v>1.011598605961235</v>
       </c>
       <c r="E22">
-        <v>1.007080629165064</v>
+        <v>1.008800817282745</v>
       </c>
       <c r="F22">
-        <v>1.017023501802093</v>
+        <v>1.018361962803242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041309615878972</v>
+        <v>1.042090691718921</v>
       </c>
       <c r="J22">
-        <v>1.016548171180346</v>
+        <v>1.018382999091038</v>
       </c>
       <c r="K22">
-        <v>1.02554234395814</v>
+        <v>1.026943741496214</v>
       </c>
       <c r="L22">
-        <v>1.022513110417385</v>
+        <v>1.024199921392299</v>
       </c>
       <c r="M22">
-        <v>1.032265098610004</v>
+        <v>1.033578235656996</v>
       </c>
       <c r="N22">
-        <v>1.008015063615781</v>
+        <v>1.011987969895549</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034108022996443</v>
+        <v>1.03514729148444</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029199776061192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030206236365142</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01943963174296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9872476041058629</v>
+        <v>0.9889151637852065</v>
       </c>
       <c r="D23">
-        <v>1.011537574661872</v>
+        <v>1.012731178761218</v>
       </c>
       <c r="E23">
-        <v>1.008853683943021</v>
+        <v>1.010345958548243</v>
       </c>
       <c r="F23">
-        <v>1.018587158694024</v>
+        <v>1.019746612431672</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041780775613239</v>
+        <v>1.042448001506861</v>
       </c>
       <c r="J23">
-        <v>1.017884302092227</v>
+        <v>1.019478029185023</v>
       </c>
       <c r="K23">
-        <v>1.026576283322429</v>
+        <v>1.027747507564562</v>
       </c>
       <c r="L23">
-        <v>1.0239429678508</v>
+        <v>1.025407078699968</v>
       </c>
       <c r="M23">
-        <v>1.033494679267556</v>
+        <v>1.034632782622686</v>
       </c>
       <c r="N23">
-        <v>1.008502623005952</v>
+        <v>1.012112808874676</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035081161705484</v>
+        <v>1.035981900469048</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029921126345993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030763901862934</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01961958734917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9953616094002149</v>
+        <v>0.9961644250003969</v>
       </c>
       <c r="D24">
-        <v>1.016832575707258</v>
+        <v>1.017216817152908</v>
       </c>
       <c r="E24">
-        <v>1.0157057677596</v>
+        <v>1.016424672659813</v>
       </c>
       <c r="F24">
-        <v>1.024633775771057</v>
+        <v>1.025189935027199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043585585394885</v>
+        <v>1.043867442518205</v>
       </c>
       <c r="J24">
-        <v>1.023039386957141</v>
+        <v>1.023810925898539</v>
       </c>
       <c r="K24">
-        <v>1.030570402903731</v>
+        <v>1.030948184808666</v>
       </c>
       <c r="L24">
-        <v>1.029462574246145</v>
+        <v>1.030169364068092</v>
       </c>
       <c r="M24">
-        <v>1.038241677293945</v>
+        <v>1.038788671091857</v>
       </c>
       <c r="N24">
-        <v>1.010388110327831</v>
+        <v>1.012825169579161</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038838110950506</v>
+        <v>1.039271020737112</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032737644927864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03301864120912</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020348189491156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004382146639903</v>
+        <v>1.004520658086189</v>
       </c>
       <c r="D25">
-        <v>1.022740070259893</v>
+        <v>1.022454871243011</v>
       </c>
       <c r="E25">
-        <v>1.023358954775437</v>
+        <v>1.023482886636095</v>
       </c>
       <c r="F25">
-        <v>1.031399170525124</v>
+        <v>1.031496834324147</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045547405621972</v>
+        <v>1.045523583644772</v>
       </c>
       <c r="J25">
-        <v>1.028762928729866</v>
+        <v>1.028896835986268</v>
       </c>
       <c r="K25">
-        <v>1.034995341848373</v>
+        <v>1.034714325225838</v>
       </c>
       <c r="L25">
-        <v>1.035605160705206</v>
+        <v>1.035727278836339</v>
       </c>
       <c r="M25">
-        <v>1.043528852466679</v>
+        <v>1.043625114999058</v>
       </c>
       <c r="N25">
-        <v>1.012477727771369</v>
+        <v>1.01423781059492</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043022553124068</v>
+        <v>1.04309873819484</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035863445827761</v>
+        <v>1.035678309213293</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021221221844062</v>
       </c>
     </row>
   </sheetData>
